--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Dropbox\Notebooks\carculator_truck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\carculator_truck\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F2EAB0-5C8D-4A89-862C-1F12D2D5282E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA09F7-5ED6-4BA4-A010-E4129CF97F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2810" yWindow="3040" windowWidth="2530" windowHeight="1330" activeTab="5" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="139">
   <si>
     <t>kW</t>
   </si>
@@ -440,6 +440,21 @@
   </si>
   <si>
     <t>Lightweighting cost €/kg - 2050</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>Brusa</t>
+  </si>
+  <si>
+    <t>Toyota Prius</t>
   </si>
 </sst>
 </file>
@@ -671,6 +686,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Diesel engines</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -711,7 +751,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ICEV engines'!$A$6</c:f>
+              <c:f>'ICEV engines'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,10 +828,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'ICEV engines'!$B$5:$H$5</c:f>
+              <c:f>'ICEV engines'!$B$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -813,15 +853,48 @@
                 <c:pt idx="6">
                   <c:v>380</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ICEV engines'!$B$6:$H$6</c:f>
+              <c:f>'ICEV engines'!$B$7:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1343</c:v>
                 </c:pt>
@@ -842,6 +915,39 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,6 +991,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -947,6 +1108,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1048,6 +1264,525 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Natural gas engines</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ICEV engines'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ICEV engines'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ICEV engines'!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6014-4460-A5BA-47F000CBC91D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1478449695"/>
+        <c:axId val="1471918991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1478449695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471918991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1471918991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1478449695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Electric engines</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1154,10 +1889,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BEV motors'!$B$7:$E$7</c:f>
+              <c:f>'BEV motors'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>93</c:v>
                 </c:pt>
@@ -1170,15 +1905,18 @@
                 <c:pt idx="3">
                   <c:v>145</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BEV motors'!$B$8:$E$8</c:f>
+              <c:f>'BEV motors'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -1190,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,6 +1974,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1295,6 +2091,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1381,7 +2232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1687,7 +2538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2245,6 +3096,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4309,20 +5200,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4349,6 +5756,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8264ED7-6092-4836-88DA-CA3FF60CC6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4356,16 +5801,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4776,20 +6221,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40BBB6-5CB6-4687-8C18-59866161D37E}">
-  <dimension ref="A2:H6"/>
+  <dimension ref="A2:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4797,82 +6242,242 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>350</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>300</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>224</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>250</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>350</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>380</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>210</v>
+      </c>
+      <c r="K6">
+        <v>240</v>
+      </c>
+      <c r="L6">
+        <v>103</v>
+      </c>
+      <c r="M6">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>135</v>
+      </c>
+      <c r="O6">
+        <v>162</v>
+      </c>
+      <c r="P6">
+        <v>228</v>
+      </c>
+      <c r="Q6">
+        <v>134</v>
+      </c>
+      <c r="R6">
+        <v>228</v>
+      </c>
+      <c r="S6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1343</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1343</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>929</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>380</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>521</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>770</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>997</v>
+      </c>
+      <c r="I7">
+        <v>522</v>
+      </c>
+      <c r="J7">
+        <v>737</v>
+      </c>
+      <c r="K7">
+        <v>867</v>
+      </c>
+      <c r="L7">
+        <v>390</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
+        <v>510</v>
+      </c>
+      <c r="O7">
+        <v>529</v>
+      </c>
+      <c r="P7">
+        <v>680</v>
+      </c>
+      <c r="Q7">
+        <v>390</v>
+      </c>
+      <c r="R7">
+        <v>900</v>
+      </c>
+      <c r="S7">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <v>294</v>
+      </c>
+      <c r="E11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>520</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>870</v>
+      </c>
+      <c r="E12">
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -4883,20 +6488,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAA48E6-6FBC-4037-9765-43E39D0C1CF2}">
-  <dimension ref="A6:E8"/>
+  <dimension ref="A6:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G7" sqref="G7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4912,8 +6535,11 @@
       <c r="E7">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4928,6 +6554,9 @@
       </c>
       <c r="E8">
         <v>76</v>
+      </c>
+      <c r="F8">
+        <v>36.299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6393,8 +8022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623FB1F-4F87-4380-9B25-A6E816584076}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7737,8 +9366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC8F20-42EB-4BE3-A713-D92C184011E3}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\carculator_truck\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA09F7-5ED6-4BA4-A010-E4129CF97F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C533E3B5-2453-4232-BA35-41E56A18CD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Loading factors" sheetId="5" r:id="rId4"/>
     <sheet name="battery sizing" sheetId="6" r:id="rId5"/>
     <sheet name="weight composition" sheetId="7" r:id="rId6"/>
+    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
   <si>
     <t>kW</t>
   </si>
@@ -346,9 +347,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Cabin</t>
   </si>
   <si>
@@ -455,20 +453,84 @@
   </si>
   <si>
     <t>Toyota Prius</t>
+  </si>
+  <si>
+    <t>Total, incl. Trailer</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Trailer, % weight</t>
+  </si>
+  <si>
+    <t>of which, Frame</t>
+  </si>
+  <si>
+    <t>of which, Suspension</t>
+  </si>
+  <si>
+    <t>of which, Wheels and tires</t>
+  </si>
+  <si>
+    <t>of which, Brakes</t>
+  </si>
+  <si>
+    <t>of which, Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.G., MAN TGX </t>
+  </si>
+  <si>
+    <t>Scaling Factor</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Mass [kg]</t>
+  </si>
+  <si>
+    <t>Engine &amp; Exhaust system*</t>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
+  <si>
+    <t>Tires &amp; Wheels</t>
+  </si>
+  <si>
+    <t>Diesel/Adbluetank</t>
+  </si>
+  <si>
+    <t>Gearbox</t>
+  </si>
+  <si>
+    <t>Retarder</t>
+  </si>
+  <si>
+    <t>Total [kg]</t>
+  </si>
+  <si>
+    <t>Wolff et al. 2020, Sustainability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,8 +578,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +620,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -575,6 +671,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -584,7 +704,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -649,6 +769,25 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2689,55 +2828,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$24:$L$24</c:f>
+              <c:f>'weight composition'!$F$31:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>150.79166666666669</c:v>
+                  <c:v>82.541666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323.125</c:v>
+                  <c:v>176.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>517</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775.5</c:v>
+                  <c:v>424.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1120.1666666666665</c:v>
+                  <c:v>613.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>998</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1497</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5888,15 +6027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>58737</xdr:rowOff>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93662</xdr:rowOff>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6223,7 +6362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40BBB6-5CB6-4687-8C18-59866161D37E}">
   <dimension ref="A2:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -6244,7 +6383,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -6282,28 +6421,28 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -6426,7 +6565,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -6434,16 +6573,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -6504,19 +6643,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -9364,15 +9503,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC8F20-42EB-4BE3-A713-D92C184011E3}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="18.6328125" customWidth="1"/>
     <col min="11" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
@@ -9380,64 +9519,64 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
         <v>118</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>120</v>
-      </c>
-      <c r="J4" t="s">
-        <v>121</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>7500</v>
       </c>
       <c r="H5" s="34">
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="J5">
-        <v>26</v>
+        <v>26000</v>
       </c>
       <c r="K5" s="34">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -9445,7 +9584,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="8">
         <f>H6*$F$5/$H$5</f>
@@ -9476,7 +9615,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F18" si="0">H7*$F$5/$H$5</f>
@@ -9507,7 +9646,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
@@ -9538,7 +9677,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
@@ -9569,7 +9708,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
@@ -9634,7 +9773,7 @@
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
@@ -9665,7 +9804,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
@@ -9696,7 +9835,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
@@ -9727,7 +9866,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
@@ -9758,10 +9897,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
@@ -9792,7 +9931,7 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
@@ -9827,297 +9966,738 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>659.16666666666663</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>1412.5</v>
       </c>
       <c r="H18" s="35">
-        <v>2000</v>
+        <v>2260</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>3390</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="3"/>
-        <v>4333.333333333333</v>
+        <v>4896.666666666667</v>
       </c>
       <c r="K18" s="35">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="4"/>
-        <v>3150</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19:L19" si="5">SUM(F6:F18)</f>
-        <v>1732.5</v>
+        <v>1808.3333333333335</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="5"/>
-        <v>3712.5</v>
+        <v>3875</v>
       </c>
       <c r="H19" s="35">
         <f t="shared" si="5"/>
-        <v>5940</v>
+        <v>6200</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="5"/>
-        <v>8910</v>
+        <v>9300</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="5"/>
-        <v>12870</v>
+        <v>13433.333333333332</v>
       </c>
       <c r="K19" s="35">
         <f t="shared" si="5"/>
-        <v>13941</v>
+        <v>14541</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="5"/>
-        <v>20911.5</v>
+        <v>21811.5</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="8">
+        <f>F5-F19</f>
+        <v>1691.6666666666665</v>
+      </c>
+      <c r="G20" s="8">
+        <f>G5-G19</f>
+        <v>3625</v>
+      </c>
+      <c r="H20" s="8">
+        <f>H5-H19</f>
+        <v>5800</v>
+      </c>
+      <c r="I20" s="8">
+        <f>I5-I19</f>
+        <v>8700</v>
+      </c>
+      <c r="J20" s="8">
+        <f>J5-J19</f>
+        <v>12566.666666666668</v>
+      </c>
+      <c r="K20" s="8">
+        <f>K5-K19</f>
+        <v>25459</v>
+      </c>
+      <c r="L20" s="8">
+        <f>L5-L19</f>
+        <v>38188.5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="8">
+        <f>F19-F28</f>
+        <v>495.83333333333348</v>
+      </c>
+      <c r="G21" s="8">
+        <f>G19-G28</f>
+        <v>1062.5</v>
+      </c>
+      <c r="H21" s="8">
+        <f>H19-H28</f>
+        <v>1700</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" ref="I21:J21" si="6">I19-I28</f>
+        <v>2550</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="6"/>
+        <v>3683.3333333333321</v>
+      </c>
+      <c r="K21" s="35">
+        <f>K19-7050</f>
+        <v>7491</v>
+      </c>
+      <c r="L21" s="39">
+        <f>L19-7050</f>
+        <v>14761.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" ref="F22:K22" si="7">F21/F19</f>
+        <v>0.27419354838709681</v>
+      </c>
+      <c r="G22" s="38">
+        <f t="shared" si="7"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="H22" s="38">
+        <f t="shared" si="7"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="I22" s="38">
+        <f t="shared" si="7"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="J22" s="38">
+        <f t="shared" si="7"/>
+        <v>0.2741935483870967</v>
+      </c>
+      <c r="K22" s="38">
+        <f t="shared" si="7"/>
+        <v>0.51516401898081288</v>
+      </c>
+      <c r="L22" s="38">
+        <f>L21/L19</f>
+        <v>0.67677601265387521</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D23" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" ref="F23:H27" si="8">$K23*F$21/$K$21</f>
+        <v>171.10254527655414</v>
+      </c>
+      <c r="G23" s="41">
+        <f t="shared" si="8"/>
+        <v>366.64831130690163</v>
+      </c>
+      <c r="H23" s="41">
+        <f t="shared" si="8"/>
+        <v>586.63729809104257</v>
+      </c>
+      <c r="I23" s="41">
+        <f>$K23*I$21/$K$21</f>
+        <v>879.95594713656385</v>
+      </c>
+      <c r="J23" s="41">
+        <f>$K23*J$21/$K$21</f>
+        <v>1271.0474791972586</v>
+      </c>
+      <c r="K23" s="41">
+        <f>K12-854</f>
+        <v>2585</v>
+      </c>
+      <c r="L23" s="41">
+        <f>K23*$L$21/$K$21</f>
+        <v>5093.9096916299559</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D24" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="41">
+        <f t="shared" si="8"/>
+        <v>69.89720998531574</v>
+      </c>
+      <c r="G24" s="41">
+        <f t="shared" si="8"/>
+        <v>149.77973568281939</v>
+      </c>
+      <c r="H24" s="41">
+        <f t="shared" si="8"/>
+        <v>239.647577092511</v>
+      </c>
+      <c r="I24" s="41">
+        <f t="shared" ref="I24:I27" si="9">$K24*I$21/$K$21</f>
+        <v>359.47136563876654</v>
+      </c>
+      <c r="J24" s="41">
+        <f t="shared" ref="J24:J27" si="10">$K24*J$21/$K$21</f>
+        <v>519.23641703377371</v>
+      </c>
+      <c r="K24" s="41">
+        <f>K13-1600</f>
+        <v>1056</v>
+      </c>
+      <c r="L24" s="41">
+        <f t="shared" ref="L24:L27" si="11">K24*$L$21/$K$21</f>
+        <v>2080.9162995594716</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="41">
+        <f t="shared" si="8"/>
+        <v>50.503381835980967</v>
+      </c>
+      <c r="G25" s="41">
+        <f t="shared" si="8"/>
+        <v>108.22153250567348</v>
+      </c>
+      <c r="H25" s="41">
+        <f t="shared" si="8"/>
+        <v>173.15445200907757</v>
+      </c>
+      <c r="I25" s="41">
+        <f t="shared" si="9"/>
+        <v>259.73167801361632</v>
+      </c>
+      <c r="J25" s="41">
+        <f t="shared" si="10"/>
+        <v>375.16797935300127</v>
+      </c>
+      <c r="K25" s="41">
+        <f>K15-659</f>
+        <v>763</v>
+      </c>
+      <c r="L25" s="41">
+        <f t="shared" si="11"/>
+        <v>1503.5408490188227</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D26" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="41">
+        <f t="shared" si="8"/>
+        <v>26.733603832840483</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="8"/>
+        <v>57.286293927515295</v>
+      </c>
+      <c r="H26" s="41">
+        <f t="shared" si="8"/>
+        <v>91.658070284024475</v>
+      </c>
+      <c r="I26" s="41">
+        <f t="shared" si="9"/>
+        <v>137.48710542603672</v>
+      </c>
+      <c r="J26" s="41">
+        <f t="shared" si="10"/>
+        <v>198.59248561538632</v>
+      </c>
+      <c r="K26" s="41">
+        <f>K14*K22</f>
+        <v>403.88859088095728</v>
+      </c>
+      <c r="L26" s="41">
+        <f t="shared" si="11"/>
+        <v>795.88859088095717</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D27" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="41">
+        <f t="shared" si="8"/>
+        <v>178.71445734881866</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" si="8"/>
+        <v>382.95955146175413</v>
+      </c>
+      <c r="H27" s="41">
+        <f t="shared" si="8"/>
+        <v>612.73528233880654</v>
+      </c>
+      <c r="I27" s="41">
+        <f t="shared" si="9"/>
+        <v>919.10292350820987</v>
+      </c>
+      <c r="J27" s="41">
+        <f t="shared" si="10"/>
+        <v>1327.5931117340804</v>
+      </c>
+      <c r="K27" s="41">
+        <f>K18</f>
+        <v>2700</v>
+      </c>
+      <c r="L27" s="41">
+        <f t="shared" si="11"/>
+        <v>5320.5246295554662</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="8">
+        <f>H28*$F$5/$H$5</f>
+        <v>1312.5</v>
+      </c>
+      <c r="G28" s="8">
+        <f>H28*$G$5/$H$5</f>
+        <v>2812.5</v>
+      </c>
+      <c r="H28" s="34">
+        <v>4500</v>
+      </c>
+      <c r="I28" s="8">
+        <f>H28*$I$5/$H$5</f>
+        <v>6750</v>
+      </c>
+      <c r="J28" s="8">
+        <f>H28*$J$5/$H$5</f>
+        <v>9750</v>
+      </c>
+      <c r="K28" s="35">
+        <f>K19-K21</f>
+        <v>7050</v>
+      </c>
+      <c r="L28" s="39">
+        <f>L19-L21</f>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:L20" si="6">(F5*1000)-F19</f>
-        <v>1767.5</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="6"/>
-        <v>3787.5</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="6"/>
-        <v>6060</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="6"/>
-        <v>9090</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="6"/>
-        <v>13130</v>
-      </c>
-      <c r="K20" s="8">
-        <f t="shared" si="6"/>
-        <v>26059</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="6"/>
-        <v>39088.5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
+      <c r="F30" s="8">
+        <f>SUM(F11:F18)</f>
+        <v>1506.4583333333333</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" ref="G30:L30" si="12">SUM(G11:G18)</f>
+        <v>3228.125</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="12"/>
+        <v>5165</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="12"/>
+        <v>7747.5</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="12"/>
+        <v>11190.833333333334</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="12"/>
+        <v>12419</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="12"/>
+        <v>18628.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="8">
-        <f>SUM(F11:F18)</f>
-        <v>1430.625</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" ref="G23:L23" si="7">SUM(G11:G18)</f>
-        <v>3065.625</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="7"/>
-        <v>4905</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="7"/>
-        <v>7357.5</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="7"/>
-        <v>10627.5</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" si="7"/>
-        <v>11819</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="7"/>
-        <v>17728.5</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
+      <c r="F31" s="8">
+        <f>SUM(F10)</f>
+        <v>82.541666666666671</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31:L31" si="13">SUM(G10)</f>
+        <v>176.875</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="13"/>
+        <v>283</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="13"/>
+        <v>424.5</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="13"/>
+        <v>613.16666666666663</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="13"/>
+        <v>558</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="13"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="8">
-        <f>SUM(F7:F10)</f>
-        <v>150.79166666666669</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" ref="G24:L24" si="8">SUM(G7:G10)</f>
-        <v>323.125</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="8"/>
-        <v>517</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="8"/>
-        <v>775.5</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="8"/>
-        <v>1120.1666666666665</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" si="8"/>
-        <v>998</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="8"/>
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="F32" s="8">
         <f>F6</f>
         <v>151.08333333333334</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25:L25" si="9">G6</f>
+      <c r="G32" s="8">
+        <f t="shared" ref="G32:L32" si="14">G6</f>
         <v>323.75</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="9"/>
+      <c r="H32" s="8">
+        <f t="shared" si="14"/>
         <v>518</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="9"/>
+      <c r="I32" s="8">
+        <f t="shared" si="14"/>
         <v>777</v>
       </c>
-      <c r="J25" s="8">
-        <f t="shared" si="9"/>
+      <c r="J32" s="8">
+        <f t="shared" si="14"/>
         <v>1122.3333333333333</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="9"/>
+      <c r="K32" s="8">
+        <f t="shared" si="14"/>
         <v>1124</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" si="9"/>
+      <c r="L32" s="8">
+        <f t="shared" si="14"/>
         <v>1686</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="L33" s="36"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36">
+        <v>0.16</v>
+      </c>
+      <c r="L34" s="36"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36">
-        <v>0.17</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36">
-        <v>0.16</v>
-      </c>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D30" t="s">
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37">
+        <v>1.9</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37">
-        <v>1.9</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37">
+        <v>6.3</v>
+      </c>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37">
-        <v>5.2</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37">
-        <v>6.3</v>
-      </c>
-      <c r="L31" s="37"/>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37">
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37">
         <v>34.5</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37">
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37">
         <v>39.9</v>
       </c>
-      <c r="L32" s="37"/>
+      <c r="L39" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{104B7EC0-3364-4746-885F-9A6B6C0020CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FC2BC-0260-479C-B829-BE720EA95DB5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0.16119654977038472</v>
+      </c>
+      <c r="D6" s="46">
+        <v>1200.6405999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0.21481405812248527</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1</v>
+      </c>
+      <c r="C8" s="48">
+        <v>0.18617397382330492</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1386.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48">
+        <v>8.8449688431933307E-2</v>
+      </c>
+      <c r="D9" s="49">
+        <v>658.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1</v>
+      </c>
+      <c r="C10" s="45">
+        <v>7.4064726837246908E-2</v>
+      </c>
+      <c r="D10" s="46">
+        <v>551.65646036082637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="45">
+        <v>3.3957408700606762E-2</v>
+      </c>
+      <c r="D11" s="46">
+        <v>252.9250385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1</v>
+      </c>
+      <c r="C12" s="45">
+        <v>1.100922047877737E-2</v>
+      </c>
+      <c r="D12" s="46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0.11465700352287651</v>
+      </c>
+      <c r="D13" s="49">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.11567737031238422</v>
+      </c>
+      <c r="D14" s="49">
+        <v>861.60000010000022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53">
+        <f t="shared" ref="C15:D15" si="0">SUM(C6:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="0"/>
+        <v>7448.3020989608267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\carculator_truck\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C533E3B5-2453-4232-BA35-41E56A18CD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33073862-D5EC-4595-BD45-91A057C43854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
-    <sheet name="BEV motors" sheetId="3" r:id="rId2"/>
-    <sheet name="BEV chargers" sheetId="2" r:id="rId3"/>
-    <sheet name="Loading factors" sheetId="5" r:id="rId4"/>
-    <sheet name="battery sizing" sheetId="6" r:id="rId5"/>
-    <sheet name="weight composition" sheetId="7" r:id="rId6"/>
-    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId7"/>
+    <sheet name="Engines mass" sheetId="9" r:id="rId2"/>
+    <sheet name="Electric trucks" sheetId="10" r:id="rId3"/>
+    <sheet name="Fuel cell trucks" sheetId="11" r:id="rId4"/>
+    <sheet name="BEV motors" sheetId="3" r:id="rId5"/>
+    <sheet name="BEV chargers" sheetId="2" r:id="rId6"/>
+    <sheet name="Loading factors" sheetId="5" r:id="rId7"/>
+    <sheet name="battery sizing" sheetId="6" r:id="rId8"/>
+    <sheet name="weight composition" sheetId="7" r:id="rId9"/>
+    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="220">
   <si>
     <t>kW</t>
   </si>
@@ -332,9 +335,6 @@
     <t>Available payload left, 60t</t>
   </si>
   <si>
-    <t>Artic truck 40t</t>
-  </si>
-  <si>
     <t>Powertrain</t>
   </si>
   <si>
@@ -386,27 +386,9 @@
     <t>p.34</t>
   </si>
   <si>
-    <t>Rigid truck 12t</t>
-  </si>
-  <si>
     <t>in light green</t>
   </si>
   <si>
-    <t>Rigid truck 3.5t</t>
-  </si>
-  <si>
-    <t>Rigid truck 7.5t</t>
-  </si>
-  <si>
-    <t>Rigid truck 18t</t>
-  </si>
-  <si>
-    <t>Rigid truck 26t</t>
-  </si>
-  <si>
-    <t>Artic truck 60t</t>
-  </si>
-  <si>
     <t>Payload</t>
   </si>
   <si>
@@ -455,18 +437,9 @@
     <t>Toyota Prius</t>
   </si>
   <si>
-    <t>Total, incl. Trailer</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
     <t>Tractor</t>
   </si>
   <si>
-    <t>Trailer, % weight</t>
-  </si>
-  <si>
     <t>of which, Frame</t>
   </si>
   <si>
@@ -516,6 +489,219 @@
   </si>
   <si>
     <t>Wolff et al. 2020, Sustainability</t>
+  </si>
+  <si>
+    <t>Articulated truck, 40t</t>
+  </si>
+  <si>
+    <t>Articulated truck, 60t</t>
+  </si>
+  <si>
+    <t>Rigid truck, 26t</t>
+  </si>
+  <si>
+    <t>Rigid truck, 18t</t>
+  </si>
+  <si>
+    <t>Rigid truck, 12t</t>
+  </si>
+  <si>
+    <t>Rigid truck, 7.5t</t>
+  </si>
+  <si>
+    <t>Rigid truck, 3.5t</t>
+  </si>
+  <si>
+    <t>in kilograms</t>
+  </si>
+  <si>
+    <t>rigid, 2 axles, box body</t>
+  </si>
+  <si>
+    <t>rigid, 3 axles, box body</t>
+  </si>
+  <si>
+    <t>semi-trailer, 2+4 axles, curtain-sider</t>
+  </si>
+  <si>
+    <t>semi-trailer + trailer, 2+4+2 axles, curtain-sider</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Trailer/box</t>
+  </si>
+  <si>
+    <t>Curb mass, incl. Trailer</t>
+  </si>
+  <si>
+    <t>Trailer/box, % curb mass</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>cng</t>
+  </si>
+  <si>
+    <t>Diesel engine</t>
+  </si>
+  <si>
+    <t>CNG engine</t>
+  </si>
+  <si>
+    <t>Electric motor</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>eCascadia</t>
+  </si>
+  <si>
+    <t>https://adsal.dtnaapps.com/AssetLibrary/4317-freightliner_ecascadia_sell_sh-2020-06-02.pdf</t>
+  </si>
+  <si>
+    <t>eM2</t>
+  </si>
+  <si>
+    <t>https://adsal.dtnaapps.com/AssetLibrary/4318-freightliner_em2_sell_sheet-2020-06-02.pdf</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>VNR electric</t>
+  </si>
+  <si>
+    <t>https://www.motor1.com/reviews/398699/volvo-vnr-electric-semi-first-drive-review-lights-on-the-road/</t>
+  </si>
+  <si>
+    <t>Workhorse</t>
+  </si>
+  <si>
+    <t>C-650</t>
+  </si>
+  <si>
+    <t>https://workhorse.com/cseries.html</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Semi</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/BYD%20EV%20SEDEMA.pdf</t>
+  </si>
+  <si>
+    <t>J9D</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>GVW [ton]</t>
+  </si>
+  <si>
+    <t>Max. Payload [ton]</t>
+  </si>
+  <si>
+    <t>Engine power [kW]</t>
+  </si>
+  <si>
+    <t>Battery capacity [kWh]</t>
+  </si>
+  <si>
+    <t>Range [km]</t>
+  </si>
+  <si>
+    <t>TtW energy [kWh/km]</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>eActros</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/340380/mercedes-benz-delivers-first-10-eactros-electric-trucks/</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>https://www.trucks.com/2019/09/05/everything-we-know-about-the-tesla-semi-truck/ and 10.1021/acsenergylett.7b00432 for payload estimate</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>TGS 18.320</t>
+  </si>
+  <si>
+    <t>Hydrogen tank capacity [kg H2]</t>
+  </si>
+  <si>
+    <t>Fuel cell stack output [kW]</t>
+  </si>
+  <si>
+    <t>https://h2energy.ch/wp-content/uploads/2017/06/Brochure-Truck.pdf</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Xcient</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Maxity H2</t>
+  </si>
+  <si>
+    <t>https://h2energy.ch/en/worlds-first-fuel-cell-heavy-duty-truck-hyundai-xcient-fuel-cell-heads-to-europe-for-commercial-use/</t>
+  </si>
+  <si>
+    <t>https://fuelcelltrucks.eu/project/symbio-renault-maxity-h2/</t>
+  </si>
+  <si>
+    <t>VDL</t>
+  </si>
+  <si>
+    <t>H2-Share</t>
+  </si>
+  <si>
+    <t>https://fuelcelltrucks.eu/project/vdl-27-ton-hydrogen-truck/</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>https://fuelcelltrucks.eu/project/scania-four-hydrogen-gas-trucks-with-asko-in-norway/</t>
   </si>
 </sst>
 </file>
@@ -528,9 +714,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +780,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -639,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -695,6 +889,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -704,7 +907,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -787,7 +990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1896,6 +2102,2400 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Engines mass'!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diesel engine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Engines mass'!$E$22:$AE$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Engines mass'!$E$23:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="4">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB76-45A7-8A2D-9E2752925B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Engines mass'!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNG engine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Engines mass'!$E$22:$AE$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Engines mass'!$E$24:$AE$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB76-45A7-8A2D-9E2752925B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Engines mass'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electric motor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Engines mass'!$E$22:$AE$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Engines mass'!$E$25:$AE$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="22">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB76-45A7-8A2D-9E2752925B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1132492911"/>
+        <c:axId val="1081512687"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1132492911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>engine power [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081512687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1081512687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>engine mass [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1132492911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Engine power vs. gross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> weight</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Electric trucks'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Engine power [kW]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Electric trucks'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Electric trucks'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D88-4EA4-9E81-B434A06F4824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="721442448"/>
+        <c:axId val="497924016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="721442448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Gross vehicle weight [ton]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497924016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497924016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Engine power  [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="721442448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Payload vs. gross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> weight</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Electric trucks'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max. Payload [ton]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Electric trucks'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Electric trucks'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7CB-4195-99F4-AA94A24D2114}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="721442448"/>
+        <c:axId val="497924016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="721442448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Gross vehicle weight [ton]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497924016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497924016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Payload [ton]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="721442448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery capacity vs. gross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> weight</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Electric trucks'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Battery capacity [kWh]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Electric trucks'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Electric trucks'!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D820-49F4-B05E-364963FF5EB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="721442448"/>
+        <c:axId val="497924016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="721442448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Gross vehicle weight [ton]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497924016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497924016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Battery capacity [kWh]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="721442448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2371,7 +4971,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2677,7 +5277,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2823,7 +5423,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$5:$L$5</c:f>
+              <c:f>'weight composition'!$F$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2853,7 +5453,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$31:$L$31</c:f>
+              <c:f>'weight composition'!$F$32:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3275,6 +5875,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5340,6 +8100,2070 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5940,6 +10764,164 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BDBFEA-B62A-40BE-9BE4-56260E494C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1120775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>58737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023A76B8-635F-4C21-A2E4-6BC7A008B515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE0CF5F-3D00-4073-8083-195BDF7167FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE34F376-A476-4610-BDCB-350825D1CFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -5979,7 +10961,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6022,19 +11004,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>122237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6363,7 +11345,7 @@
   <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="A11" sqref="A11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6383,7 +11365,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -6421,28 +11403,28 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="S5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -6565,7 +11547,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -6573,16 +11555,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -6625,12 +11607,1343 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FC2BC-0260-479C-B829-BE720EA95DB5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0.16119654977038472</v>
+      </c>
+      <c r="D6" s="46">
+        <v>1200.6405999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0.21481405812248527</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1</v>
+      </c>
+      <c r="C8" s="48">
+        <v>0.18617397382330492</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1386.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48">
+        <v>8.8449688431933307E-2</v>
+      </c>
+      <c r="D9" s="49">
+        <v>658.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1</v>
+      </c>
+      <c r="C10" s="45">
+        <v>7.4064726837246908E-2</v>
+      </c>
+      <c r="D10" s="46">
+        <v>551.65646036082637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="45">
+        <v>3.3957408700606762E-2</v>
+      </c>
+      <c r="D11" s="46">
+        <v>252.9250385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1</v>
+      </c>
+      <c r="C12" s="45">
+        <v>1.100922047877737E-2</v>
+      </c>
+      <c r="D12" s="46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0.11465700352287651</v>
+      </c>
+      <c r="D13" s="49">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.11567737031238422</v>
+      </c>
+      <c r="D14" s="49">
+        <v>861.60000010000022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53">
+        <f t="shared" ref="C15:D15" si="0">SUM(C6:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="0"/>
+        <v>7448.3020989608267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0034D5-0E96-4432-87E8-82D8AB21A353}">
+  <dimension ref="D7:AE25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="7" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" t="s">
+        <v>126</v>
+      </c>
+      <c r="X7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>350</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8">
+        <v>224</v>
+      </c>
+      <c r="K8">
+        <v>250</v>
+      </c>
+      <c r="L8">
+        <v>350</v>
+      </c>
+      <c r="M8">
+        <v>380</v>
+      </c>
+      <c r="N8">
+        <v>200</v>
+      </c>
+      <c r="O8">
+        <v>210</v>
+      </c>
+      <c r="P8">
+        <v>240</v>
+      </c>
+      <c r="Q8">
+        <v>103</v>
+      </c>
+      <c r="R8">
+        <v>118</v>
+      </c>
+      <c r="S8">
+        <v>135</v>
+      </c>
+      <c r="T8">
+        <v>162</v>
+      </c>
+      <c r="U8">
+        <v>228</v>
+      </c>
+      <c r="V8">
+        <v>134</v>
+      </c>
+      <c r="W8">
+        <v>228</v>
+      </c>
+      <c r="X8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1343</v>
+      </c>
+      <c r="H9">
+        <v>1343</v>
+      </c>
+      <c r="I9">
+        <v>929</v>
+      </c>
+      <c r="J9">
+        <v>380</v>
+      </c>
+      <c r="K9">
+        <v>521</v>
+      </c>
+      <c r="L9">
+        <v>770</v>
+      </c>
+      <c r="M9">
+        <v>997</v>
+      </c>
+      <c r="N9">
+        <v>522</v>
+      </c>
+      <c r="O9">
+        <v>737</v>
+      </c>
+      <c r="P9">
+        <v>867</v>
+      </c>
+      <c r="Q9">
+        <v>390</v>
+      </c>
+      <c r="R9">
+        <v>400</v>
+      </c>
+      <c r="S9">
+        <v>510</v>
+      </c>
+      <c r="T9">
+        <v>529</v>
+      </c>
+      <c r="U9">
+        <v>680</v>
+      </c>
+      <c r="V9">
+        <v>390</v>
+      </c>
+      <c r="W9">
+        <v>900</v>
+      </c>
+      <c r="X9">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>147</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10">
+        <v>294</v>
+      </c>
+      <c r="J10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>520</v>
+      </c>
+      <c r="H11">
+        <v>800</v>
+      </c>
+      <c r="I11">
+        <v>870</v>
+      </c>
+      <c r="J11">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:31" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>147</v>
+      </c>
+      <c r="F22">
+        <v>180</v>
+      </c>
+      <c r="G22">
+        <v>294</v>
+      </c>
+      <c r="H22">
+        <v>343</v>
+      </c>
+      <c r="I22">
+        <v>400</v>
+      </c>
+      <c r="J22">
+        <v>350</v>
+      </c>
+      <c r="K22">
+        <v>300</v>
+      </c>
+      <c r="L22">
+        <v>224</v>
+      </c>
+      <c r="M22">
+        <v>250</v>
+      </c>
+      <c r="N22">
+        <v>350</v>
+      </c>
+      <c r="O22">
+        <v>380</v>
+      </c>
+      <c r="P22">
+        <v>200</v>
+      </c>
+      <c r="Q22">
+        <v>210</v>
+      </c>
+      <c r="R22">
+        <v>240</v>
+      </c>
+      <c r="S22">
+        <v>103</v>
+      </c>
+      <c r="T22">
+        <v>118</v>
+      </c>
+      <c r="U22">
+        <v>135</v>
+      </c>
+      <c r="V22">
+        <v>162</v>
+      </c>
+      <c r="W22">
+        <v>228</v>
+      </c>
+      <c r="X22">
+        <v>134</v>
+      </c>
+      <c r="Y22">
+        <v>228</v>
+      </c>
+      <c r="Z22">
+        <v>310</v>
+      </c>
+      <c r="AA22">
+        <v>93</v>
+      </c>
+      <c r="AB22">
+        <v>70</v>
+      </c>
+      <c r="AC22">
+        <v>28</v>
+      </c>
+      <c r="AD22">
+        <v>145</v>
+      </c>
+      <c r="AE22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:31" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23">
+        <v>1343</v>
+      </c>
+      <c r="J23">
+        <v>1343</v>
+      </c>
+      <c r="K23">
+        <v>929</v>
+      </c>
+      <c r="L23">
+        <v>380</v>
+      </c>
+      <c r="M23">
+        <v>521</v>
+      </c>
+      <c r="N23">
+        <v>770</v>
+      </c>
+      <c r="O23">
+        <v>997</v>
+      </c>
+      <c r="P23">
+        <v>522</v>
+      </c>
+      <c r="Q23">
+        <v>737</v>
+      </c>
+      <c r="R23">
+        <v>867</v>
+      </c>
+      <c r="S23">
+        <v>390</v>
+      </c>
+      <c r="T23">
+        <v>400</v>
+      </c>
+      <c r="U23">
+        <v>510</v>
+      </c>
+      <c r="V23">
+        <v>529</v>
+      </c>
+      <c r="W23">
+        <v>680</v>
+      </c>
+      <c r="X23">
+        <v>390</v>
+      </c>
+      <c r="Y23">
+        <v>900</v>
+      </c>
+      <c r="Z23">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="24" spans="4:31" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24">
+        <v>520</v>
+      </c>
+      <c r="F24">
+        <v>800</v>
+      </c>
+      <c r="G24">
+        <v>870</v>
+      </c>
+      <c r="H24">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="25" spans="4:31" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA25">
+        <v>51</v>
+      </c>
+      <c r="AB25">
+        <v>51</v>
+      </c>
+      <c r="AC25">
+        <v>26</v>
+      </c>
+      <c r="AD25">
+        <v>76</v>
+      </c>
+      <c r="AE25">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2F0CF6-DD36-4F84-862B-ADCA2CD5B077}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;" - "&amp;B2</f>
+        <v>Freightliner - eCascadia</v>
+      </c>
+      <c r="D2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F2">
+        <v>391</v>
+      </c>
+      <c r="G2">
+        <v>475</v>
+      </c>
+      <c r="H2">
+        <v>400</v>
+      </c>
+      <c r="I2" s="56">
+        <f>G2/H2</f>
+        <v>1.1875</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C14" si="0">A3&amp;" - "&amp;B3</f>
+        <v>Freightliner - eM2</v>
+      </c>
+      <c r="D3">
+        <v>11.8</v>
+      </c>
+      <c r="F3">
+        <v>224</v>
+      </c>
+      <c r="G3">
+        <v>315</v>
+      </c>
+      <c r="H3">
+        <v>370</v>
+      </c>
+      <c r="I3" s="56">
+        <f>G3/H3</f>
+        <v>0.85135135135135132</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Volvo - VNR electric</v>
+      </c>
+      <c r="D4">
+        <v>29.9</v>
+      </c>
+      <c r="E4">
+        <v>19.2</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="I4" s="56">
+        <f>G4/H4</f>
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Volvo - VNR electric</v>
+      </c>
+      <c r="D5">
+        <v>29.9</v>
+      </c>
+      <c r="E5">
+        <v>19.2</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <v>281</v>
+      </c>
+      <c r="I5" s="56">
+        <f>G5/H5</f>
+        <v>1.0676156583629892</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Workhorse - C-650</v>
+      </c>
+      <c r="D6">
+        <v>5.7</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6" s="56">
+        <f>G6/H6</f>
+        <v>0.4375</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tesla - Semi</v>
+      </c>
+      <c r="D7">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>745</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>480</v>
+      </c>
+      <c r="I7" s="56">
+        <f>G7/H7</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tesla - Semi</v>
+      </c>
+      <c r="D8">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>745</v>
+      </c>
+      <c r="G8">
+        <v>1100</v>
+      </c>
+      <c r="H8">
+        <v>800</v>
+      </c>
+      <c r="I8" s="56">
+        <f>G8/H8</f>
+        <v>1.375</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>BYD - T3</v>
+      </c>
+      <c r="D9">
+        <v>2.8</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9" s="56">
+        <f>G9/H9</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>BYD - T5</v>
+      </c>
+      <c r="D10">
+        <v>7.3</v>
+      </c>
+      <c r="E10">
+        <v>2.6</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10" s="56">
+        <f>G10/H10</f>
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>BYD - T7</v>
+      </c>
+      <c r="D11">
+        <v>10.8</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>175</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11" s="56">
+        <f>G11/H11</f>
+        <v>0.875</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>BYD - J9D</v>
+      </c>
+      <c r="D12">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G12">
+        <v>175</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12" s="56">
+        <f>G12/H12</f>
+        <v>1.75</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>BYD - T9</v>
+      </c>
+      <c r="D13">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G13">
+        <v>350</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13" s="56">
+        <v>1.6</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Mercedes - eActros</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>250</v>
+      </c>
+      <c r="G14">
+        <v>240</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+      <c r="I14" s="56">
+        <f>G14/H14</f>
+        <v>1.2</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{4FC1C520-DB7D-4E39-AC58-5C06EDF88596}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{957B8BE9-77F2-45C7-8440-54BA42D3BD21}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{77FE3416-D878-4588-AE98-2C3F9AE858EF}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{CB0AE9A7-FC0F-4C7F-84A2-34567441D1C8}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{FE7BE52E-7806-405C-A8A0-B608D5E293C9}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{F4A33432-5ABC-4197-9A05-E18AF4E9ACA6}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{5812977D-41FC-4FE5-9417-773D7573F9E2}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{508EFF3E-94DE-42FE-8D93-FF110947A992}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{DB1B6E89-AC91-41E7-8E46-0B1D1D3718D7}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{7A2C0A0D-B28E-4BBF-B93D-2A3CD07DF60F}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{4EA14EA4-606A-4CBF-856A-EB098A74EE1E}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{5C72ED48-2BA8-43A3-806C-58F78E5FACFD}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{3DBC9343-934F-4D2B-8107-B23B7EE8D0A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BBDD29-B13E-4593-BD51-713525CDE8CB}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;" - "&amp;B2</f>
+        <v>MAN - TGS 18.320</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>375</v>
+      </c>
+      <c r="K2" s="56">
+        <f>(G2/J2)*120/3.6</f>
+        <v>2.7555555555555555</v>
+      </c>
+      <c r="L2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="str">
+        <f>A3&amp;" - "&amp;B3</f>
+        <v>Hyundai - Xcient</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
+      <c r="G3">
+        <v>34.5</v>
+      </c>
+      <c r="H3">
+        <v>190</v>
+      </c>
+      <c r="I3">
+        <v>73</v>
+      </c>
+      <c r="J3">
+        <v>400</v>
+      </c>
+      <c r="K3" s="56">
+        <f>(G3/J3)*120/3.6</f>
+        <v>2.875</v>
+      </c>
+      <c r="L3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="str">
+        <f>A4&amp;" - "&amp;B4</f>
+        <v>Renault - Maxity H2</v>
+      </c>
+      <c r="D4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4" s="56">
+        <f>(G4/J4)*120/3.6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="str">
+        <f>A5&amp;" - "&amp;B5</f>
+        <v>VDL - H2-Share</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>88</v>
+      </c>
+      <c r="I5">
+        <v>84</v>
+      </c>
+      <c r="J5">
+        <v>400</v>
+      </c>
+      <c r="K5" s="56">
+        <f>(G5/J5)*120/3.6</f>
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="str">
+        <f>A6&amp;" - "&amp;B6</f>
+        <v xml:space="preserve">Scania - </v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>290</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>56</v>
+      </c>
+      <c r="J6">
+        <v>400</v>
+      </c>
+      <c r="K6" s="56">
+        <f>(G6/J6)*120/3.6</f>
+        <v>2.75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAA48E6-6FBC-4037-9765-43E39D0C1CF2}">
   <dimension ref="A6:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J8"/>
+      <selection activeCell="A7" sqref="A7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6643,19 +12956,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -6704,7 +13017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF3029B-9326-4F69-86DA-8B9EBC0E2EEA}">
   <dimension ref="A2:C5"/>
   <sheetViews>
@@ -6760,7 +13073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F5CD19-7EDF-484E-B634-E6A3A4765665}">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -8157,7 +14470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623FB1F-4F87-4380-9B25-A6E816584076}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -9501,12 +15814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC8F20-42EB-4BE3-A713-D92C184011E3}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9514,1006 +15827,1028 @@
     <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D6" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
         <v>119</v>
       </c>
-      <c r="J4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="F6">
+        <v>3500</v>
+      </c>
+      <c r="G6">
+        <v>7500</v>
+      </c>
+      <c r="H6" s="34">
+        <v>12000</v>
+      </c>
+      <c r="I6">
+        <v>18000</v>
+      </c>
+      <c r="J6">
+        <v>26000</v>
+      </c>
+      <c r="K6" s="34">
+        <v>40000</v>
+      </c>
+      <c r="L6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5">
-        <v>3500</v>
-      </c>
-      <c r="G5">
-        <v>7500</v>
-      </c>
-      <c r="H5" s="34">
-        <v>12000</v>
-      </c>
-      <c r="I5">
-        <v>18000</v>
-      </c>
-      <c r="J5">
-        <v>26000</v>
-      </c>
-      <c r="K5" s="34">
-        <v>40000</v>
-      </c>
-      <c r="L5">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="8">
-        <f>H6*$F$5/$H$5</f>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="8">
+        <f>H7*$F$6/$H$6</f>
         <v>151.08333333333334</v>
       </c>
-      <c r="G6" s="8">
-        <f>H6*$G$5/$H$5</f>
+      <c r="G7" s="8">
+        <f>H7*$G$6/$H$6</f>
         <v>323.75</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H7" s="35">
         <v>518</v>
       </c>
-      <c r="I6" s="8">
-        <f>H6*$I$5/$H$5</f>
+      <c r="I7" s="8">
+        <f>H7*$I$6/$H$6</f>
         <v>777</v>
       </c>
-      <c r="J6" s="8">
-        <f>H6*$J$5/$H$5</f>
+      <c r="J7" s="8">
+        <f>H7*$J$6/$H$6</f>
         <v>1122.3333333333333</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K7" s="35">
         <v>1124</v>
       </c>
-      <c r="L6" s="8">
-        <f>K6*$L$5/$K$5</f>
+      <c r="L7" s="8">
+        <f>K7*$L$6/$K$6</f>
         <v>1686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ref="F7:F18" si="0">H7*$F$5/$H$5</f>
-        <v>10.791666666666666</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" ref="G7:G18" si="1">H7*$G$5/$H$5</f>
-        <v>23.125</v>
-      </c>
-      <c r="H7" s="35">
-        <v>37</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" ref="I7:I18" si="2">H7*$I$5/$H$5</f>
-        <v>55.5</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" ref="J7:J18" si="3">H7*$J$5/$H$5</f>
-        <v>80.166666666666671</v>
-      </c>
-      <c r="K7" s="35">
-        <v>140</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" ref="L7:L18" si="4">K7*$L$5/$K$5</f>
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" ref="F8:F19" si="0">H8*$F$6/$H$6</f>
+        <v>10.791666666666666</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" ref="G8:G19" si="1">H8*$G$6/$H$6</f>
+        <v>23.125</v>
+      </c>
+      <c r="H8" s="35">
+        <v>37</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" ref="I8:I19" si="2">H8*$I$6/$H$6</f>
+        <v>55.5</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" ref="J8:J19" si="3">H8*$J$6/$H$6</f>
+        <v>80.166666666666671</v>
+      </c>
+      <c r="K8" s="35">
+        <v>140</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" ref="L8:L19" si="4">K8*$L$6/$K$6</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>13.708333333333334</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>29.375</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H9" s="35">
         <v>47</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>70.5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <f t="shared" si="3"/>
         <v>101.83333333333333</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K9" s="35">
         <v>80</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L9" s="8">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H10" s="35">
         <v>150</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K10" s="35">
         <v>220</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L10" s="8">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>82.541666666666671</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>176.875</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H11" s="35">
         <v>283</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>424.5</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <f t="shared" si="3"/>
         <v>613.16666666666663</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K11" s="35">
         <v>558</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L11" s="8">
         <f t="shared" si="4"/>
         <v>837</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="8">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>24.208333333333332</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>51.875</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H12" s="35">
         <v>83</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>124.5</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <f t="shared" si="3"/>
         <v>179.83333333333334</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K12" s="35">
         <v>265</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="4"/>
         <v>397.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="8">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>119.58333333333333</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>256.25</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H13" s="35">
         <v>410</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>615</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="8">
         <f t="shared" si="3"/>
         <v>888.33333333333337</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K13" s="35">
         <v>3439</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L13" s="8">
         <f t="shared" si="4"/>
         <v>5158.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="8">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>310.33333333333331</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H14" s="35">
         <v>1064</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <f t="shared" si="2"/>
         <v>1596</v>
       </c>
-      <c r="J13" s="8">
-        <f t="shared" si="3"/>
-        <v>2305.3333333333335</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="J14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="35">
         <v>2656</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L14" s="8">
         <f t="shared" si="4"/>
         <v>3984</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="8">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>24.208333333333332</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>51.875</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H15" s="35">
         <v>83</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
         <v>124.5</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <f t="shared" si="3"/>
         <v>179.83333333333334</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K15" s="35">
         <v>784</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="4"/>
         <v>1176</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="8">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>193.95833333333334</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>415.625</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H16" s="35">
         <v>665</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>997.5</v>
       </c>
-      <c r="J15" s="8">
-        <f t="shared" si="3"/>
-        <v>1440.8333333333333</v>
-      </c>
-      <c r="K15" s="35">
+      <c r="J16" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K16" s="35">
         <v>1422</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L16" s="8">
         <f t="shared" si="4"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="8">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H17" s="35">
         <v>0</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K17" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L17" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="8">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H18" s="35">
         <v>600</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="J17" s="8">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="K17" s="35">
+      <c r="J18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="35">
         <v>1153</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L18" s="8">
         <f t="shared" si="4"/>
         <v>1729.5</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="8">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>659.16666666666663</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f t="shared" si="1"/>
         <v>1412.5</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H19" s="35">
         <v>2260</v>
       </c>
-      <c r="I18" s="8">
-        <f t="shared" si="2"/>
-        <v>3390</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="3"/>
-        <v>4896.666666666667</v>
-      </c>
-      <c r="K18" s="35">
+      <c r="I19" s="8">
+        <v>2300</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K19" s="35">
         <v>2700</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L19" s="8">
         <f t="shared" si="4"/>
         <v>4050</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" ref="F19:L19" si="5">SUM(F6:F18)</f>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:L20" si="5">SUM(F7:F19)</f>
         <v>1808.3333333333335</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="5"/>
         <v>3875</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H20" s="35">
         <f t="shared" si="5"/>
         <v>6200</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <f t="shared" si="5"/>
-        <v>9300</v>
-      </c>
-      <c r="J19" s="8">
+        <v>8210</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="5"/>
-        <v>13433.333333333332</v>
-      </c>
-      <c r="K19" s="35">
+        <v>10090.5</v>
+      </c>
+      <c r="K20" s="35">
         <f t="shared" si="5"/>
         <v>14541</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="5"/>
         <v>21811.5</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="8">
-        <f>F5-F19</f>
-        <v>1691.6666666666665</v>
-      </c>
-      <c r="G20" s="8">
-        <f>G5-G19</f>
-        <v>3625</v>
-      </c>
-      <c r="H20" s="8">
-        <f>H5-H19</f>
-        <v>5800</v>
-      </c>
-      <c r="I20" s="8">
-        <f>I5-I19</f>
-        <v>8700</v>
-      </c>
-      <c r="J20" s="8">
-        <f>J5-J19</f>
-        <v>12566.666666666668</v>
-      </c>
-      <c r="K20" s="8">
-        <f>K5-K19</f>
-        <v>25459</v>
-      </c>
-      <c r="L20" s="8">
-        <f>L5-L19</f>
-        <v>38188.5</v>
-      </c>
-    </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F21" s="8">
-        <f>F19-F28</f>
-        <v>495.83333333333348</v>
+        <f t="shared" ref="F21:L21" si="6">F6-F20</f>
+        <v>1691.6666666666665</v>
       </c>
       <c r="G21" s="8">
-        <f>G19-G28</f>
-        <v>1062.5</v>
+        <f t="shared" si="6"/>
+        <v>3625</v>
       </c>
       <c r="H21" s="8">
-        <f>H19-H28</f>
-        <v>1700</v>
+        <f t="shared" si="6"/>
+        <v>5800</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" ref="I21:J21" si="6">I19-I28</f>
-        <v>2550</v>
+        <f t="shared" si="6"/>
+        <v>9790</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" si="6"/>
-        <v>3683.3333333333321</v>
-      </c>
-      <c r="K21" s="35">
-        <f>K19-7050</f>
-        <v>7491</v>
-      </c>
-      <c r="L21" s="39">
-        <f>L19-7050</f>
-        <v>14761.5</v>
+        <v>15909.5</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="6"/>
+        <v>25459</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="6"/>
+        <v>38188.5</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="38">
-        <f t="shared" ref="F22:K22" si="7">F21/F19</f>
+        <v>162</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F20-F29</f>
+        <v>495.83333333333348</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G20-G29</f>
+        <v>1062.5</v>
+      </c>
+      <c r="H22" s="8">
+        <f>H20-H29</f>
+        <v>1700</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22:J22" si="7">I20-I29</f>
+        <v>3210</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="7"/>
+        <v>4090.5</v>
+      </c>
+      <c r="K22" s="35">
+        <f>K20-7050</f>
+        <v>7491</v>
+      </c>
+      <c r="L22" s="39">
+        <f>L20-7050</f>
+        <v>14761.5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" ref="F23:K23" si="8">F22/F20</f>
         <v>0.27419354838709681</v>
       </c>
-      <c r="G22" s="38">
-        <f t="shared" si="7"/>
+      <c r="G23" s="38">
+        <f t="shared" si="8"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="H22" s="38">
-        <f t="shared" si="7"/>
+      <c r="H23" s="38">
+        <f t="shared" si="8"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="I22" s="38">
-        <f t="shared" si="7"/>
-        <v>0.27419354838709675</v>
-      </c>
-      <c r="J22" s="38">
-        <f t="shared" si="7"/>
-        <v>0.2741935483870967</v>
-      </c>
-      <c r="K22" s="38">
-        <f t="shared" si="7"/>
+      <c r="I23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.39098660170523752</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.40538129924186117</v>
+      </c>
+      <c r="K23" s="38">
+        <f t="shared" si="8"/>
         <v>0.51516401898081288</v>
       </c>
-      <c r="L22" s="38">
-        <f>L21/L19</f>
+      <c r="L23" s="38">
+        <f>L22/L20</f>
         <v>0.67677601265387521</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D23" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="41">
-        <f t="shared" ref="F23:H27" si="8">$K23*F$21/$K$21</f>
-        <v>171.10254527655414</v>
-      </c>
-      <c r="G23" s="41">
-        <f t="shared" si="8"/>
-        <v>366.64831130690163</v>
-      </c>
-      <c r="H23" s="41">
-        <f t="shared" si="8"/>
-        <v>586.63729809104257</v>
-      </c>
-      <c r="I23" s="41">
-        <f>$K23*I$21/$K$21</f>
-        <v>879.95594713656385</v>
-      </c>
-      <c r="J23" s="41">
-        <f>$K23*J$21/$K$21</f>
-        <v>1271.0474791972586</v>
-      </c>
-      <c r="K23" s="41">
-        <f>K12-854</f>
-        <v>2585</v>
-      </c>
-      <c r="L23" s="41">
-        <f>K23*$L$21/$K$21</f>
-        <v>5093.9096916299559</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D24" s="40" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F24" s="41">
-        <f t="shared" si="8"/>
-        <v>69.89720998531574</v>
+        <f t="shared" ref="F24:H28" si="9">$K24*F$22/$K$22</f>
+        <v>171.10254527655414</v>
       </c>
       <c r="G24" s="41">
-        <f t="shared" si="8"/>
-        <v>149.77973568281939</v>
+        <f t="shared" si="9"/>
+        <v>366.64831130690163</v>
       </c>
       <c r="H24" s="41">
-        <f t="shared" si="8"/>
-        <v>239.647577092511</v>
+        <f t="shared" si="9"/>
+        <v>586.63729809104257</v>
       </c>
       <c r="I24" s="41">
-        <f t="shared" ref="I24:I27" si="9">$K24*I$21/$K$21</f>
-        <v>359.47136563876654</v>
+        <f>$K24*I$22/$K$22</f>
+        <v>1107.7092511013216</v>
       </c>
       <c r="J24" s="41">
-        <f t="shared" ref="J24:J27" si="10">$K24*J$21/$K$21</f>
-        <v>519.23641703377371</v>
+        <f>$K24*J$22/$K$22</f>
+        <v>1411.5528634361233</v>
       </c>
       <c r="K24" s="41">
-        <f>K13-1600</f>
-        <v>1056</v>
+        <f>K13-854</f>
+        <v>2585</v>
       </c>
       <c r="L24" s="41">
-        <f t="shared" ref="L24:L27" si="11">K24*$L$21/$K$21</f>
-        <v>2080.9162995594716</v>
+        <f>K24*$L$22/$K$22</f>
+        <v>5093.9096916299559</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D25" s="40" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" si="8"/>
-        <v>50.503381835980967</v>
+        <f t="shared" si="9"/>
+        <v>69.89720998531574</v>
       </c>
       <c r="G25" s="41">
-        <f t="shared" si="8"/>
-        <v>108.22153250567348</v>
+        <f t="shared" si="9"/>
+        <v>149.77973568281939</v>
       </c>
       <c r="H25" s="41">
-        <f t="shared" si="8"/>
-        <v>173.15445200907757</v>
+        <f t="shared" si="9"/>
+        <v>239.647577092511</v>
       </c>
       <c r="I25" s="41">
-        <f t="shared" si="9"/>
-        <v>259.73167801361632</v>
+        <f t="shared" ref="I25:I28" si="10">$K25*I$22/$K$22</f>
+        <v>452.51101321585901</v>
       </c>
       <c r="J25" s="41">
-        <f t="shared" si="10"/>
-        <v>375.16797935300127</v>
+        <f t="shared" ref="J25:J28" si="11">$K25*J$22/$K$22</f>
+        <v>576.63436123348015</v>
       </c>
       <c r="K25" s="41">
-        <f>K15-659</f>
-        <v>763</v>
+        <f>K14-1600</f>
+        <v>1056</v>
       </c>
       <c r="L25" s="41">
-        <f t="shared" si="11"/>
-        <v>1503.5408490188227</v>
+        <f t="shared" ref="L25:L28" si="12">K25*$L$22/$K$22</f>
+        <v>2080.9162995594716</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D26" s="40" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F26" s="41">
-        <f t="shared" si="8"/>
-        <v>26.733603832840483</v>
+        <f t="shared" si="9"/>
+        <v>50.503381835980967</v>
       </c>
       <c r="G26" s="41">
-        <f t="shared" si="8"/>
-        <v>57.286293927515295</v>
+        <f t="shared" si="9"/>
+        <v>108.22153250567348</v>
       </c>
       <c r="H26" s="41">
-        <f t="shared" si="8"/>
-        <v>91.658070284024475</v>
+        <f t="shared" si="9"/>
+        <v>173.15445200907757</v>
       </c>
       <c r="I26" s="41">
-        <f t="shared" si="9"/>
-        <v>137.48710542603672</v>
+        <f t="shared" si="10"/>
+        <v>326.95634761714058</v>
       </c>
       <c r="J26" s="41">
-        <f t="shared" si="10"/>
-        <v>198.59248561538632</v>
+        <f t="shared" si="11"/>
+        <v>416.64016820184219</v>
       </c>
       <c r="K26" s="41">
-        <f>K14*K22</f>
-        <v>403.88859088095728</v>
+        <f>K16-659</f>
+        <v>763</v>
       </c>
       <c r="L26" s="41">
-        <f t="shared" si="11"/>
-        <v>795.88859088095717</v>
+        <f t="shared" si="12"/>
+        <v>1503.5408490188227</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D27" s="40" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>26.733603832840483</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" si="9"/>
+        <v>57.286293927515295</v>
+      </c>
+      <c r="H27" s="41">
+        <f t="shared" si="9"/>
+        <v>91.658070284024475</v>
+      </c>
+      <c r="I27" s="41">
+        <f t="shared" si="10"/>
+        <v>173.07200330101091</v>
+      </c>
+      <c r="J27" s="41">
+        <f t="shared" si="11"/>
+        <v>220.54549205694244</v>
+      </c>
+      <c r="K27" s="41">
+        <f>K15*K23</f>
+        <v>403.88859088095728</v>
+      </c>
+      <c r="L27" s="41">
+        <f t="shared" si="12"/>
+        <v>795.88859088095717</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D28" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" si="9"/>
         <v>178.71445734881866</v>
       </c>
-      <c r="G27" s="41">
-        <f t="shared" si="8"/>
+      <c r="G28" s="41">
+        <f t="shared" si="9"/>
         <v>382.95955146175413</v>
       </c>
-      <c r="H27" s="41">
-        <f t="shared" si="8"/>
+      <c r="H28" s="41">
+        <f t="shared" si="9"/>
         <v>612.73528233880654</v>
       </c>
-      <c r="I27" s="41">
-        <f t="shared" si="9"/>
-        <v>919.10292350820987</v>
-      </c>
-      <c r="J27" s="41">
+      <c r="I28" s="41">
         <f t="shared" si="10"/>
-        <v>1327.5931117340804</v>
-      </c>
-      <c r="K27" s="41">
-        <f>K18</f>
+        <v>1156.988386063276</v>
+      </c>
+      <c r="J28" s="41">
+        <f t="shared" si="11"/>
+        <v>1474.3492190628754</v>
+      </c>
+      <c r="K28" s="41">
+        <f>K19</f>
         <v>2700</v>
       </c>
-      <c r="L27" s="41">
-        <f t="shared" si="11"/>
+      <c r="L28" s="41">
+        <f t="shared" si="12"/>
         <v>5320.5246295554662</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="8">
-        <f>H28*$F$5/$H$5</f>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="8">
+        <f>H29*$F$6/$H$6</f>
         <v>1312.5</v>
       </c>
-      <c r="G28" s="8">
-        <f>H28*$G$5/$H$5</f>
+      <c r="G29" s="8">
+        <f>H29*$G$6/$H$6</f>
         <v>2812.5</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H29" s="34">
         <v>4500</v>
       </c>
-      <c r="I28" s="8">
-        <f>H28*$I$5/$H$5</f>
-        <v>6750</v>
-      </c>
-      <c r="J28" s="8">
-        <f>H28*$J$5/$H$5</f>
-        <v>9750</v>
-      </c>
-      <c r="K28" s="35">
-        <f>K19-K21</f>
+      <c r="I29" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J29" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K29" s="35">
+        <f>K20-K22</f>
         <v>7050</v>
       </c>
-      <c r="L28" s="39">
-        <f>L19-L21</f>
+      <c r="L29" s="39">
+        <f>L20-L22</f>
         <v>7050</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="8">
-        <f>SUM(F11:F18)</f>
-        <v>1506.4583333333333</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" ref="G30:L30" si="12">SUM(G11:G18)</f>
-        <v>3228.125</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="12"/>
-        <v>5165</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="12"/>
-        <v>7747.5</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="12"/>
-        <v>11190.833333333334</v>
-      </c>
-      <c r="K30" s="8">
-        <f t="shared" si="12"/>
-        <v>12419</v>
-      </c>
-      <c r="L30" s="8">
-        <f t="shared" si="12"/>
-        <v>18628.5</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F31" s="8">
-        <f>SUM(F10)</f>
-        <v>82.541666666666671</v>
+        <f>SUM(F12:F19)</f>
+        <v>1506.4583333333333</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" ref="G31:L31" si="13">SUM(G10)</f>
-        <v>176.875</v>
+        <f t="shared" ref="G31:L31" si="13">SUM(G12:G19)</f>
+        <v>3228.125</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="13"/>
-        <v>283</v>
+        <v>5165</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="13"/>
-        <v>424.5</v>
+        <v>6657.5</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="13"/>
-        <v>613.16666666666663</v>
+        <v>7848</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" si="13"/>
-        <v>558</v>
+        <v>12419</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" si="13"/>
-        <v>837</v>
+        <v>18628.5</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F32" s="8">
-        <f>F6</f>
-        <v>151.08333333333334</v>
+        <f>SUM(F11)</f>
+        <v>82.541666666666671</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32:L32" si="14">G6</f>
-        <v>323.75</v>
+        <f t="shared" ref="G32:L32" si="14">SUM(G11)</f>
+        <v>176.875</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="14"/>
-        <v>518</v>
+        <v>283</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="14"/>
-        <v>777</v>
+        <v>424.5</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="14"/>
-        <v>1122.3333333333333</v>
+        <v>613.16666666666663</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" si="14"/>
-        <v>1124</v>
+        <v>558</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" si="14"/>
-        <v>1686</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="L33" s="36"/>
+        <v>118</v>
+      </c>
+      <c r="F33" s="8">
+        <f>F7</f>
+        <v>151.08333333333334</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" ref="G33:L33" si="15">G7</f>
+        <v>323.75</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="15"/>
+        <v>518</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="15"/>
+        <v>777</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="15"/>
+        <v>1122.3333333333333</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="15"/>
+        <v>1124</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="15"/>
+        <v>1686</v>
+      </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="36">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="L34" s="36"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="36">
-        <v>0.28000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36">
+        <v>0.16</v>
+      </c>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36">
         <v>0.3</v>
       </c>
-      <c r="L35" s="36"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37">
-        <v>1.9</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="L37" s="37"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="L38" s="37"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37">
-        <v>34.5</v>
+        <v>5.2</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37">
+        <v>6.3</v>
+      </c>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37">
+        <v>34.5</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37">
         <v>39.9</v>
       </c>
-      <c r="L39" s="37"/>
+      <c r="L40" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10523,181 +16858,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FC2BC-0260-479C-B829-BE720EA95DB5}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="44">
-        <v>0.875</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0.16119654977038472</v>
-      </c>
-      <c r="D6" s="46">
-        <v>1200.6405999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="44">
-        <v>1</v>
-      </c>
-      <c r="C7" s="48">
-        <v>0.21481405812248527</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="44">
-        <v>1</v>
-      </c>
-      <c r="C8" s="48">
-        <v>0.18617397382330492</v>
-      </c>
-      <c r="D8" s="49">
-        <v>1386.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="44">
-        <v>1</v>
-      </c>
-      <c r="C9" s="48">
-        <v>8.8449688431933307E-2</v>
-      </c>
-      <c r="D9" s="49">
-        <v>658.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="44">
-        <v>1</v>
-      </c>
-      <c r="C10" s="45">
-        <v>7.4064726837246908E-2</v>
-      </c>
-      <c r="D10" s="46">
-        <v>551.65646036082637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="44">
-        <v>1</v>
-      </c>
-      <c r="C11" s="45">
-        <v>3.3957408700606762E-2</v>
-      </c>
-      <c r="D11" s="46">
-        <v>252.9250385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="44">
-        <v>1</v>
-      </c>
-      <c r="C12" s="45">
-        <v>1.100922047877737E-2</v>
-      </c>
-      <c r="D12" s="46">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="44">
-        <v>1</v>
-      </c>
-      <c r="C13" s="50">
-        <v>0.11465700352287651</v>
-      </c>
-      <c r="D13" s="49">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="44">
-        <v>1</v>
-      </c>
-      <c r="C14" s="50">
-        <v>0.11567737031238422</v>
-      </c>
-      <c r="D14" s="49">
-        <v>861.60000010000022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53">
-        <f t="shared" ref="C15:D15" si="0">SUM(C6:C14)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="54">
-        <f t="shared" si="0"/>
-        <v>7448.3020989608267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\carculator_truck\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33073862-D5EC-4595-BD45-91A057C43854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40436303-F70B-42E0-B597-07B86F04AA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="226">
   <si>
     <t>kW</t>
   </si>
@@ -702,6 +702,24 @@
   </si>
   <si>
     <t>https://fuelcelltrucks.eu/project/scania-four-hydrogen-gas-trucks-with-asko-in-norway/</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>T680</t>
+  </si>
+  <si>
+    <t>https://www.hydrogencarsnow.com/index.php/kenworth-t680-fuel-cell-heavy-truck/</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>H2 truck</t>
+  </si>
+  <si>
+    <t>https://fuelcelltrucks.eu/project/ups-fuel-cell-electric-class-6-delivery-truck/</t>
   </si>
 </sst>
 </file>
@@ -12214,7 +12232,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12286,7 +12304,7 @@
         <v>400</v>
       </c>
       <c r="I2" s="56">
-        <f>G2/H2</f>
+        <f t="shared" ref="I2:I12" si="0">G2/H2</f>
         <v>1.1875</v>
       </c>
       <c r="J2" s="33" t="s">
@@ -12301,7 +12319,7 @@
         <v>176</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C14" si="0">A3&amp;" - "&amp;B3</f>
+        <f t="shared" ref="C3:C14" si="1">A3&amp;" - "&amp;B3</f>
         <v>Freightliner - eM2</v>
       </c>
       <c r="D3">
@@ -12317,7 +12335,7 @@
         <v>370</v>
       </c>
       <c r="I3" s="56">
-        <f>G3/H3</f>
+        <f t="shared" si="0"/>
         <v>0.85135135135135132</v>
       </c>
       <c r="J3" s="33" t="s">
@@ -12332,7 +12350,7 @@
         <v>179</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Volvo - VNR electric</v>
       </c>
       <c r="D4">
@@ -12351,7 +12369,7 @@
         <v>120</v>
       </c>
       <c r="I4" s="56">
-        <f>G4/H4</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J4" s="33" t="s">
@@ -12366,7 +12384,7 @@
         <v>179</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Volvo - VNR electric</v>
       </c>
       <c r="D5">
@@ -12385,7 +12403,7 @@
         <v>281</v>
       </c>
       <c r="I5" s="56">
-        <f>G5/H5</f>
+        <f t="shared" si="0"/>
         <v>1.0676156583629892</v>
       </c>
       <c r="J5" s="33" t="s">
@@ -12400,7 +12418,7 @@
         <v>182</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Workhorse - C-650</v>
       </c>
       <c r="D6">
@@ -12413,7 +12431,7 @@
         <v>160</v>
       </c>
       <c r="I6" s="56">
-        <f>G6/H6</f>
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="J6" s="33" t="s">
@@ -12428,7 +12446,7 @@
         <v>185</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tesla - Semi</v>
       </c>
       <c r="D7">
@@ -12447,7 +12465,7 @@
         <v>480</v>
       </c>
       <c r="I7" s="56">
-        <f>G7/H7</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="J7" s="33" t="s">
@@ -12462,7 +12480,7 @@
         <v>185</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tesla - Semi</v>
       </c>
       <c r="D8">
@@ -12481,7 +12499,7 @@
         <v>800</v>
       </c>
       <c r="I8" s="56">
-        <f>G8/H8</f>
+        <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
       <c r="J8" s="33" t="s">
@@ -12496,7 +12514,7 @@
         <v>187</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BYD - T3</v>
       </c>
       <c r="D9">
@@ -12512,7 +12530,7 @@
         <v>250</v>
       </c>
       <c r="I9" s="56">
-        <f>G9/H9</f>
+        <f t="shared" si="0"/>
         <v>0.17199999999999999</v>
       </c>
       <c r="J9" s="33" t="s">
@@ -12527,7 +12545,7 @@
         <v>188</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BYD - T5</v>
       </c>
       <c r="D10">
@@ -12543,7 +12561,7 @@
         <v>250</v>
       </c>
       <c r="I10" s="56">
-        <f>G10/H10</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="J10" s="33" t="s">
@@ -12558,7 +12576,7 @@
         <v>189</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BYD - T7</v>
       </c>
       <c r="D11">
@@ -12574,7 +12592,7 @@
         <v>200</v>
       </c>
       <c r="I11" s="56">
-        <f>G11/H11</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="J11" s="33" t="s">
@@ -12589,7 +12607,7 @@
         <v>191</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BYD - J9D</v>
       </c>
       <c r="D12">
@@ -12602,7 +12620,7 @@
         <v>100</v>
       </c>
       <c r="I12" s="56">
-        <f>G12/H12</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="J12" s="33" t="s">
@@ -12617,7 +12635,7 @@
         <v>192</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BYD - T9</v>
       </c>
       <c r="D13">
@@ -12644,7 +12662,7 @@
         <v>200</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Mercedes - eActros</v>
       </c>
       <c r="D14">
@@ -12694,10 +12712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BBDD29-B13E-4593-BD51-713525CDE8CB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12784,7 +12802,7 @@
         <f>(G2/J2)*120/3.6</f>
         <v>2.7555555555555555</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="33" t="s">
         <v>208</v>
       </c>
     </row>
@@ -12821,7 +12839,7 @@
         <f>(G3/J3)*120/3.6</f>
         <v>2.875</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="33" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12858,7 +12876,7 @@
         <f>(G4/J4)*120/3.6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="33" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12895,7 +12913,7 @@
         <f>(G5/J5)*120/3.6</f>
         <v>2.5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="33" t="s">
         <v>217</v>
       </c>
     </row>
@@ -12929,11 +12947,91 @@
         <f>(G6/J6)*120/3.6</f>
         <v>2.75</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="33" t="s">
         <v>219</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="str">
+        <f>A7&amp;" - "&amp;B7</f>
+        <v>Kenworth - T680</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>360</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>320</v>
+      </c>
+      <c r="K7" s="56">
+        <f>(G7/J7)*120/3.6</f>
+        <v>3.125</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="str">
+        <f>A8&amp;" - "&amp;B8</f>
+        <v>UPS - H2 truck</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="K8" s="56">
+        <f>(G8/J8)*120/3.6</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{BDA6660D-1FFF-4AC7-9389-60D4FE225A06}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{E1A40A00-8A48-49A9-81D8-ADD695321E9C}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{0FDFE722-7329-45E7-AF4B-44F07581D2ED}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{F07E4F1F-89C7-41F1-A042-D51B3A6A0275}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{5497A739-B59B-4DA5-BBE5-91F15FD99CC8}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{A22B8DDC-C9B8-45F3-AAA3-7D3316158540}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{D881F3A4-ED3B-4745-9035-78644E7397D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15971,11 +16069,11 @@
         <v>37</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" ref="I8:I19" si="2">H8*$I$6/$H$6</f>
+        <f t="shared" ref="I8:I18" si="2">H8*$I$6/$H$6</f>
         <v>55.5</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ref="J8:J19" si="3">H8*$J$6/$H$6</f>
+        <f t="shared" ref="J8:J17" si="3">H8*$J$6/$H$6</f>
         <v>80.166666666666671</v>
       </c>
       <c r="K8" s="35">

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="368">
   <si>
     <t>kW</t>
   </si>
@@ -1158,6 +1158,12 @@
   </si>
   <si>
     <t>Purchase price [€ 2020]</t>
+  </si>
+  <si>
+    <t>Articulated truck, 32t</t>
+  </si>
+  <si>
+    <t>semi-trailer, 2+3 axles, curtain-sider</t>
   </si>
 </sst>
 </file>
@@ -1550,9 +1556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1653,6 +1656,9 @@
     <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1715,6 +1721,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1800,6 +1807,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2021,6 +2029,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2138,6 +2147,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2780,7 +2790,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2983,7 +2992,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3101,7 +3109,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3262,7 +3269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3436,7 +3442,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3554,7 +3559,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3710,6 +3714,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3784,6 +3789,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3933,6 +3939,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4050,6 +4057,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4224,6 +4232,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7262,7 +7271,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7862,7 +7870,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8077,10 +8084,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$6:$L$6</c:f>
+              <c:f>'weight composition'!$F$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3500</c:v>
                 </c:pt>
@@ -8097,9 +8104,12 @@
                   <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
@@ -8107,10 +8117,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$32:$L$32</c:f>
+              <c:f>'weight composition'!$F$32:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>82.541666666666671</c:v>
                 </c:pt>
@@ -8127,9 +8137,12 @@
                   <c:v>613.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>446.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>558</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
@@ -9408,6 +9421,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9493,6 +9507,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9630,6 +9645,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9747,6 +9763,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10489,6 +10506,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10606,6 +10624,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10686,6 +10705,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26783,10 +26803,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26794,15 +26814,16 @@
     <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="176" customWidth="1"/>
+    <col min="12" max="13" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -26810,7 +26831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="F4" t="s">
         <v>152</v>
       </c>
@@ -26826,14 +26847,17 @@
       <c r="J4" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="176" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="41.4">
+    <row r="5" spans="1:13" ht="41.4">
       <c r="E5" t="s">
         <v>158</v>
       </c>
@@ -26853,13 +26877,16 @@
         <v>155</v>
       </c>
       <c r="K5" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="D6" s="55" t="s">
         <v>153</v>
       </c>
@@ -26881,14 +26908,17 @@
       <c r="J6">
         <v>26000</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="176">
+        <v>32000</v>
+      </c>
+      <c r="L6" s="34">
         <v>40000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>60000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="D7" t="s">
         <v>94</v>
       </c>
@@ -26914,15 +26944,19 @@
         <f>H7*$J$6/$H$6</f>
         <v>1122.3333333333333</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="8">
+        <f>L7*$K$6/$L$6</f>
+        <v>899.2</v>
+      </c>
+      <c r="L7" s="35">
         <v>1124</v>
       </c>
-      <c r="L7" s="8">
-        <f>K7*$L$6/$K$6</f>
+      <c r="M7" s="8">
+        <f>L7*$M$6/$L$6</f>
         <v>1686</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>100</v>
       </c>
@@ -26945,15 +26979,19 @@
         <f t="shared" ref="J8:J17" si="3">H8*$J$6/$H$6</f>
         <v>80.166666666666671</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="8">
+        <f t="shared" ref="K8:K19" si="4">L8*$K$6/$L$6</f>
+        <v>112</v>
+      </c>
+      <c r="L8" s="35">
         <v>140</v>
       </c>
-      <c r="L8" s="8">
-        <f t="shared" ref="L8:L19" si="4">K8*$L$6/$K$6</f>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8:M19" si="5">L8*$M$6/$L$6</f>
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="E9" t="s">
         <v>101</v>
       </c>
@@ -26976,15 +27014,19 @@
         <f t="shared" si="3"/>
         <v>101.83333333333333</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="8">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="L9" s="35">
         <v>80</v>
       </c>
-      <c r="L9" s="8">
-        <f t="shared" si="4"/>
+      <c r="M9" s="8">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>102</v>
       </c>
@@ -27007,15 +27049,19 @@
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="L10" s="35">
         <v>220</v>
       </c>
-      <c r="L10" s="8">
-        <f t="shared" si="4"/>
+      <c r="M10" s="8">
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -27038,15 +27084,19 @@
         <f t="shared" si="3"/>
         <v>613.16666666666663</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="8">
+        <f t="shared" si="4"/>
+        <v>446.4</v>
+      </c>
+      <c r="L11" s="35">
         <v>558</v>
       </c>
-      <c r="L11" s="8">
-        <f t="shared" si="4"/>
+      <c r="M11" s="8">
+        <f t="shared" si="5"/>
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="D12" t="s">
         <v>95</v>
       </c>
@@ -27069,15 +27119,19 @@
         <f t="shared" si="3"/>
         <v>179.83333333333334</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="8">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="L12" s="35">
         <v>265</v>
       </c>
-      <c r="L12" s="8">
-        <f t="shared" si="4"/>
+      <c r="M12" s="8">
+        <f t="shared" si="5"/>
         <v>397.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>96</v>
       </c>
@@ -27103,15 +27157,19 @@
         <f t="shared" si="3"/>
         <v>888.33333333333337</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="8">
+        <f t="shared" si="4"/>
+        <v>2751.2</v>
+      </c>
+      <c r="L13" s="35">
         <v>3439</v>
       </c>
-      <c r="L13" s="8">
-        <f t="shared" si="4"/>
+      <c r="M13" s="8">
+        <f t="shared" si="5"/>
         <v>5158.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="E14" t="s">
         <v>105</v>
       </c>
@@ -27133,15 +27191,19 @@
       <c r="J14" s="8">
         <v>2000</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="8">
+        <f t="shared" si="4"/>
+        <v>2124.8000000000002</v>
+      </c>
+      <c r="L14" s="35">
         <v>2656</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="4"/>
+      <c r="M14" s="8">
+        <f t="shared" si="5"/>
         <v>3984</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="E15" t="s">
         <v>106</v>
       </c>
@@ -27164,15 +27226,19 @@
         <f t="shared" si="3"/>
         <v>179.83333333333334</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="8">
+        <f t="shared" si="4"/>
+        <v>627.20000000000005</v>
+      </c>
+      <c r="L15" s="35">
         <v>784</v>
       </c>
-      <c r="L15" s="8">
-        <f t="shared" si="4"/>
+      <c r="M15" s="8">
+        <f t="shared" si="5"/>
         <v>1176</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="E16" t="s">
         <v>107</v>
       </c>
@@ -27194,15 +27260,19 @@
       <c r="J16" s="8">
         <v>1100</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="8">
+        <f t="shared" si="4"/>
+        <v>1137.5999999999999</v>
+      </c>
+      <c r="L16" s="35">
         <v>1422</v>
       </c>
-      <c r="L16" s="8">
-        <f t="shared" si="4"/>
+      <c r="M16" s="8">
+        <f t="shared" si="5"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="17" spans="4:12">
+    <row r="17" spans="4:13">
       <c r="D17" t="s">
         <v>98</v>
       </c>
@@ -27228,15 +27298,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="35">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="K17" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L17" s="35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="4:12">
+    <row r="18" spans="4:13">
       <c r="E18" t="s">
         <v>108</v>
       </c>
@@ -27258,15 +27332,19 @@
       <c r="J18" s="8">
         <v>1000</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="8">
+        <f t="shared" si="4"/>
+        <v>922.4</v>
+      </c>
+      <c r="L18" s="35">
         <v>1153</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" si="4"/>
+      <c r="M18" s="8">
+        <f t="shared" si="5"/>
         <v>1729.5</v>
       </c>
     </row>
-    <row r="19" spans="4:12">
+    <row r="19" spans="4:13">
       <c r="D19" t="s">
         <v>97</v>
       </c>
@@ -27287,81 +27365,93 @@
       <c r="J19" s="8">
         <v>2500</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="8">
+        <f t="shared" si="4"/>
+        <v>2160</v>
+      </c>
+      <c r="L19" s="35">
         <v>2700</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="4"/>
+      <c r="M19" s="8">
+        <f t="shared" si="5"/>
         <v>4050</v>
       </c>
     </row>
-    <row r="20" spans="4:12">
+    <row r="20" spans="4:13">
       <c r="D20" t="s">
         <v>160</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:L20" si="5">SUM(F7:F19)</f>
+        <f t="shared" ref="F20:M20" si="6">SUM(F7:F19)</f>
         <v>1808.3333333333335</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3875</v>
       </c>
       <c r="H20" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6200</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8210</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10090.5</v>
       </c>
-      <c r="K20" s="35">
-        <f t="shared" si="5"/>
+      <c r="K20" s="8">
+        <f t="shared" ref="K20" si="7">SUM(K7:K19)</f>
+        <v>11632.8</v>
+      </c>
+      <c r="L20" s="35">
+        <f t="shared" si="6"/>
         <v>14541</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" si="5"/>
+      <c r="M20" s="8">
+        <f t="shared" si="6"/>
         <v>21811.5</v>
       </c>
     </row>
-    <row r="21" spans="4:12">
+    <row r="21" spans="4:13">
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:L21" si="6">F6-F20</f>
+        <f t="shared" ref="F21:M21" si="8">F6-F20</f>
         <v>1691.6666666666665</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3625</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5800</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9790</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15909.5</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K21" si="9">K6-K20</f>
+        <v>20367.2</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="8"/>
         <v>25459</v>
       </c>
-      <c r="L21" s="8">
-        <f t="shared" si="6"/>
+      <c r="M21" s="8">
+        <f t="shared" si="8"/>
         <v>38188.5</v>
       </c>
     </row>
-    <row r="22" spans="4:12">
+    <row r="22" spans="4:13">
       <c r="D22" t="s">
         <v>159</v>
       </c>
@@ -27385,214 +27475,242 @@
         <f>J20-J29</f>
         <v>4090.5</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="39">
         <f>K20-7050</f>
+        <v>4582.7999999999993</v>
+      </c>
+      <c r="L22" s="35">
+        <f>L20-7050</f>
         <v>7491</v>
       </c>
-      <c r="L22" s="39">
-        <f>L20-7050</f>
+      <c r="M22" s="39">
+        <f>M20-7050</f>
         <v>14761.5</v>
       </c>
     </row>
-    <row r="23" spans="4:12">
+    <row r="23" spans="4:13">
       <c r="D23" t="s">
         <v>161</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" ref="F23:K23" si="7">F22/F20</f>
+        <f t="shared" ref="F23:L23" si="10">F22/F20</f>
         <v>0.27419354838709681</v>
       </c>
       <c r="G23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.27419354838709675</v>
       </c>
       <c r="H23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.27419354838709675</v>
       </c>
       <c r="I23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.39098660170523752</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.40538129924186117</v>
       </c>
       <c r="K23" s="38">
-        <f t="shared" si="7"/>
+        <f>K22/K20</f>
+        <v>0.39395502372601604</v>
+      </c>
+      <c r="L23" s="38">
+        <f t="shared" si="10"/>
         <v>0.51516401898081288</v>
       </c>
-      <c r="L23" s="38">
-        <f>L22/L20</f>
+      <c r="M23" s="38">
+        <f>M22/M20</f>
         <v>0.67677601265387521</v>
       </c>
     </row>
-    <row r="24" spans="4:12">
+    <row r="24" spans="4:13">
       <c r="D24" s="40" t="s">
         <v>129</v>
       </c>
       <c r="F24" s="41">
-        <f t="shared" ref="F24:H28" si="8">$K24*F$22/$K$22</f>
+        <f t="shared" ref="F24:H28" si="11">$L24*F$22/$L$22</f>
         <v>171.10254527655414</v>
       </c>
       <c r="G24" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>366.64831130690163</v>
       </c>
       <c r="H24" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>586.63729809104257</v>
       </c>
       <c r="I24" s="41">
-        <f t="shared" ref="I24:J28" si="9">$K24*I$22/$K$22</f>
+        <f t="shared" ref="I24:J28" si="12">$L24*I$22/$L$22</f>
         <v>1107.7092511013216</v>
       </c>
       <c r="J24" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1411.5528634361233</v>
       </c>
-      <c r="K24" s="41">
-        <f>K13-854</f>
+      <c r="K24" s="8">
+        <f t="shared" ref="K24:K28" si="13">L24*$K$6/$L$6</f>
+        <v>2068</v>
+      </c>
+      <c r="L24" s="41">
+        <f>L13-854</f>
         <v>2585</v>
       </c>
-      <c r="L24" s="41">
-        <f>K24*$L$22/$K$22</f>
+      <c r="M24" s="41">
+        <f>L24*$M$22/$L$22</f>
         <v>5093.9096916299559</v>
       </c>
     </row>
-    <row r="25" spans="4:12">
+    <row r="25" spans="4:13">
       <c r="D25" s="40" t="s">
         <v>130</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>69.89720998531574</v>
       </c>
       <c r="G25" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>149.77973568281939</v>
       </c>
       <c r="H25" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>239.647577092511</v>
       </c>
       <c r="I25" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>452.51101321585901</v>
       </c>
       <c r="J25" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>576.63436123348015</v>
       </c>
-      <c r="K25" s="41">
-        <f>K14-1600</f>
+      <c r="K25" s="8">
+        <f t="shared" si="13"/>
+        <v>844.8</v>
+      </c>
+      <c r="L25" s="41">
+        <f>L14-1600</f>
         <v>1056</v>
       </c>
-      <c r="L25" s="41">
-        <f>K25*$L$22/$K$22</f>
+      <c r="M25" s="41">
+        <f>L25*$M$22/$L$22</f>
         <v>2080.9162995594716</v>
       </c>
     </row>
-    <row r="26" spans="4:12">
+    <row r="26" spans="4:13">
       <c r="D26" s="40" t="s">
         <v>131</v>
       </c>
       <c r="F26" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>50.503381835980967</v>
       </c>
       <c r="G26" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>108.22153250567348</v>
       </c>
       <c r="H26" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>173.15445200907757</v>
       </c>
       <c r="I26" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>326.95634761714058</v>
       </c>
       <c r="J26" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>416.64016820184219</v>
       </c>
-      <c r="K26" s="41">
-        <f>K16-659</f>
+      <c r="K26" s="8">
+        <f t="shared" si="13"/>
+        <v>610.4</v>
+      </c>
+      <c r="L26" s="41">
+        <f>L16-659</f>
         <v>763</v>
       </c>
-      <c r="L26" s="41">
-        <f>K26*$L$22/$K$22</f>
+      <c r="M26" s="41">
+        <f>L26*$M$22/$L$22</f>
         <v>1503.5408490188227</v>
       </c>
     </row>
-    <row r="27" spans="4:12">
+    <row r="27" spans="4:13">
       <c r="D27" s="40" t="s">
         <v>132</v>
       </c>
       <c r="F27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>26.733603832840483</v>
       </c>
       <c r="G27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57.286293927515295</v>
       </c>
       <c r="H27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>91.658070284024475</v>
       </c>
       <c r="I27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>173.07200330101091</v>
       </c>
       <c r="J27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>220.54549205694244</v>
       </c>
-      <c r="K27" s="41">
-        <f>K15*K23</f>
+      <c r="K27" s="8">
+        <f t="shared" si="13"/>
+        <v>323.11087270476582</v>
+      </c>
+      <c r="L27" s="41">
+        <f>L15*L23</f>
         <v>403.88859088095728</v>
       </c>
-      <c r="L27" s="41">
-        <f>K27*$L$22/$K$22</f>
+      <c r="M27" s="41">
+        <f>L27*$M$22/$L$22</f>
         <v>795.88859088095717</v>
       </c>
     </row>
-    <row r="28" spans="4:12">
+    <row r="28" spans="4:13">
       <c r="D28" s="40" t="s">
         <v>133</v>
       </c>
       <c r="F28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>178.71445734881866</v>
       </c>
       <c r="G28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>382.95955146175413</v>
       </c>
       <c r="H28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>612.73528233880654</v>
       </c>
       <c r="I28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1156.988386063276</v>
       </c>
       <c r="J28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1474.3492190628754</v>
       </c>
-      <c r="K28" s="41">
-        <f>K19</f>
+      <c r="K28" s="8">
+        <f t="shared" si="13"/>
+        <v>2160</v>
+      </c>
+      <c r="L28" s="41">
+        <f>L19</f>
         <v>2700</v>
       </c>
-      <c r="L28" s="41">
-        <f>K28*$L$22/$K$22</f>
+      <c r="M28" s="41">
+        <f>L28*$M$22/$L$22</f>
         <v>5320.5246295554662</v>
       </c>
     </row>
-    <row r="29" spans="4:12">
+    <row r="29" spans="4:13">
       <c r="D29" t="s">
         <v>128</v>
       </c>
@@ -27613,16 +27731,20 @@
       <c r="J29" s="8">
         <v>6000</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="39">
         <f>K20-K22</f>
         <v>7050</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="35">
         <f>L20-L22</f>
         <v>7050</v>
       </c>
+      <c r="M29" s="39">
+        <f>M20-M22</f>
+        <v>7050</v>
+      </c>
     </row>
-    <row r="31" spans="4:12">
+    <row r="31" spans="4:13">
       <c r="D31" t="s">
         <v>113</v>
       </c>
@@ -27631,31 +27753,35 @@
         <v>1506.4583333333333</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" ref="G31:L31" si="10">SUM(G12:G19)</f>
+        <f t="shared" ref="G31:M31" si="14">SUM(G12:G19)</f>
         <v>3228.125</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5165</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6657.5</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7848</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
+        <v>9935.1999999999989</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="14"/>
         <v>12419</v>
       </c>
-      <c r="L31" s="8">
-        <f t="shared" si="10"/>
+      <c r="M31" s="8">
+        <f t="shared" si="14"/>
         <v>18628.5</v>
       </c>
     </row>
-    <row r="32" spans="4:12">
+    <row r="32" spans="4:13">
       <c r="D32" t="s">
         <v>114</v>
       </c>
@@ -27664,31 +27790,35 @@
         <v>82.541666666666671</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32:L32" si="11">SUM(G11)</f>
+        <f t="shared" ref="G32:M32" si="15">SUM(G11)</f>
         <v>176.875</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>283</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>424.5</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>613.16666666666663</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K32" si="16">SUM(K11)</f>
+        <v>446.4</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="15"/>
         <v>558</v>
       </c>
-      <c r="L32" s="8">
-        <f t="shared" si="11"/>
+      <c r="M32" s="8">
+        <f t="shared" si="15"/>
         <v>837</v>
       </c>
     </row>
-    <row r="33" spans="4:12">
+    <row r="33" spans="4:13">
       <c r="D33" t="s">
         <v>115</v>
       </c>
@@ -27697,31 +27827,35 @@
         <v>151.08333333333334</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" ref="G33:L33" si="12">G7</f>
+        <f t="shared" ref="G33:M33" si="17">G7</f>
         <v>323.75</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>518</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>777</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1122.3333333333333</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K33" si="18">K7</f>
+        <v>899.2</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="17"/>
         <v>1124</v>
       </c>
-      <c r="L33" s="8">
-        <f t="shared" si="12"/>
+      <c r="M33" s="8">
+        <f t="shared" si="17"/>
         <v>1686</v>
       </c>
     </row>
-    <row r="34" spans="4:12">
+    <row r="34" spans="4:13">
       <c r="D34" t="s">
         <v>117</v>
       </c>
@@ -27732,12 +27866,13 @@
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
-      <c r="K34" s="36">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36">
         <v>0.02</v>
       </c>
-      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="4:12">
+    <row r="35" spans="4:13">
       <c r="D35" t="s">
         <v>118</v>
       </c>
@@ -27748,12 +27883,13 @@
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="36">
+      <c r="K35" s="36"/>
+      <c r="L35" s="36">
         <v>0.16</v>
       </c>
-      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="4:12">
+    <row r="36" spans="4:13">
       <c r="D36" t="s">
         <v>119</v>
       </c>
@@ -27764,12 +27900,13 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="36">
+      <c r="K36" s="36"/>
+      <c r="L36" s="36">
         <v>0.3</v>
       </c>
-      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
     </row>
-    <row r="38" spans="4:12">
+    <row r="38" spans="4:13">
       <c r="D38" t="s">
         <v>120</v>
       </c>
@@ -27780,12 +27917,13 @@
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
-      <c r="K38" s="37">
+      <c r="K38" s="37"/>
+      <c r="L38" s="37">
         <v>1.3</v>
       </c>
-      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="4:12">
+    <row r="39" spans="4:13">
       <c r="D39" t="s">
         <v>121</v>
       </c>
@@ -27796,12 +27934,13 @@
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
-      <c r="K39" s="37">
+      <c r="K39" s="37"/>
+      <c r="L39" s="37">
         <v>6.3</v>
       </c>
-      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="4:12">
+    <row r="40" spans="4:13">
       <c r="D40" t="s">
         <v>122</v>
       </c>
@@ -27812,10 +27951,11 @@
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
-      <c r="K40" s="37">
+      <c r="K40" s="37"/>
+      <c r="L40" s="37">
         <v>39.9</v>
       </c>
-      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27831,7 +27971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -29628,7 +29768,7 @@
     <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.44140625" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="177" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="176" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -29672,7 +29812,7 @@
       <c r="P3" t="s">
         <v>364</v>
       </c>
-      <c r="Q3" s="177" t="s">
+      <c r="Q3" s="176" t="s">
         <v>365</v>
       </c>
       <c r="R3" t="s">
@@ -32471,30 +32611,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="180" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="180" t="s">
         <v>363</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6"/>
@@ -32572,22 +32712,22 @@
       <c r="L4" t="s">
         <v>356</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="107">
         <v>54.361859345101777</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="108">
         <v>58.339086382379364</v>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="108">
         <v>52.440124431958992</v>
       </c>
-      <c r="P4" s="109">
+      <c r="P4" s="108">
         <v>55.816343804554791</v>
       </c>
-      <c r="Q4" s="109">
+      <c r="Q4" s="108">
         <v>49.054567883744511</v>
       </c>
-      <c r="R4" s="110">
+      <c r="R4" s="109">
         <v>46.289594246342091</v>
       </c>
     </row>
@@ -32630,22 +32770,22 @@
       <c r="L5" t="s">
         <v>357</v>
       </c>
-      <c r="M5" s="111">
+      <c r="M5" s="110">
         <v>23.345819984617155</v>
       </c>
-      <c r="N5" s="112">
+      <c r="N5" s="111">
         <v>22.381276690324771</v>
       </c>
-      <c r="O5" s="112">
+      <c r="O5" s="111">
         <v>21.363926659992543</v>
       </c>
-      <c r="P5" s="112">
+      <c r="P5" s="111">
         <v>18.74224122379988</v>
       </c>
-      <c r="Q5" s="112">
+      <c r="Q5" s="111">
         <v>18.483520014620819</v>
       </c>
-      <c r="R5" s="113">
+      <c r="R5" s="112">
         <v>17.359586919929566</v>
       </c>
     </row>
@@ -32688,22 +32828,22 @@
       <c r="L6" t="s">
         <v>334</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="80">
         <v>63.559231889036688</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="81">
         <v>47.111219437843083</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="81">
         <v>51.030707981389341</v>
       </c>
-      <c r="P6" s="82">
+      <c r="P6" s="81">
         <v>47.683810044446808</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="81">
         <v>62.891937025091032</v>
       </c>
-      <c r="R6" s="83">
+      <c r="R6" s="82">
         <v>69.091122537736311</v>
       </c>
     </row>
@@ -32746,22 +32886,22 @@
       <c r="L7" t="s">
         <v>335</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="83">
         <v>94.705983748266533</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="84">
         <v>83.53901655791519</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="84">
         <v>84.682270155055036</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="84">
         <v>86.554170255633835</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="84">
         <v>79.049016525090622</v>
       </c>
-      <c r="R7" s="86">
+      <c r="R7" s="85">
         <v>79.621629371501484</v>
       </c>
     </row>
@@ -32796,22 +32936,22 @@
       <c r="L8" t="s">
         <v>336</v>
       </c>
-      <c r="M8" s="87">
+      <c r="M8" s="86">
         <v>43.611676784881958</v>
       </c>
-      <c r="N8" s="88">
+      <c r="N8" s="87">
         <v>35.990902623894442</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="87">
         <v>34.07340015020246</v>
       </c>
-      <c r="P8" s="88">
+      <c r="P8" s="87">
         <v>35.203878313634597</v>
       </c>
-      <c r="Q8" s="88">
+      <c r="Q8" s="87">
         <v>25.715598461168252</v>
       </c>
-      <c r="R8" s="89">
+      <c r="R8" s="88">
         <v>27.959456255769883</v>
       </c>
     </row>
@@ -32854,22 +32994,22 @@
       <c r="L9" t="s">
         <v>337</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="89">
         <v>37.338130495946935</v>
       </c>
-      <c r="N9" s="91">
+      <c r="N9" s="90">
         <v>42.135467581322217</v>
       </c>
-      <c r="O9" s="91">
+      <c r="O9" s="90">
         <v>40.152459222464024</v>
       </c>
-      <c r="P9" s="91">
+      <c r="P9" s="90">
         <v>40.825658842998564</v>
       </c>
-      <c r="Q9" s="91">
+      <c r="Q9" s="90">
         <v>38.873147027266214</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="91">
         <v>48.016980525454471</v>
       </c>
     </row>
@@ -32912,22 +33052,22 @@
       <c r="L10" t="s">
         <v>338</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="92">
         <v>30.236078682953718</v>
       </c>
-      <c r="N10" s="94">
+      <c r="N10" s="93">
         <v>26.034496706975052</v>
       </c>
-      <c r="O10" s="94">
+      <c r="O10" s="93">
         <v>24.434626422362012</v>
       </c>
-      <c r="P10" s="94">
+      <c r="P10" s="93">
         <v>23.552713843981579</v>
       </c>
-      <c r="Q10" s="94">
+      <c r="Q10" s="93">
         <v>23.867160094725868</v>
       </c>
-      <c r="R10" s="95">
+      <c r="R10" s="94">
         <v>20.401064868016576</v>
       </c>
     </row>
@@ -32970,22 +33110,22 @@
       <c r="L11" t="s">
         <v>339</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="95">
         <v>65.562015798622454</v>
       </c>
-      <c r="N11" s="97">
+      <c r="N11" s="96">
         <v>56.734372380849237</v>
       </c>
-      <c r="O11" s="97">
+      <c r="O11" s="96">
         <v>64.231854337192118</v>
       </c>
-      <c r="P11" s="97">
+      <c r="P11" s="96">
         <v>82.936325741577548</v>
       </c>
-      <c r="Q11" s="97">
+      <c r="Q11" s="96">
         <v>68.185739967667885</v>
       </c>
-      <c r="R11" s="98">
+      <c r="R11" s="97">
         <v>57.300667055227834</v>
       </c>
     </row>
@@ -33020,22 +33160,22 @@
       <c r="L12" t="s">
         <v>340</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="98">
         <v>57.187030837114278</v>
       </c>
-      <c r="N12" s="100">
+      <c r="N12" s="99">
         <v>51.52574734528018</v>
       </c>
-      <c r="O12" s="100">
+      <c r="O12" s="99">
         <v>47.877489102315394</v>
       </c>
-      <c r="P12" s="100">
+      <c r="P12" s="99">
         <v>50.364948405675179</v>
       </c>
-      <c r="Q12" s="100">
+      <c r="Q12" s="99">
         <v>49.912127331213348</v>
       </c>
-      <c r="R12" s="101">
+      <c r="R12" s="100">
         <v>48.050597037556678</v>
       </c>
     </row>
@@ -33078,22 +33218,22 @@
       <c r="L13" t="s">
         <v>310</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="101">
         <v>31.999923020517347</v>
       </c>
-      <c r="N13" s="103">
+      <c r="N13" s="102">
         <v>32.276340205216208</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="102">
         <v>32.775568934693638</v>
       </c>
-      <c r="P13" s="103">
+      <c r="P13" s="102">
         <v>33.27249877747176</v>
       </c>
-      <c r="Q13" s="103">
+      <c r="Q13" s="102">
         <v>30.867008770745795</v>
       </c>
-      <c r="R13" s="104">
+      <c r="R13" s="103">
         <v>30.860341778599896</v>
       </c>
     </row>
@@ -33102,22 +33242,22 @@
       <c r="L14" t="s">
         <v>309</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="104">
         <v>41.570300005979398</v>
       </c>
-      <c r="N14" s="106">
+      <c r="N14" s="105">
         <v>41.269660779559956</v>
       </c>
-      <c r="O14" s="106">
+      <c r="O14" s="105">
         <v>41.77576738769605</v>
       </c>
-      <c r="P14" s="106">
+      <c r="P14" s="105">
         <v>41.208541345531721</v>
       </c>
-      <c r="Q14" s="106">
+      <c r="Q14" s="105">
         <v>39.634964116409598</v>
       </c>
-      <c r="R14" s="107">
+      <c r="R14" s="106">
         <v>37.884811669362726</v>
       </c>
     </row>
@@ -33128,22 +33268,22 @@
       <c r="L15" t="s">
         <v>341</v>
       </c>
-      <c r="M15" s="114">
+      <c r="M15" s="113">
         <v>53.001672655780972</v>
       </c>
-      <c r="N15" s="115">
+      <c r="N15" s="114">
         <v>52.175933131601376</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="114">
         <v>40.152819289812498</v>
       </c>
-      <c r="P15" s="115">
+      <c r="P15" s="114">
         <v>45.233344720328773</v>
       </c>
-      <c r="Q15" s="115">
+      <c r="Q15" s="114">
         <v>36.420055959471526</v>
       </c>
-      <c r="R15" s="116">
+      <c r="R15" s="115">
         <v>43.636435168042027</v>
       </c>
     </row>
@@ -33174,22 +33314,22 @@
       <c r="L16" t="s">
         <v>342</v>
       </c>
-      <c r="M16" s="117">
+      <c r="M16" s="116">
         <v>38.975047076025319</v>
       </c>
-      <c r="N16" s="118">
+      <c r="N16" s="117">
         <v>44.610488654713507</v>
       </c>
-      <c r="O16" s="118">
+      <c r="O16" s="117">
         <v>53.184695937383815</v>
       </c>
-      <c r="P16" s="118">
+      <c r="P16" s="117">
         <v>46.32784389046013</v>
       </c>
-      <c r="Q16" s="118">
+      <c r="Q16" s="117">
         <v>47.340643641450882</v>
       </c>
-      <c r="R16" s="119">
+      <c r="R16" s="118">
         <v>49.018323233040576</v>
       </c>
     </row>
@@ -33222,22 +33362,22 @@
       <c r="L17" t="s">
         <v>343</v>
       </c>
-      <c r="M17" s="120">
+      <c r="M17" s="119">
         <v>45.123310038399289</v>
       </c>
-      <c r="N17" s="121">
+      <c r="N17" s="120">
         <v>34.866723488743062</v>
       </c>
-      <c r="O17" s="121">
+      <c r="O17" s="120">
         <v>33.579190297921841</v>
       </c>
-      <c r="P17" s="121">
+      <c r="P17" s="120">
         <v>36.091346433160808</v>
       </c>
-      <c r="Q17" s="121">
+      <c r="Q17" s="120">
         <v>34.350837249415804</v>
       </c>
-      <c r="R17" s="122">
+      <c r="R17" s="121">
         <v>38.538132139879998</v>
       </c>
     </row>
@@ -33277,22 +33417,22 @@
       <c r="L18" t="s">
         <v>344</v>
       </c>
-      <c r="M18" s="123">
+      <c r="M18" s="122">
         <v>45.290107592600954</v>
       </c>
-      <c r="N18" s="124">
+      <c r="N18" s="123">
         <v>39.986189913577896</v>
       </c>
-      <c r="O18" s="124">
+      <c r="O18" s="123">
         <v>35.751899088501411</v>
       </c>
-      <c r="P18" s="124">
+      <c r="P18" s="123">
         <v>35.463295811193625</v>
       </c>
-      <c r="Q18" s="124">
+      <c r="Q18" s="123">
         <v>32.973600286078401</v>
       </c>
-      <c r="R18" s="125">
+      <c r="R18" s="124">
         <v>38.784332730577113</v>
       </c>
     </row>
@@ -33332,22 +33472,22 @@
       <c r="L19" t="s">
         <v>345</v>
       </c>
-      <c r="M19" s="126">
+      <c r="M19" s="125">
         <v>54.018846477198153</v>
       </c>
-      <c r="N19" s="127">
+      <c r="N19" s="126">
         <v>63.742528780997887</v>
       </c>
-      <c r="O19" s="127">
+      <c r="O19" s="126">
         <v>67.934702270847183</v>
       </c>
-      <c r="P19" s="127">
+      <c r="P19" s="126">
         <v>79.148958189272861</v>
       </c>
-      <c r="Q19" s="127">
+      <c r="Q19" s="126">
         <v>47.582403621130155</v>
       </c>
-      <c r="R19" s="128">
+      <c r="R19" s="127">
         <v>57.024527405409081</v>
       </c>
     </row>
@@ -33387,22 +33527,22 @@
       <c r="L20" t="s">
         <v>346</v>
       </c>
-      <c r="M20" s="129">
+      <c r="M20" s="128">
         <v>17.581719314729956</v>
       </c>
-      <c r="N20" s="130">
+      <c r="N20" s="129">
         <v>18.792324465400156</v>
       </c>
-      <c r="O20" s="130">
+      <c r="O20" s="129">
         <v>20.522755584787507</v>
       </c>
-      <c r="P20" s="130">
+      <c r="P20" s="129">
         <v>20.897365828922325</v>
       </c>
-      <c r="Q20" s="130">
+      <c r="Q20" s="129">
         <v>25.222090520559838</v>
       </c>
-      <c r="R20" s="131">
+      <c r="R20" s="130">
         <v>24.52444658830807</v>
       </c>
     </row>
@@ -33435,22 +33575,22 @@
       <c r="L21" t="s">
         <v>347</v>
       </c>
-      <c r="M21" s="132">
+      <c r="M21" s="131">
         <v>11.072412788518482</v>
       </c>
-      <c r="N21" s="133">
+      <c r="N21" s="132">
         <v>10.681265916997562</v>
       </c>
-      <c r="O21" s="133">
+      <c r="O21" s="132">
         <v>10.190995021845222</v>
       </c>
-      <c r="P21" s="133">
+      <c r="P21" s="132">
         <v>10.658066258593209</v>
       </c>
-      <c r="Q21" s="133">
+      <c r="Q21" s="132">
         <v>10.153938290867337</v>
       </c>
-      <c r="R21" s="134">
+      <c r="R21" s="133">
         <v>9.0071849992234352</v>
       </c>
     </row>
@@ -33490,22 +33630,22 @@
       <c r="L22" t="s">
         <v>348</v>
       </c>
-      <c r="M22" s="135">
+      <c r="M22" s="134">
         <v>58.281808176355909</v>
       </c>
-      <c r="N22" s="136">
+      <c r="N22" s="135">
         <v>53.666158426282536</v>
       </c>
-      <c r="O22" s="136">
+      <c r="O22" s="135">
         <v>51.449310637005965</v>
       </c>
-      <c r="P22" s="136">
+      <c r="P22" s="135">
         <v>50.987258904956903</v>
       </c>
-      <c r="Q22" s="136">
+      <c r="Q22" s="135">
         <v>50.746540562102169</v>
       </c>
-      <c r="R22" s="137">
+      <c r="R22" s="136">
         <v>52.11466486831592</v>
       </c>
     </row>
@@ -33545,22 +33685,22 @@
       <c r="L23" t="s">
         <v>349</v>
       </c>
-      <c r="M23" s="138">
+      <c r="M23" s="137">
         <v>79.686847492084013</v>
       </c>
-      <c r="N23" s="139">
+      <c r="N23" s="138">
         <v>82.739814658968839</v>
       </c>
-      <c r="O23" s="139">
+      <c r="O23" s="138">
         <v>81.943306803817634</v>
       </c>
-      <c r="P23" s="139">
+      <c r="P23" s="138">
         <v>87.681326584940109</v>
       </c>
-      <c r="Q23" s="139">
+      <c r="Q23" s="138">
         <v>79.864436890857903</v>
       </c>
-      <c r="R23" s="140">
+      <c r="R23" s="139">
         <v>82.150956412735667</v>
       </c>
     </row>
@@ -33600,22 +33740,22 @@
       <c r="L24" t="s">
         <v>350</v>
       </c>
-      <c r="M24" s="141">
+      <c r="M24" s="140">
         <v>57.526093555397637</v>
       </c>
-      <c r="N24" s="142">
+      <c r="N24" s="141">
         <v>57.348984370447901</v>
       </c>
-      <c r="O24" s="142">
+      <c r="O24" s="141">
         <v>57.567723950717252</v>
       </c>
-      <c r="P24" s="142">
+      <c r="P24" s="141">
         <v>57.634555992309885</v>
       </c>
-      <c r="Q24" s="142">
+      <c r="Q24" s="141">
         <v>61.499945996043621</v>
       </c>
-      <c r="R24" s="143">
+      <c r="R24" s="142">
         <v>65.232177686667839</v>
       </c>
     </row>
@@ -33648,22 +33788,22 @@
       <c r="L25" t="s">
         <v>351</v>
       </c>
-      <c r="M25" s="144">
+      <c r="M25" s="143">
         <v>57.545651736683837</v>
       </c>
-      <c r="N25" s="145">
+      <c r="N25" s="144">
         <v>56.450832359842259</v>
       </c>
-      <c r="O25" s="145">
+      <c r="O25" s="144">
         <v>57.504803732075857</v>
       </c>
-      <c r="P25" s="145">
+      <c r="P25" s="144">
         <v>61.880068382901555</v>
       </c>
-      <c r="Q25" s="145">
+      <c r="Q25" s="144">
         <v>65.976601232627644</v>
       </c>
-      <c r="R25" s="146">
+      <c r="R25" s="145">
         <v>57.746270015896954</v>
       </c>
     </row>
@@ -33703,22 +33843,22 @@
       <c r="L26" t="s">
         <v>352</v>
       </c>
-      <c r="M26" s="147">
+      <c r="M26" s="146">
         <v>62.887109078927949</v>
       </c>
-      <c r="N26" s="148">
+      <c r="N26" s="147">
         <v>63.091595121857566</v>
       </c>
-      <c r="O26" s="148">
+      <c r="O26" s="147">
         <v>53.444924181412162</v>
       </c>
-      <c r="P26" s="148">
+      <c r="P26" s="147">
         <v>49.622674605350284</v>
       </c>
-      <c r="Q26" s="148">
+      <c r="Q26" s="147">
         <v>51.283986965294524</v>
       </c>
-      <c r="R26" s="149">
+      <c r="R26" s="148">
         <v>55.138204304914304</v>
       </c>
     </row>
@@ -33726,22 +33866,22 @@
       <c r="L27" t="s">
         <v>307</v>
       </c>
-      <c r="M27" s="150">
+      <c r="M27" s="149">
         <v>29.098218207770955</v>
       </c>
-      <c r="N27" s="151">
+      <c r="N27" s="150">
         <v>28.900838775001251</v>
       </c>
-      <c r="O27" s="151">
+      <c r="O27" s="150">
         <v>27.764531502259562</v>
       </c>
-      <c r="P27" s="151">
+      <c r="P27" s="150">
         <v>26.069865020415516</v>
       </c>
-      <c r="Q27" s="151">
+      <c r="Q27" s="150">
         <v>23.298874685920875</v>
       </c>
-      <c r="R27" s="152">
+      <c r="R27" s="151">
         <v>25.593991824258421</v>
       </c>
     </row>
@@ -33752,22 +33892,22 @@
       <c r="L28" t="s">
         <v>353</v>
       </c>
-      <c r="M28" s="153">
+      <c r="M28" s="152">
         <v>53.773326745661571</v>
       </c>
-      <c r="N28" s="154">
+      <c r="N28" s="153">
         <v>54.730820053258078</v>
       </c>
-      <c r="O28" s="154">
+      <c r="O28" s="153">
         <v>56.56329284494619</v>
       </c>
-      <c r="P28" s="154">
+      <c r="P28" s="153">
         <v>60.611986255302718</v>
       </c>
-      <c r="Q28" s="154">
+      <c r="Q28" s="153">
         <v>56.456056087211643</v>
       </c>
-      <c r="R28" s="155">
+      <c r="R28" s="154">
         <v>56.482706987552447</v>
       </c>
     </row>
@@ -33800,22 +33940,22 @@
       <c r="L29" t="s">
         <v>322</v>
       </c>
-      <c r="M29" s="153">
+      <c r="M29" s="152">
         <v>24.945724141449759</v>
       </c>
-      <c r="N29" s="154">
+      <c r="N29" s="153">
         <v>23.528973248676671</v>
       </c>
-      <c r="O29" s="154">
+      <c r="O29" s="153">
         <v>24.784224713806495</v>
       </c>
-      <c r="P29" s="154">
+      <c r="P29" s="153">
         <v>26.909550391090036</v>
       </c>
-      <c r="Q29" s="154">
+      <c r="Q29" s="153">
         <v>28.840759977723749</v>
       </c>
-      <c r="R29" s="155">
+      <c r="R29" s="154">
         <v>26.350827257964447</v>
       </c>
     </row>
@@ -33850,22 +33990,22 @@
       <c r="L30" t="s">
         <v>354</v>
       </c>
-      <c r="M30" s="157">
+      <c r="M30" s="156">
         <v>26.387698014486968</v>
       </c>
-      <c r="N30" s="158">
+      <c r="N30" s="157">
         <v>25.694948460400973</v>
       </c>
-      <c r="O30" s="158">
+      <c r="O30" s="157">
         <v>26.875695418435633</v>
       </c>
-      <c r="P30" s="158">
+      <c r="P30" s="157">
         <v>25.427809391630202</v>
       </c>
-      <c r="Q30" s="158">
+      <c r="Q30" s="157">
         <v>22.72306813677918</v>
       </c>
-      <c r="R30" s="159">
+      <c r="R30" s="158">
         <v>25.832172296906762</v>
       </c>
     </row>
@@ -34156,22 +34296,22 @@
       <c r="I38" s="13">
         <v>116617</v>
       </c>
-      <c r="N38" s="156">
+      <c r="N38" s="155">
         <v>2005</v>
       </c>
-      <c r="O38" s="156">
+      <c r="O38" s="155">
         <v>2006</v>
       </c>
-      <c r="P38" s="156">
+      <c r="P38" s="155">
         <v>2007</v>
       </c>
-      <c r="Q38" s="156">
+      <c r="Q38" s="155">
         <v>2008</v>
       </c>
-      <c r="R38" s="156">
+      <c r="R38" s="155">
         <v>2009</v>
       </c>
-      <c r="S38" s="156">
+      <c r="S38" s="155">
         <v>2010</v>
       </c>
     </row>
@@ -34214,48 +34354,48 @@
       <c r="L39" t="s">
         <v>355</v>
       </c>
-      <c r="M39" s="160" t="s">
+      <c r="M39" s="159" t="s">
         <v>358</v>
       </c>
-      <c r="N39" s="165">
+      <c r="N39" s="164">
         <v>54.619664282700491</v>
       </c>
-      <c r="O39" s="166">
+      <c r="O39" s="165">
         <v>55.330971927394046</v>
       </c>
-      <c r="P39" s="166">
+      <c r="P39" s="165">
         <v>54.501235583878191</v>
       </c>
-      <c r="Q39" s="166">
+      <c r="Q39" s="165">
         <v>55.08024306549833</v>
       </c>
-      <c r="R39" s="166">
+      <c r="R39" s="165">
         <v>56.358046853900667</v>
       </c>
-      <c r="S39" s="167">
+      <c r="S39" s="166">
         <v>60.184145743803249</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="M40" s="161" t="s">
+      <c r="M40" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="N40" s="168">
+      <c r="N40" s="167">
         <v>43.731263951503095</v>
       </c>
-      <c r="O40" s="169">
+      <c r="O40" s="168">
         <v>43.750782861386078</v>
       </c>
-      <c r="P40" s="169">
+      <c r="P40" s="168">
         <v>43.372456973643487</v>
       </c>
-      <c r="Q40" s="169">
+      <c r="Q40" s="168">
         <v>42.334101055822316</v>
       </c>
-      <c r="R40" s="169">
+      <c r="R40" s="168">
         <v>39.927569685344871</v>
       </c>
-      <c r="S40" s="170">
+      <c r="S40" s="169">
         <v>40.828797432551468</v>
       </c>
     </row>
@@ -34263,25 +34403,25 @@
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="162" t="s">
+      <c r="M41" s="161" t="s">
         <v>360</v>
       </c>
-      <c r="N41" s="171">
+      <c r="N41" s="170">
         <v>43.944619288242457</v>
       </c>
-      <c r="O41" s="172">
+      <c r="O41" s="171">
         <v>43.896460093077017</v>
       </c>
-      <c r="P41" s="172">
+      <c r="P41" s="171">
         <v>44.19755542249731</v>
       </c>
-      <c r="Q41" s="172">
+      <c r="Q41" s="171">
         <v>43.944254254949527</v>
       </c>
-      <c r="R41" s="172">
+      <c r="R41" s="171">
         <v>40.740815460558473</v>
       </c>
-      <c r="S41" s="173">
+      <c r="S41" s="172">
         <v>42.367339153617671</v>
       </c>
     </row>
@@ -34311,25 +34451,25 @@
       <c r="I42" s="6">
         <v>2018</v>
       </c>
-      <c r="M42" s="163" t="s">
+      <c r="M42" s="162" t="s">
         <v>361</v>
       </c>
-      <c r="N42" s="174">
+      <c r="N42" s="173">
         <v>37.30528934687181</v>
       </c>
-      <c r="O42" s="175">
+      <c r="O42" s="174">
         <v>36.438883369750471</v>
       </c>
-      <c r="P42" s="175">
+      <c r="P42" s="174">
         <v>36.567336311283718</v>
       </c>
-      <c r="Q42" s="175">
+      <c r="Q42" s="174">
         <v>36.659668267257821</v>
       </c>
-      <c r="R42" s="175">
+      <c r="R42" s="174">
         <v>35.697687286681401</v>
       </c>
-      <c r="S42" s="176">
+      <c r="S42" s="175">
         <v>38.146989757862862</v>
       </c>
     </row>
@@ -34353,25 +34493,25 @@
       <c r="I43" s="17">
         <v>37290</v>
       </c>
-      <c r="M43" s="164" t="s">
+      <c r="M43" s="163" t="s">
         <v>362</v>
       </c>
-      <c r="N43" s="178">
+      <c r="N43" s="177">
         <v>36.845825943007043</v>
       </c>
-      <c r="O43" s="179">
+      <c r="O43" s="178">
         <v>37.177641750751349</v>
       </c>
-      <c r="P43" s="179">
+      <c r="P43" s="178">
         <v>36.787636105996626</v>
       </c>
-      <c r="Q43" s="179">
+      <c r="Q43" s="178">
         <v>36.538204811064745</v>
       </c>
-      <c r="R43" s="179">
+      <c r="R43" s="178">
         <v>35.501636953482972</v>
       </c>
-      <c r="S43" s="180">
+      <c r="S43" s="179">
         <v>35.84722172330838</v>
       </c>
     </row>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -26805,8 +26805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -21,13 +21,12 @@
     <sheet name="BEV motors" sheetId="3" r:id="rId7"/>
     <sheet name="BEV chargers" sheetId="2" r:id="rId8"/>
     <sheet name="Loading factors" sheetId="5" r:id="rId9"/>
-    <sheet name="battery sizing" sheetId="6" r:id="rId10"/>
-    <sheet name="weight composition" sheetId="7" r:id="rId11"/>
-    <sheet name="CNG tank mass" sheetId="13" r:id="rId12"/>
-    <sheet name="H2 tank mass" sheetId="14" r:id="rId13"/>
-    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId14"/>
+    <sheet name="weight composition" sheetId="7" r:id="rId10"/>
+    <sheet name="CNG tank mass" sheetId="13" r:id="rId11"/>
+    <sheet name="H2 tank mass" sheetId="14" r:id="rId12"/>
+    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="306">
   <si>
     <t>kW</t>
   </si>
@@ -133,192 +132,6 @@
   </si>
   <si>
     <t>Theoretical max. Carrying capacity, mean (@23t cap.) (million tkm)</t>
-  </si>
-  <si>
-    <t>battery cell energy density</t>
-  </si>
-  <si>
-    <t>battery cell mass share</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>kWh/kg</t>
-  </si>
-  <si>
-    <t>unitless</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>battery capacity, 3.5t</t>
-  </si>
-  <si>
-    <t>battery capacity, 7.5t</t>
-  </si>
-  <si>
-    <t>battery capacity, 18t</t>
-  </si>
-  <si>
-    <t>battery capacity, 26t</t>
-  </si>
-  <si>
-    <t>battery capacity, 40t</t>
-  </si>
-  <si>
-    <t>battery capacity, 60t</t>
-  </si>
-  <si>
-    <t>battery mass, 3.5t</t>
-  </si>
-  <si>
-    <t>battery mass, 7.5t</t>
-  </si>
-  <si>
-    <t>battery mass, 18t</t>
-  </si>
-  <si>
-    <t>battery mass, 26t</t>
-  </si>
-  <si>
-    <t>battery mass, 40t</t>
-  </si>
-  <si>
-    <t>battery mass, 60t</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>Gross weight, 3.5t</t>
-  </si>
-  <si>
-    <t>Gross weight, 7.5t</t>
-  </si>
-  <si>
-    <t>Gross weight, 18t</t>
-  </si>
-  <si>
-    <t>Gross weight, 26t</t>
-  </si>
-  <si>
-    <t>Gross weight, 40t</t>
-  </si>
-  <si>
-    <t>Gross weight, 60t</t>
-  </si>
-  <si>
-    <t>Energy consumption, 3.5t</t>
-  </si>
-  <si>
-    <t>Energy consumption, 7.5t</t>
-  </si>
-  <si>
-    <t>Energy consumption, 18t</t>
-  </si>
-  <si>
-    <t>Energy consumption, 26t</t>
-  </si>
-  <si>
-    <t>Energy consumption, 40t</t>
-  </si>
-  <si>
-    <t>Energy consumption, 60t</t>
-  </si>
-  <si>
-    <t>kWh/km</t>
-  </si>
-  <si>
-    <t>actual curb mass, 3.5t</t>
-  </si>
-  <si>
-    <t>actual curb mass, 7.5t</t>
-  </si>
-  <si>
-    <t>actual curb mass, 18t</t>
-  </si>
-  <si>
-    <t>actual curb mass, 40t</t>
-  </si>
-  <si>
-    <t>actual curb mass, 60t</t>
-  </si>
-  <si>
-    <t>actual curb mass, 26t</t>
-  </si>
-  <si>
-    <t>Payload without battery, 3.5t</t>
-  </si>
-  <si>
-    <t>Payload without battery, 7.5t</t>
-  </si>
-  <si>
-    <t>Payload without battery, 18t</t>
-  </si>
-  <si>
-    <t>Payload without battery, 26t</t>
-  </si>
-  <si>
-    <t>Payload without battery, 40t</t>
-  </si>
-  <si>
-    <t>Payload without battery, 60t</t>
-  </si>
-  <si>
-    <t>Curb mass without battery, 3.5t</t>
-  </si>
-  <si>
-    <t>Curb mass without battery, 7.5t</t>
-  </si>
-  <si>
-    <t>Curb mass without battery, 18t</t>
-  </si>
-  <si>
-    <t>Curb mass without battery, 26t</t>
-  </si>
-  <si>
-    <t>Curb mass without battery, 40t</t>
-  </si>
-  <si>
-    <t>Curb mass without battery, 60t</t>
-  </si>
-  <si>
-    <t>Range target, 3.5t</t>
-  </si>
-  <si>
-    <t>Range target, 7.5t</t>
-  </si>
-  <si>
-    <t>Range target, 18t</t>
-  </si>
-  <si>
-    <t>Range target, 26t</t>
-  </si>
-  <si>
-    <t>Range target, 40t</t>
-  </si>
-  <si>
-    <t>Range target, 60t</t>
-  </si>
-  <si>
-    <t>Available payload left, 3.5t</t>
-  </si>
-  <si>
-    <t>Available payload left, 7.5t</t>
-  </si>
-  <si>
-    <t>Available payload left, 18t</t>
-  </si>
-  <si>
-    <t>Available payload left, 26t</t>
-  </si>
-  <si>
-    <t>Available payload left, 40t</t>
-  </si>
-  <si>
-    <t>Available payload left, 60t</t>
   </si>
   <si>
     <t>Powertrain</t>
@@ -1445,7 +1258,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1467,42 +1280,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
@@ -1721,6 +1498,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1806,6 +1584,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2027,6 +1806,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2144,6 +1924,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2318,6 +2099,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2605,6 +2387,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5248,6 +5031,7 @@
         <c:idx val="21"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6059,7 +5843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6134,7 +5917,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7500,6 +7282,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7585,6 +7368,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7722,6 +7506,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7839,6 +7624,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8581,6 +8367,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8698,6 +8485,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8778,6 +8566,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8869,6 +8658,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9272,6 +9062,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9492,6 +9283,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9609,6 +9401,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9769,6 +9562,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9971,6 +9765,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10088,6 +9883,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10727,6 +10523,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10900,6 +10697,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11017,6 +10815,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11172,6 +10971,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11246,6 +11046,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -11278,7 +11079,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BEV motors'!$B$7:$G$7</c:f>
+              <c:f>'BEV motors'!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11305,7 +11106,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BEV motors'!$B$8:$G$8</c:f>
+              <c:f>'BEV motors'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11395,6 +11196,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11512,6 +11314,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20324,13 +20127,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20865,7 +20668,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -20903,28 +20706,28 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -21047,7 +20850,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -21055,16 +20858,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -21109,1354 +20912,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="21">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="21">
-        <v>2030</v>
-      </c>
-      <c r="E1" s="21">
-        <v>2040</v>
-      </c>
-      <c r="F1" s="21">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>3500</v>
-      </c>
-      <c r="D5" s="21">
-        <v>3500</v>
-      </c>
-      <c r="E5" s="21">
-        <v>3500</v>
-      </c>
-      <c r="F5" s="21">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>7500</v>
-      </c>
-      <c r="D6" s="21">
-        <v>7500</v>
-      </c>
-      <c r="E6" s="21">
-        <v>7500</v>
-      </c>
-      <c r="F6" s="21">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>18000</v>
-      </c>
-      <c r="D7" s="21">
-        <v>18000</v>
-      </c>
-      <c r="E7" s="21">
-        <v>18000</v>
-      </c>
-      <c r="F7" s="21">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21">
-        <v>26000</v>
-      </c>
-      <c r="D8" s="21">
-        <v>26000</v>
-      </c>
-      <c r="E8" s="21">
-        <v>26000</v>
-      </c>
-      <c r="F8" s="21">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="21">
-        <v>40000</v>
-      </c>
-      <c r="E9" s="21">
-        <v>40000</v>
-      </c>
-      <c r="F9" s="21">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
-        <v>60000</v>
-      </c>
-      <c r="D10" s="21">
-        <v>60000</v>
-      </c>
-      <c r="E10" s="21">
-        <v>60000</v>
-      </c>
-      <c r="F10" s="21">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1575</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1575</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1575</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20">
-        <v>3600</v>
-      </c>
-      <c r="D13" s="20">
-        <v>3600</v>
-      </c>
-      <c r="E13" s="20">
-        <v>3600</v>
-      </c>
-      <c r="F13" s="20">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20">
-        <v>9400</v>
-      </c>
-      <c r="D14" s="20">
-        <v>9400</v>
-      </c>
-      <c r="E14" s="20">
-        <v>9400</v>
-      </c>
-      <c r="F14" s="20">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20">
-        <v>15400</v>
-      </c>
-      <c r="D15" s="20">
-        <v>15400</v>
-      </c>
-      <c r="E15" s="20">
-        <v>15400</v>
-      </c>
-      <c r="F15" s="20">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20">
-        <v>25300</v>
-      </c>
-      <c r="D16" s="20">
-        <v>25300</v>
-      </c>
-      <c r="E16" s="20">
-        <v>25300</v>
-      </c>
-      <c r="F16" s="20">
-        <v>25300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20">
-        <v>38000</v>
-      </c>
-      <c r="D17" s="20">
-        <v>38000</v>
-      </c>
-      <c r="E17" s="20">
-        <v>38000</v>
-      </c>
-      <c r="F17" s="20">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22">
-        <f t="shared" ref="C19:F24" si="0">C5-C12</f>
-        <v>1925</v>
-      </c>
-      <c r="D19" s="22">
-        <f t="shared" si="0"/>
-        <v>1925</v>
-      </c>
-      <c r="E19" s="22">
-        <f t="shared" si="0"/>
-        <v>1925</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-      <c r="D20" s="22">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-      <c r="E20" s="22">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="22">
-        <f t="shared" si="0"/>
-        <v>8600</v>
-      </c>
-      <c r="D21" s="22">
-        <f t="shared" si="0"/>
-        <v>8600</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="0"/>
-        <v>8600</v>
-      </c>
-      <c r="F21" s="22">
-        <f t="shared" si="0"/>
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="22">
-        <f t="shared" si="0"/>
-        <v>10600</v>
-      </c>
-      <c r="D22" s="22">
-        <f t="shared" si="0"/>
-        <v>10600</v>
-      </c>
-      <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>10600</v>
-      </c>
-      <c r="F22" s="22">
-        <f t="shared" si="0"/>
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="22">
-        <f t="shared" si="0"/>
-        <v>14700</v>
-      </c>
-      <c r="D23" s="22">
-        <f t="shared" si="0"/>
-        <v>14700</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" si="0"/>
-        <v>14700</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" si="0"/>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="22">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-      <c r="D24" s="22">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-      <c r="E24" s="22">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28">
-        <f t="shared" ref="C26:F31" si="1">C5-C61</f>
-        <v>2304.7743055555557</v>
-      </c>
-      <c r="D26" s="28">
-        <f t="shared" si="1"/>
-        <v>2178.1828703703704</v>
-      </c>
-      <c r="E26" s="28">
-        <f t="shared" si="1"/>
-        <v>2114.8871527777778</v>
-      </c>
-      <c r="F26" s="28">
-        <f t="shared" si="1"/>
-        <v>2076.9097222222222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="28">
-        <f t="shared" si="1"/>
-        <v>4713.802083333333</v>
-      </c>
-      <c r="D27" s="28">
-        <f t="shared" si="1"/>
-        <v>4442.5347222222226</v>
-      </c>
-      <c r="E27" s="28">
-        <f t="shared" si="1"/>
-        <v>4306.9010416666661</v>
-      </c>
-      <c r="F27" s="28">
-        <f t="shared" si="1"/>
-        <v>4225.5208333333339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28">
-        <f t="shared" si="1"/>
-        <v>10318.75</v>
-      </c>
-      <c r="D28" s="28">
-        <f t="shared" si="1"/>
-        <v>10683.333333333334</v>
-      </c>
-      <c r="E28" s="28">
-        <f t="shared" si="1"/>
-        <v>10162.5</v>
-      </c>
-      <c r="F28" s="28">
-        <f t="shared" si="1"/>
-        <v>9850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="28">
-        <f t="shared" si="1"/>
-        <v>19627.777777777777</v>
-      </c>
-      <c r="D29" s="28">
-        <f t="shared" si="1"/>
-        <v>16618.518518518518</v>
-      </c>
-      <c r="E29" s="28">
-        <f t="shared" si="1"/>
-        <v>15113.888888888889</v>
-      </c>
-      <c r="F29" s="28">
-        <f t="shared" si="1"/>
-        <v>14211.111111111111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="28">
-        <f t="shared" si="1"/>
-        <v>28588.888888888891</v>
-      </c>
-      <c r="D30" s="28">
-        <f t="shared" si="1"/>
-        <v>23959.259259259259</v>
-      </c>
-      <c r="E30" s="28">
-        <f t="shared" si="1"/>
-        <v>21644.444444444445</v>
-      </c>
-      <c r="F30" s="28">
-        <f t="shared" si="1"/>
-        <v>20255.555555555555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="28">
-        <f t="shared" si="1"/>
-        <v>42833.333333333328</v>
-      </c>
-      <c r="D31" s="28">
-        <f t="shared" si="1"/>
-        <v>35888.888888888891</v>
-      </c>
-      <c r="E31" s="28">
-        <f t="shared" si="1"/>
-        <v>32416.666666666664</v>
-      </c>
-      <c r="F31" s="28">
-        <f t="shared" si="1"/>
-        <v>30333.333333333336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0.1579861111111111</v>
-      </c>
-      <c r="D33" s="23">
-        <v>0.1579861111111111</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0.1579861111111111</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0.1579861111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0.33854166666666669</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0.33854166666666669</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0.33854166666666669</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0.33854166666666669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="23">
-        <v>0.8125</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0.8125</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0.8125</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="23">
-        <v>1.1736111111111112</v>
-      </c>
-      <c r="D36" s="23">
-        <v>1.1736111111111112</v>
-      </c>
-      <c r="E36" s="23">
-        <v>1.1736111111111112</v>
-      </c>
-      <c r="F36" s="23">
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="23">
-        <v>1.8055555555555556</v>
-      </c>
-      <c r="D37" s="23">
-        <v>1.8055555555555556</v>
-      </c>
-      <c r="E37" s="23">
-        <v>1.8055555555555556</v>
-      </c>
-      <c r="F37" s="23">
-        <v>1.8055555555555556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="23">
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="D38" s="23">
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="E38" s="23">
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="F38" s="23">
-        <v>2.7083333333333335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="30">
-        <v>250</v>
-      </c>
-      <c r="D40" s="30">
-        <v>250</v>
-      </c>
-      <c r="E40" s="30">
-        <v>250</v>
-      </c>
-      <c r="F40" s="30">
-        <v>250</v>
-      </c>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="30">
-        <v>250</v>
-      </c>
-      <c r="D41" s="30">
-        <v>250</v>
-      </c>
-      <c r="E41" s="30">
-        <v>250</v>
-      </c>
-      <c r="F41" s="30">
-        <v>250</v>
-      </c>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="30">
-        <v>220</v>
-      </c>
-      <c r="D42" s="30">
-        <v>400</v>
-      </c>
-      <c r="E42" s="30">
-        <v>400</v>
-      </c>
-      <c r="F42" s="30">
-        <v>400</v>
-      </c>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="30">
-        <v>800</v>
-      </c>
-      <c r="D43" s="30">
-        <v>800</v>
-      </c>
-      <c r="E43" s="30">
-        <v>800</v>
-      </c>
-      <c r="F43" s="30">
-        <v>800</v>
-      </c>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="30">
-        <v>800</v>
-      </c>
-      <c r="D44" s="30">
-        <v>800</v>
-      </c>
-      <c r="E44" s="30">
-        <v>800</v>
-      </c>
-      <c r="F44" s="30">
-        <v>800</v>
-      </c>
-      <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="30">
-        <v>800</v>
-      </c>
-      <c r="D45" s="30">
-        <v>800</v>
-      </c>
-      <c r="E45" s="30">
-        <v>800</v>
-      </c>
-      <c r="F45" s="30">
-        <v>800</v>
-      </c>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="31">
-        <f t="shared" ref="C47:F52" si="2">C40*C33</f>
-        <v>39.496527777777779</v>
-      </c>
-      <c r="D47" s="31">
-        <f t="shared" si="2"/>
-        <v>39.496527777777779</v>
-      </c>
-      <c r="E47" s="31">
-        <f t="shared" si="2"/>
-        <v>39.496527777777779</v>
-      </c>
-      <c r="F47" s="31">
-        <f t="shared" si="2"/>
-        <v>39.496527777777779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="31">
-        <f t="shared" si="2"/>
-        <v>84.635416666666671</v>
-      </c>
-      <c r="D48" s="31">
-        <f t="shared" si="2"/>
-        <v>84.635416666666671</v>
-      </c>
-      <c r="E48" s="31">
-        <f t="shared" si="2"/>
-        <v>84.635416666666671</v>
-      </c>
-      <c r="F48" s="31">
-        <f t="shared" si="2"/>
-        <v>84.635416666666671</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="31">
-        <f t="shared" si="2"/>
-        <v>178.75</v>
-      </c>
-      <c r="D49" s="31">
-        <f t="shared" si="2"/>
-        <v>325</v>
-      </c>
-      <c r="E49" s="31">
-        <f t="shared" si="2"/>
-        <v>325</v>
-      </c>
-      <c r="F49" s="31">
-        <f t="shared" si="2"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="31">
-        <f t="shared" si="2"/>
-        <v>938.88888888888891</v>
-      </c>
-      <c r="D50" s="31">
-        <f t="shared" si="2"/>
-        <v>938.88888888888891</v>
-      </c>
-      <c r="E50" s="31">
-        <f t="shared" si="2"/>
-        <v>938.88888888888891</v>
-      </c>
-      <c r="F50" s="31">
-        <f t="shared" si="2"/>
-        <v>938.88888888888891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="31">
-        <f t="shared" si="2"/>
-        <v>1444.4444444444446</v>
-      </c>
-      <c r="D51" s="31">
-        <f t="shared" si="2"/>
-        <v>1444.4444444444446</v>
-      </c>
-      <c r="E51" s="31">
-        <f t="shared" si="2"/>
-        <v>1444.4444444444446</v>
-      </c>
-      <c r="F51" s="31">
-        <f t="shared" si="2"/>
-        <v>1444.4444444444446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="31">
-        <f t="shared" si="2"/>
-        <v>2166.666666666667</v>
-      </c>
-      <c r="D52" s="31">
-        <f t="shared" si="2"/>
-        <v>2166.666666666667</v>
-      </c>
-      <c r="E52" s="31">
-        <f t="shared" si="2"/>
-        <v>2166.666666666667</v>
-      </c>
-      <c r="F52" s="31">
-        <f t="shared" si="2"/>
-        <v>2166.666666666667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="32">
-        <f>C47/C$3/C$2</f>
-        <v>379.77430555555554</v>
-      </c>
-      <c r="D54" s="32">
-        <f>D47/D$3/D$2</f>
-        <v>253.18287037037038</v>
-      </c>
-      <c r="E54" s="32">
-        <f>E47/E$3/E$2</f>
-        <v>189.88715277777777</v>
-      </c>
-      <c r="F54" s="32">
-        <f>F47/F$3/F$2</f>
-        <v>151.90972222222223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="32">
-        <f>C48/C$3/C$2</f>
-        <v>813.80208333333326</v>
-      </c>
-      <c r="D55" s="32">
-        <f t="shared" ref="D55:F57" si="3">D48/D$3/D$2</f>
-        <v>542.53472222222217</v>
-      </c>
-      <c r="E55" s="32">
-        <f t="shared" si="3"/>
-        <v>406.90104166666663</v>
-      </c>
-      <c r="F55" s="32">
-        <f t="shared" si="3"/>
-        <v>325.52083333333331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="32">
-        <f>C49/C$3/C$2</f>
-        <v>1718.75</v>
-      </c>
-      <c r="D56" s="32">
-        <f t="shared" si="3"/>
-        <v>2083.3333333333335</v>
-      </c>
-      <c r="E56" s="32">
-        <f t="shared" si="3"/>
-        <v>1562.5</v>
-      </c>
-      <c r="F56" s="32">
-        <f t="shared" si="3"/>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="32">
-        <f>C50/C$3/C$2</f>
-        <v>9027.7777777777774</v>
-      </c>
-      <c r="D57" s="32">
-        <f t="shared" si="3"/>
-        <v>6018.5185185185182</v>
-      </c>
-      <c r="E57" s="32">
-        <f t="shared" si="3"/>
-        <v>4513.8888888888887</v>
-      </c>
-      <c r="F57" s="32">
-        <f t="shared" si="3"/>
-        <v>3611.1111111111109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="32">
-        <f t="shared" ref="C58:F59" si="4">C51/C$3/C$2</f>
-        <v>13888.888888888889</v>
-      </c>
-      <c r="D58" s="32">
-        <f t="shared" si="4"/>
-        <v>9259.2592592592591</v>
-      </c>
-      <c r="E58" s="32">
-        <f t="shared" si="4"/>
-        <v>6944.4444444444443</v>
-      </c>
-      <c r="F58" s="32">
-        <f t="shared" si="4"/>
-        <v>5555.5555555555557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="32">
-        <f t="shared" si="4"/>
-        <v>20833.333333333332</v>
-      </c>
-      <c r="D59" s="32">
-        <f t="shared" si="4"/>
-        <v>13888.888888888891</v>
-      </c>
-      <c r="E59" s="32">
-        <f t="shared" si="4"/>
-        <v>10416.666666666666</v>
-      </c>
-      <c r="F59" s="32">
-        <f t="shared" si="4"/>
-        <v>8333.3333333333339</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="32">
-        <f t="shared" ref="C61:F66" si="5">C12-C54</f>
-        <v>1195.2256944444443</v>
-      </c>
-      <c r="D61" s="32">
-        <f t="shared" si="5"/>
-        <v>1321.8171296296296</v>
-      </c>
-      <c r="E61" s="32">
-        <f t="shared" si="5"/>
-        <v>1385.1128472222222</v>
-      </c>
-      <c r="F61" s="32">
-        <f t="shared" si="5"/>
-        <v>1423.0902777777778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="32">
-        <f t="shared" si="5"/>
-        <v>2786.197916666667</v>
-      </c>
-      <c r="D62" s="32">
-        <f t="shared" si="5"/>
-        <v>3057.4652777777778</v>
-      </c>
-      <c r="E62" s="32">
-        <f t="shared" si="5"/>
-        <v>3193.0989583333335</v>
-      </c>
-      <c r="F62" s="32">
-        <f t="shared" si="5"/>
-        <v>3274.4791666666665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="32">
-        <f t="shared" si="5"/>
-        <v>7681.25</v>
-      </c>
-      <c r="D63" s="32">
-        <f t="shared" si="5"/>
-        <v>7316.6666666666661</v>
-      </c>
-      <c r="E63" s="32">
-        <f t="shared" si="5"/>
-        <v>7837.5</v>
-      </c>
-      <c r="F63" s="32">
-        <f t="shared" si="5"/>
-        <v>8150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="32">
-        <f t="shared" si="5"/>
-        <v>6372.2222222222226</v>
-      </c>
-      <c r="D64" s="32">
-        <f t="shared" si="5"/>
-        <v>9381.4814814814818</v>
-      </c>
-      <c r="E64" s="32">
-        <f t="shared" si="5"/>
-        <v>10886.111111111111</v>
-      </c>
-      <c r="F64" s="32">
-        <f t="shared" si="5"/>
-        <v>11788.888888888889</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="32">
-        <f t="shared" si="5"/>
-        <v>11411.111111111111</v>
-      </c>
-      <c r="D65" s="32">
-        <f t="shared" si="5"/>
-        <v>16040.740740740741</v>
-      </c>
-      <c r="E65" s="32">
-        <f t="shared" si="5"/>
-        <v>18355.555555555555</v>
-      </c>
-      <c r="F65" s="32">
-        <f t="shared" si="5"/>
-        <v>19744.444444444445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="32">
-        <f t="shared" si="5"/>
-        <v>17166.666666666668</v>
-      </c>
-      <c r="D66" s="32">
-        <f t="shared" si="5"/>
-        <v>24111.111111111109</v>
-      </c>
-      <c r="E66" s="32">
-        <f t="shared" si="5"/>
-        <v>27583.333333333336</v>
-      </c>
-      <c r="F66" s="32">
-        <f t="shared" si="5"/>
-        <v>29666.666666666664</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22464,84 +20923,84 @@
     <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="176" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="164" customWidth="1"/>
     <col min="12" max="13" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="33" t="s">
-        <v>109</v>
+      <c r="A1" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="F4" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>150</v>
+        <v>89</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="176" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>146</v>
+        <v>86</v>
+      </c>
+      <c r="K4" s="164" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="41.4">
       <c r="E5" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="D6" s="55" t="s">
-        <v>153</v>
+      <c r="D6" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>3500</v>
@@ -22549,7 +21008,7 @@
       <c r="G6">
         <v>7500</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="22">
         <v>12000</v>
       </c>
       <c r="I6">
@@ -22558,10 +21017,10 @@
       <c r="J6">
         <v>26000</v>
       </c>
-      <c r="K6" s="176">
+      <c r="K6" s="164">
         <v>32000</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="22">
         <v>40000</v>
       </c>
       <c r="M6">
@@ -22570,10 +21029,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="D7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8">
         <f>H7*$F$6/$H$6</f>
@@ -22583,7 +21042,7 @@
         <f>H7*$G$6/$H$6</f>
         <v>323.75</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="23">
         <v>518</v>
       </c>
       <c r="I7" s="8">
@@ -22598,7 +21057,7 @@
         <f>L7*$K$6/$L$6</f>
         <v>899.2</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="23">
         <v>1124</v>
       </c>
       <c r="M7" s="8">
@@ -22608,7 +21067,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F19" si="0">H8*$F$6/$H$6</f>
@@ -22618,7 +21077,7 @@
         <f t="shared" ref="G8:G19" si="1">H8*$G$6/$H$6</f>
         <v>23.125</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="23">
         <v>37</v>
       </c>
       <c r="I8" s="8">
@@ -22633,7 +21092,7 @@
         <f t="shared" ref="K8:K19" si="4">L8*$K$6/$L$6</f>
         <v>112</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="23">
         <v>140</v>
       </c>
       <c r="M8" s="8">
@@ -22643,7 +21102,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="E9" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
@@ -22653,7 +21112,7 @@
         <f t="shared" si="1"/>
         <v>29.375</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="23">
         <v>47</v>
       </c>
       <c r="I9" s="8">
@@ -22668,7 +21127,7 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="23">
         <v>80</v>
       </c>
       <c r="M9" s="8">
@@ -22678,7 +21137,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="E10" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
@@ -22688,7 +21147,7 @@
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="23">
         <v>150</v>
       </c>
       <c r="I10" s="8">
@@ -22703,7 +21162,7 @@
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="23">
         <v>220</v>
       </c>
       <c r="M10" s="8">
@@ -22713,7 +21172,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
@@ -22723,7 +21182,7 @@
         <f t="shared" si="1"/>
         <v>176.875</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="23">
         <v>283</v>
       </c>
       <c r="I11" s="8">
@@ -22738,7 +21197,7 @@
         <f t="shared" si="4"/>
         <v>446.4</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="23">
         <v>558</v>
       </c>
       <c r="M11" s="8">
@@ -22748,7 +21207,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="D12" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
@@ -22758,7 +21217,7 @@
         <f t="shared" si="1"/>
         <v>51.875</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="23">
         <v>83</v>
       </c>
       <c r="I12" s="8">
@@ -22773,7 +21232,7 @@
         <f t="shared" si="4"/>
         <v>212</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="23">
         <v>265</v>
       </c>
       <c r="M12" s="8">
@@ -22783,10 +21242,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="D13" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
@@ -22796,7 +21255,7 @@
         <f t="shared" si="1"/>
         <v>256.25</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="23">
         <v>410</v>
       </c>
       <c r="I13" s="8">
@@ -22811,7 +21270,7 @@
         <f t="shared" si="4"/>
         <v>2751.2</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="23">
         <v>3439</v>
       </c>
       <c r="M13" s="8">
@@ -22821,7 +21280,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
@@ -22831,7 +21290,7 @@
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="23">
         <v>1064</v>
       </c>
       <c r="I14" s="8">
@@ -22845,7 +21304,7 @@
         <f t="shared" si="4"/>
         <v>2124.8000000000002</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="23">
         <v>2656</v>
       </c>
       <c r="M14" s="8">
@@ -22855,7 +21314,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
@@ -22865,7 +21324,7 @@
         <f t="shared" si="1"/>
         <v>51.875</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="23">
         <v>83</v>
       </c>
       <c r="I15" s="8">
@@ -22880,7 +21339,7 @@
         <f t="shared" si="4"/>
         <v>627.20000000000005</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="23">
         <v>784</v>
       </c>
       <c r="M15" s="8">
@@ -22890,7 +21349,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
@@ -22900,7 +21359,7 @@
         <f t="shared" si="1"/>
         <v>415.625</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="23">
         <v>665</v>
       </c>
       <c r="I16" s="8">
@@ -22914,7 +21373,7 @@
         <f t="shared" si="4"/>
         <v>1137.5999999999999</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="23">
         <v>1422</v>
       </c>
       <c r="M16" s="8">
@@ -22924,10 +21383,10 @@
     </row>
     <row r="17" spans="4:13">
       <c r="D17" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
@@ -22937,7 +21396,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="23">
         <v>0</v>
       </c>
       <c r="I17" s="8">
@@ -22952,7 +21411,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="23">
         <v>0</v>
       </c>
       <c r="M17" s="8">
@@ -22962,7 +21421,7 @@
     </row>
     <row r="18" spans="4:13">
       <c r="E18" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
@@ -22972,7 +21431,7 @@
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="23">
         <v>600</v>
       </c>
       <c r="I18" s="8">
@@ -22986,7 +21445,7 @@
         <f t="shared" si="4"/>
         <v>922.4</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="23">
         <v>1153</v>
       </c>
       <c r="M18" s="8">
@@ -22996,7 +21455,7 @@
     </row>
     <row r="19" spans="4:13">
       <c r="D19" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
@@ -23006,7 +21465,7 @@
         <f t="shared" si="1"/>
         <v>1412.5</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="23">
         <v>2260</v>
       </c>
       <c r="I19" s="8">
@@ -23019,7 +21478,7 @@
         <f t="shared" si="4"/>
         <v>2160</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="23">
         <v>2700</v>
       </c>
       <c r="M19" s="8">
@@ -23029,7 +21488,7 @@
     </row>
     <row r="20" spans="4:13">
       <c r="D20" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:M20" si="6">SUM(F7:F19)</f>
@@ -23039,7 +21498,7 @@
         <f t="shared" si="6"/>
         <v>3875</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="23">
         <f t="shared" si="6"/>
         <v>6200</v>
       </c>
@@ -23055,7 +21514,7 @@
         <f t="shared" ref="K20" si="7">SUM(K7:K19)</f>
         <v>11632.8</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="23">
         <f t="shared" si="6"/>
         <v>14541</v>
       </c>
@@ -23066,7 +21525,7 @@
     </row>
     <row r="21" spans="4:13">
       <c r="D21" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:M21" si="8">F6-F20</f>
@@ -23103,7 +21562,7 @@
     </row>
     <row r="22" spans="4:13">
       <c r="D22" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F22" s="8">
         <f>F20-F29</f>
@@ -23125,77 +21584,77 @@
         <f>J20-J29</f>
         <v>4090.5</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="27">
         <f>K20-7050</f>
         <v>4582.7999999999993</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="23">
         <f>L20-7050</f>
         <v>7491</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="27">
         <f>M20-7050</f>
         <v>14761.5</v>
       </c>
     </row>
     <row r="23" spans="4:13">
       <c r="D23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="38">
+        <v>99</v>
+      </c>
+      <c r="F23" s="26">
         <f t="shared" ref="F23:L23" si="10">F22/F20</f>
         <v>0.27419354838709681</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="26">
         <f t="shared" si="10"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="26">
         <f t="shared" si="10"/>
         <v>0.27419354838709675</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="26">
         <f t="shared" si="10"/>
         <v>0.39098660170523752</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="26">
         <f t="shared" si="10"/>
         <v>0.40538129924186117</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="26">
         <f>K22/K20</f>
         <v>0.39395502372601604</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="26">
         <f t="shared" si="10"/>
         <v>0.51516401898081288</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="26">
         <f>M22/M20</f>
         <v>0.67677601265387521</v>
       </c>
     </row>
     <row r="24" spans="4:13">
-      <c r="D24" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="41">
+      <c r="D24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="29">
         <f t="shared" ref="F24:H28" si="11">$L24*F$22/$L$22</f>
         <v>171.10254527655414</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="29">
         <f t="shared" si="11"/>
         <v>366.64831130690163</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="29">
         <f t="shared" si="11"/>
         <v>586.63729809104257</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="29">
         <f t="shared" ref="I24:J28" si="12">$L24*I$22/$L$22</f>
         <v>1107.7092511013216</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="29">
         <f t="shared" si="12"/>
         <v>1411.5528634361233</v>
       </c>
@@ -23203,36 +21662,36 @@
         <f t="shared" ref="K24:K28" si="13">L24*$K$6/$L$6</f>
         <v>2068</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="29">
         <f>L13-854</f>
         <v>2585</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="29">
         <f>L24*$M$22/$L$22</f>
         <v>5093.9096916299559</v>
       </c>
     </row>
     <row r="25" spans="4:13">
-      <c r="D25" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="41">
+      <c r="D25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="29">
         <f t="shared" si="11"/>
         <v>69.89720998531574</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="29">
         <f t="shared" si="11"/>
         <v>149.77973568281939</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="29">
         <f t="shared" si="11"/>
         <v>239.647577092511</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="29">
         <f t="shared" si="12"/>
         <v>452.51101321585901</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="29">
         <f t="shared" si="12"/>
         <v>576.63436123348015</v>
       </c>
@@ -23240,36 +21699,36 @@
         <f t="shared" si="13"/>
         <v>844.8</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="29">
         <f>L14-1600</f>
         <v>1056</v>
       </c>
-      <c r="M25" s="41">
+      <c r="M25" s="29">
         <f>L25*$M$22/$L$22</f>
         <v>2080.9162995594716</v>
       </c>
     </row>
     <row r="26" spans="4:13">
-      <c r="D26" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="41">
+      <c r="D26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="29">
         <f t="shared" si="11"/>
         <v>50.503381835980967</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="29">
         <f t="shared" si="11"/>
         <v>108.22153250567348</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="29">
         <f t="shared" si="11"/>
         <v>173.15445200907757</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="29">
         <f t="shared" si="12"/>
         <v>326.95634761714058</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="29">
         <f t="shared" si="12"/>
         <v>416.64016820184219</v>
       </c>
@@ -23277,36 +21736,36 @@
         <f t="shared" si="13"/>
         <v>610.4</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="29">
         <f>L16-659</f>
         <v>763</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="29">
         <f>L26*$M$22/$L$22</f>
         <v>1503.5408490188227</v>
       </c>
     </row>
     <row r="27" spans="4:13">
-      <c r="D27" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="41">
+      <c r="D27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="29">
         <f t="shared" si="11"/>
         <v>26.733603832840483</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="29">
         <f t="shared" si="11"/>
         <v>57.286293927515295</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="29">
         <f t="shared" si="11"/>
         <v>91.658070284024475</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="29">
         <f t="shared" si="12"/>
         <v>173.07200330101091</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="29">
         <f t="shared" si="12"/>
         <v>220.54549205694244</v>
       </c>
@@ -23314,36 +21773,36 @@
         <f t="shared" si="13"/>
         <v>323.11087270476582</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="29">
         <f>L15*L23</f>
         <v>403.88859088095728</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="29">
         <f>L27*$M$22/$L$22</f>
         <v>795.88859088095717</v>
       </c>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="41">
+      <c r="D28" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="29">
         <f t="shared" si="11"/>
         <v>178.71445734881866</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="29">
         <f t="shared" si="11"/>
         <v>382.95955146175413</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="29">
         <f t="shared" si="11"/>
         <v>612.73528233880654</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="29">
         <f t="shared" si="12"/>
         <v>1156.988386063276</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="29">
         <f t="shared" si="12"/>
         <v>1474.3492190628754</v>
       </c>
@@ -23351,18 +21810,18 @@
         <f t="shared" si="13"/>
         <v>2160</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="29">
         <f>L19</f>
         <v>2700</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="29">
         <f>L28*$M$22/$L$22</f>
         <v>5320.5246295554662</v>
       </c>
     </row>
     <row r="29" spans="4:13">
       <c r="D29" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="F29" s="8">
         <f>H29*$F$6/$H$6</f>
@@ -23372,7 +21831,7 @@
         <f>H29*$G$6/$H$6</f>
         <v>2812.5</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="22">
         <v>4500</v>
       </c>
       <c r="I29" s="8">
@@ -23381,22 +21840,22 @@
       <c r="J29" s="8">
         <v>6000</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="27">
         <f>K20-K22</f>
         <v>7050</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="23">
         <f>L20-L22</f>
         <v>7050</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="27">
         <f>M20-M22</f>
         <v>7050</v>
       </c>
     </row>
     <row r="31" spans="4:13">
       <c r="D31" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F31" s="8">
         <f>SUM(F12:F19)</f>
@@ -23433,7 +21892,7 @@
     </row>
     <row r="32" spans="4:13">
       <c r="D32" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F32" s="8">
         <f>SUM(F11)</f>
@@ -23470,7 +21929,7 @@
     </row>
     <row r="33" spans="4:13">
       <c r="D33" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F33" s="8">
         <f>F7</f>
@@ -23507,105 +21966,105 @@
     </row>
     <row r="34" spans="4:13">
       <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36">
+        <v>55</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24">
         <v>0.05</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24">
         <v>0.02</v>
       </c>
-      <c r="M34" s="36"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="4:13">
       <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36">
+        <v>56</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24">
         <v>0.17</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36">
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24">
         <v>0.16</v>
       </c>
-      <c r="M35" s="36"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="4:13">
       <c r="D36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36">
+        <v>57</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36">
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24">
         <v>0.3</v>
       </c>
-      <c r="M36" s="36"/>
+      <c r="M36" s="24"/>
     </row>
     <row r="38" spans="4:13">
       <c r="D38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37">
+        <v>58</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25">
         <v>1.9</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37">
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25">
         <v>1.3</v>
       </c>
-      <c r="M38" s="37"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="4:13">
       <c r="D39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37">
+        <v>59</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25">
         <v>5.2</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37">
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25">
         <v>6.3</v>
       </c>
-      <c r="M39" s="37"/>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="4:13">
       <c r="D40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37">
+        <v>60</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25">
         <v>34.5</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37">
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25">
         <v>39.9</v>
       </c>
-      <c r="M40" s="37"/>
+      <c r="M40" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23617,7 +22076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -23634,30 +22093,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8">
         <f>195*0.45</f>
@@ -23672,15 +22131,15 @@
         <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C3" s="8">
         <f>221*0.45</f>
@@ -23695,15 +22154,15 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="C4" s="8">
         <f>75*2.896</f>
@@ -23718,15 +22177,15 @@
         <v>750.3</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C5" s="8">
         <f>60*2.896</f>
@@ -23741,15 +22200,15 @@
         <v>568.74</v>
       </c>
       <c r="F5" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C6">
         <f>101*0.45</f>
@@ -23764,15 +22223,15 @@
         <v>60.75</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="C7">
         <f>128*0.45</f>
@@ -23787,15 +22246,15 @@
         <v>73.350000000000009</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <f>138*0.45</f>
@@ -23809,16 +22268,16 @@
         <f>174*0.45</f>
         <v>78.3</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>265</v>
+      <c r="F8" s="21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <f>85*0.45</f>
@@ -23833,15 +22292,15 @@
         <v>54.9</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="C10">
         <f>144*0.45</f>
@@ -23856,15 +22315,15 @@
         <v>75.150000000000006</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C11">
         <f>195*0.45</f>
@@ -23879,15 +22338,15 @@
         <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C12">
         <f>222*0.45</f>
@@ -23902,15 +22361,15 @@
         <v>113.85000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C13">
         <f>290*0.45</f>
@@ -23925,7 +22384,7 @@
         <v>163.35</v>
       </c>
       <c r="F13" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -23937,7 +22396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -23957,30 +22416,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C2">
         <v>5.6</v>
@@ -23993,12 +22452,12 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -24011,12 +22470,12 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -24029,12 +22488,12 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -24047,12 +22506,12 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>0.9</v>
@@ -24065,12 +22524,12 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -24083,12 +22542,12 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="C8">
         <v>2.2000000000000002</v>
@@ -24101,12 +22560,12 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="C9">
         <v>2.9</v>
@@ -24119,12 +22578,12 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="C10">
         <v>4.5999999999999996</v>
@@ -24137,12 +22596,12 @@
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="C11">
         <v>4.5999999999999996</v>
@@ -24155,12 +22614,12 @@
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -24173,12 +22632,12 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="C13">
         <v>3.7</v>
@@ -24191,12 +22650,12 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -24209,12 +22668,12 @@
         <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="C15">
         <v>14.4</v>
@@ -24227,12 +22686,12 @@
         <v>178</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="C16">
         <v>13.3</v>
@@ -24245,12 +22704,12 @@
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="C17">
         <v>18.100000000000001</v>
@@ -24263,12 +22722,12 @@
         <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="C18">
         <v>20.9</v>
@@ -24281,7 +22740,7 @@
         <v>239</v>
       </c>
       <c r="F18" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -24290,7 +22749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -24305,159 +22764,159 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6">
-      <c r="A5" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>137</v>
+      <c r="A5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="44">
+      <c r="A6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="32">
         <v>0.875</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="33">
         <v>0.16119654977038472</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="34">
         <v>1200.6405999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="44">
+      <c r="A7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="32">
         <v>1</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="36">
         <v>0.21481405812248527</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="37">
         <v>1600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="44">
+      <c r="A8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="32">
         <v>1</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="36">
         <v>0.18617397382330492</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="37">
         <v>1386.68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="44">
+      <c r="A9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="32">
         <v>1</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="36">
         <v>8.8449688431933307E-2</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="37">
         <v>658.8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="44">
+      <c r="A10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="33">
         <v>7.4064726837246908E-2</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="34">
         <v>551.65646036082637</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="44">
+      <c r="A11" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="32">
         <v>1</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="33">
         <v>3.3957408700606762E-2</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="34">
         <v>252.9250385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="44">
+      <c r="A12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="32">
         <v>1</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="33">
         <v>1.100922047877737E-2</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="34">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="44">
+      <c r="A13" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="38">
         <v>0.11465700352287651</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="37">
         <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
-      <c r="A14" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="44">
+      <c r="A14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="32">
         <v>1</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="38">
         <v>0.11567737031238422</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="37">
         <v>861.60000010000022</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53">
+      <c r="A15" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
         <f>SUM(C6:C14)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="42">
         <f>SUM(D6:D14)</f>
         <v>7448.3020989608267</v>
       </c>
@@ -24512,28 +22971,28 @@
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="S7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="X7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="5:24">
@@ -24597,7 +23056,7 @@
     </row>
     <row r="9" spans="5:24">
       <c r="E9" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -24676,7 +23135,7 @@
     </row>
     <row r="11" spans="5:24">
       <c r="E11" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -24792,7 +23251,7 @@
     </row>
     <row r="23" spans="4:31">
       <c r="D23" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="I23">
         <v>1343</v>
@@ -24851,7 +23310,7 @@
     </row>
     <row r="24" spans="4:31">
       <c r="D24" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>520</v>
@@ -24868,7 +23327,7 @@
     </row>
     <row r="25" spans="4:31">
       <c r="D25" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="AA25">
         <v>51</v>
@@ -24896,7 +23355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -24914,43 +23373,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="A1" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>169</v>
+      <c r="A1" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
@@ -24968,20 +23427,20 @@
       <c r="H2">
         <v>400</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="44">
         <f t="shared" ref="I2:I12" si="0">G2/H2</f>
         <v>1.1875</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>172</v>
+      <c r="J2" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C14" si="1">A3&amp;" - "&amp;B3</f>
@@ -24999,20 +23458,20 @@
       <c r="H3">
         <v>370</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="44">
         <f t="shared" si="0"/>
         <v>0.85135135135135132</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>174</v>
+      <c r="J3" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
@@ -25033,17 +23492,17 @@
       <c r="H4">
         <v>120</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="33" t="s">
-        <v>177</v>
+      <c r="I4" s="44"/>
+      <c r="J4" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
@@ -25064,20 +23523,20 @@
       <c r="H5">
         <v>281</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="44">
         <f t="shared" si="0"/>
         <v>1.0676156583629892</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>177</v>
+      <c r="J5" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
@@ -25092,20 +23551,20 @@
       <c r="H6">
         <v>160</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>180</v>
+      <c r="J6" s="21" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
@@ -25126,20 +23585,20 @@
       <c r="H7">
         <v>480</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="44">
         <f t="shared" si="0"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>200</v>
+      <c r="J7" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -25160,20 +23619,20 @@
       <c r="H8">
         <v>800</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="44">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>200</v>
+      <c r="J8" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
@@ -25191,20 +23650,20 @@
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="44">
         <f t="shared" si="0"/>
         <v>0.17199999999999999</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>187</v>
+      <c r="J9" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
@@ -25222,20 +23681,20 @@
       <c r="H10">
         <v>250</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="44">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>187</v>
+      <c r="J10" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
@@ -25253,20 +23712,20 @@
       <c r="H11">
         <v>200</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>187</v>
+      <c r="J11" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -25281,20 +23740,20 @@
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="44">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>187</v>
+      <c r="J12" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -25309,19 +23768,19 @@
       <c r="H13">
         <v>200</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="44">
         <v>1.6</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>187</v>
+      <c r="J13" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
@@ -25342,25 +23801,25 @@
       <c r="H14">
         <v>200</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="44">
         <f>G14/H14</f>
         <v>1.2</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>198</v>
+      <c r="J14" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="I15" s="58"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="I16" s="58"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="58"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="58"/>
+      <c r="I18" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25397,69 +23856,69 @@
     <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.44140625" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="176" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="164" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="U1" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="N3" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="P3" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q3" s="176" t="s">
-        <v>365</v>
+        <v>302</v>
+      </c>
+      <c r="Q3" s="164" t="s">
+        <v>303</v>
       </c>
       <c r="R3" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="S3" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="U3" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="V3" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="B4">
         <v>1600</v>
@@ -25469,16 +23928,16 @@
         <v>33480</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="M4" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="N4" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="O4">
         <v>36000</v>
@@ -25486,25 +23945,25 @@
       <c r="P4">
         <v>101000</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>320</v>
+      <c r="R4" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="U4" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="V4">
         <v>0.05</v>
       </c>
       <c r="W4" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="B5">
         <v>4250</v>
@@ -25513,36 +23972,36 @@
         <v>70000</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="P5">
         <v>27500</v>
       </c>
-      <c r="R5" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>320</v>
+      <c r="R5" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="U5" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="V5">
         <v>0.04</v>
       </c>
       <c r="W5" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="B6">
         <v>6400</v>
@@ -25551,13 +24010,13 @@
         <v>90000</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="N6" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="O6">
         <v>3500</v>
@@ -25570,24 +24029,24 @@
         <v>48698.479999999996</v>
       </c>
       <c r="R6" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="S6" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="U6" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="V6">
         <v>0.08</v>
       </c>
       <c r="W6" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="B7">
         <v>9900</v>
@@ -25596,13 +24055,13 @@
         <v>105000</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="N7" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="O7">
         <v>7500</v>
@@ -25615,24 +24074,24 @@
         <v>62795.229999999996</v>
       </c>
       <c r="R7" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="S7" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="U7" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="V7">
         <v>0.08</v>
       </c>
       <c r="W7" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="B8">
         <v>13600</v>
@@ -25641,13 +24100,13 @@
         <v>115000</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="N8" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="O8">
         <v>18000</v>
@@ -25660,24 +24119,24 @@
         <v>89225.93</v>
       </c>
       <c r="R8" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="S8" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="U8" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="V8">
         <v>0.15</v>
       </c>
       <c r="W8" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:48">
       <c r="N9" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="O9">
         <v>26000</v>
@@ -25690,24 +24149,24 @@
         <v>124467.23999999999</v>
       </c>
       <c r="R9" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="S9" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="U9" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="V9">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="W9" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="N10" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="O10">
         <v>40000</v>
@@ -25720,286 +24179,286 @@
         <v>117157.26999999999</v>
       </c>
       <c r="R10" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="S10" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:48">
       <c r="V12" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="W12" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="X12" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="Y12" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="Z12" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="AA12" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="AB12" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="AG12" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="AH12" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="AI12" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="AJ12" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="AK12" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="AL12" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="AM12" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="AR12" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="AS12" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="AT12" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="AU12" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="AV12" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:48">
       <c r="U13" t="s">
-        <v>322</v>
-      </c>
-      <c r="V13" s="59">
+        <v>260</v>
+      </c>
+      <c r="V13" s="47">
         <v>1</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="47">
         <v>3500</v>
       </c>
-      <c r="X13" s="59">
+      <c r="X13" s="47">
         <v>2142</v>
       </c>
-      <c r="Y13" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z13" s="60">
+      <c r="Y13" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z13" s="48">
         <f>X13*1.13</f>
         <v>2420.4599999999996</v>
       </c>
-      <c r="AA13" s="59">
+      <c r="AA13" s="47">
         <v>18333</v>
       </c>
-      <c r="AB13" s="61">
+      <c r="AB13" s="49">
         <f>Z13/AA13</f>
         <v>0.13202749140893469</v>
       </c>
       <c r="AF13" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG13" s="59">
+        <v>260</v>
+      </c>
+      <c r="AG13" s="47">
         <v>1</v>
       </c>
-      <c r="AH13" s="59">
+      <c r="AH13" s="47">
         <v>3500</v>
       </c>
-      <c r="AI13" s="59">
+      <c r="AI13" s="47">
         <v>2673</v>
       </c>
-      <c r="AJ13" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK13" s="60">
+      <c r="AJ13" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK13" s="48">
         <f>AI13*1.13</f>
         <v>3020.49</v>
       </c>
-      <c r="AL13" s="59">
+      <c r="AL13" s="47">
         <v>18333</v>
       </c>
-      <c r="AM13" s="61">
+      <c r="AM13" s="49">
         <f>AK13/AL13</f>
         <v>0.16475699558173784</v>
       </c>
       <c r="AQ13" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR13" s="59">
+        <v>260</v>
+      </c>
+      <c r="AR13" s="47">
         <v>1</v>
       </c>
-      <c r="AS13" s="59">
+      <c r="AS13" s="47">
         <v>3500</v>
       </c>
-      <c r="AT13" s="59">
+      <c r="AT13" s="47">
         <v>4.8500000000000001E-3</v>
       </c>
-      <c r="AU13" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV13" s="74">
+      <c r="AU13" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV13" s="62">
         <f>AT13*1.13</f>
         <v>5.4804999999999993E-3</v>
       </c>
     </row>
     <row r="14" spans="1:48">
       <c r="U14" t="s">
-        <v>322</v>
-      </c>
-      <c r="V14" s="59">
+        <v>260</v>
+      </c>
+      <c r="V14" s="47">
         <v>5</v>
       </c>
-      <c r="W14" s="59">
+      <c r="W14" s="47">
         <v>3500</v>
       </c>
-      <c r="X14" s="59">
+      <c r="X14" s="47">
         <v>2784</v>
       </c>
-      <c r="Y14" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z14" s="60">
+      <c r="Y14" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z14" s="48">
         <f t="shared" ref="Z14:Z37" si="1">X14*1.13</f>
         <v>3145.9199999999996</v>
       </c>
-      <c r="AA14" s="59">
+      <c r="AA14" s="47">
         <v>18333</v>
       </c>
-      <c r="AB14" s="61">
+      <c r="AB14" s="49">
         <f t="shared" ref="AB14:AB37" si="2">Z14/AA14</f>
         <v>0.17159875634102437</v>
       </c>
       <c r="AF14" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG14" s="59">
+        <v>260</v>
+      </c>
+      <c r="AG14" s="47">
         <v>5</v>
       </c>
-      <c r="AH14" s="59">
+      <c r="AH14" s="47">
         <v>3500</v>
       </c>
-      <c r="AI14" s="59">
+      <c r="AI14" s="47">
         <v>2429</v>
       </c>
-      <c r="AJ14" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK14" s="60">
+      <c r="AJ14" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK14" s="48">
         <f t="shared" ref="AK14:AK37" si="3">AI14*1.13</f>
         <v>2744.7699999999995</v>
       </c>
-      <c r="AL14" s="59">
+      <c r="AL14" s="47">
         <v>18333</v>
       </c>
-      <c r="AM14" s="61">
+      <c r="AM14" s="49">
         <f t="shared" ref="AM14:AM37" si="4">AK14/AL14</f>
         <v>0.14971744940817103</v>
       </c>
       <c r="AQ14" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR14" s="62">
+        <v>260</v>
+      </c>
+      <c r="AR14" s="50">
         <v>1</v>
       </c>
-      <c r="AS14" s="62">
+      <c r="AS14" s="50">
         <v>7500</v>
       </c>
-      <c r="AT14" s="62">
+      <c r="AT14" s="50">
         <v>5.5599999999999998E-3</v>
       </c>
-      <c r="AU14" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV14" s="75">
+      <c r="AU14" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV14" s="63">
         <f t="shared" ref="AV14:AV17" si="5">AT14*1.13</f>
         <v>6.282799999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:48">
       <c r="U15" t="s">
-        <v>322</v>
-      </c>
-      <c r="V15" s="59">
+        <v>260</v>
+      </c>
+      <c r="V15" s="47">
         <v>10</v>
       </c>
-      <c r="W15" s="59">
+      <c r="W15" s="47">
         <v>3500</v>
       </c>
-      <c r="X15" s="59">
+      <c r="X15" s="47">
         <v>3122</v>
       </c>
-      <c r="Y15" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z15" s="60">
+      <c r="Y15" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z15" s="48">
         <f t="shared" si="1"/>
         <v>3527.8599999999997</v>
       </c>
-      <c r="AA15" s="59">
+      <c r="AA15" s="47">
         <v>18333</v>
       </c>
-      <c r="AB15" s="61">
+      <c r="AB15" s="49">
         <f t="shared" si="2"/>
         <v>0.19243222604047344</v>
       </c>
       <c r="AF15" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG15" s="59">
+        <v>260</v>
+      </c>
+      <c r="AG15" s="47">
         <v>10</v>
       </c>
-      <c r="AH15" s="59">
+      <c r="AH15" s="47">
         <v>3500</v>
       </c>
-      <c r="AI15" s="59">
+      <c r="AI15" s="47">
         <v>2154</v>
       </c>
-      <c r="AJ15" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK15" s="60">
+      <c r="AJ15" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK15" s="48">
         <f t="shared" si="3"/>
         <v>2434.02</v>
       </c>
-      <c r="AL15" s="59">
+      <c r="AL15" s="47">
         <v>18333</v>
       </c>
-      <c r="AM15" s="61">
+      <c r="AM15" s="49">
         <f t="shared" si="4"/>
         <v>0.13276714122074948</v>
       </c>
       <c r="AQ15" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR15" s="65">
+        <v>260</v>
+      </c>
+      <c r="AR15" s="53">
         <v>1</v>
       </c>
-      <c r="AS15" s="65">
+      <c r="AS15" s="53">
         <v>18000</v>
       </c>
-      <c r="AT15" s="65">
+      <c r="AT15" s="53">
         <v>1.5779999999999999E-2</v>
       </c>
-      <c r="AU15" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV15" s="76">
+      <c r="AU15" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV15" s="64">
         <f t="shared" si="5"/>
         <v>1.7831399999999997E-2</v>
       </c>
@@ -26010,1226 +24469,1226 @@
         <v>128.1779650512899</v>
       </c>
       <c r="U16" t="s">
-        <v>322</v>
-      </c>
-      <c r="V16" s="59">
+        <v>260</v>
+      </c>
+      <c r="V16" s="47">
         <v>15</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="47">
         <v>3500</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="47">
         <v>3217</v>
       </c>
-      <c r="Y16" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z16" s="60">
+      <c r="Y16" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z16" s="48">
         <f t="shared" si="1"/>
         <v>3635.2099999999996</v>
       </c>
-      <c r="AA16" s="59">
+      <c r="AA16" s="47">
         <v>18333</v>
       </c>
-      <c r="AB16" s="61">
+      <c r="AB16" s="49">
         <f t="shared" si="2"/>
         <v>0.19828778705067363</v>
       </c>
       <c r="AF16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG16" s="59">
+        <v>260</v>
+      </c>
+      <c r="AG16" s="47">
         <v>15</v>
       </c>
-      <c r="AH16" s="59">
+      <c r="AH16" s="47">
         <v>3500</v>
       </c>
-      <c r="AI16" s="59">
+      <c r="AI16" s="47">
         <v>1911</v>
       </c>
-      <c r="AJ16" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK16" s="60">
+      <c r="AJ16" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK16" s="48">
         <f t="shared" si="3"/>
         <v>2159.4299999999998</v>
       </c>
-      <c r="AL16" s="59">
+      <c r="AL16" s="47">
         <v>18333</v>
       </c>
-      <c r="AM16" s="61">
+      <c r="AM16" s="49">
         <f t="shared" si="4"/>
         <v>0.11778923253150056</v>
       </c>
       <c r="AQ16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR16" s="68">
+        <v>260</v>
+      </c>
+      <c r="AR16" s="56">
         <v>1</v>
       </c>
-      <c r="AS16" s="68">
+      <c r="AS16" s="56">
         <v>26000</v>
       </c>
-      <c r="AT16" s="68">
+      <c r="AT16" s="56">
         <v>4.5530000000000001E-2</v>
       </c>
-      <c r="AU16" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV16" s="77">
+      <c r="AU16" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV16" s="65">
         <f t="shared" si="5"/>
         <v>5.1448899999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="21:48">
       <c r="U17" t="s">
-        <v>322</v>
-      </c>
-      <c r="V17" s="59">
+        <v>260</v>
+      </c>
+      <c r="V17" s="47">
         <v>20</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="47">
         <v>3500</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="47">
         <v>3191</v>
       </c>
-      <c r="Y17" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z17" s="60">
+      <c r="Y17" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z17" s="48">
         <f t="shared" si="1"/>
         <v>3605.8299999999995</v>
       </c>
-      <c r="AA17" s="59">
+      <c r="AA17" s="47">
         <v>18333</v>
       </c>
-      <c r="AB17" s="61">
+      <c r="AB17" s="49">
         <f t="shared" si="2"/>
         <v>0.19668521245840831</v>
       </c>
       <c r="AF17" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG17" s="59">
+        <v>260</v>
+      </c>
+      <c r="AG17" s="47">
         <v>20</v>
       </c>
-      <c r="AH17" s="59">
+      <c r="AH17" s="47">
         <v>3500</v>
       </c>
-      <c r="AI17" s="59">
+      <c r="AI17" s="47">
         <v>1694</v>
       </c>
-      <c r="AJ17" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK17" s="60">
+      <c r="AJ17" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK17" s="48">
         <f t="shared" si="3"/>
         <v>1914.2199999999998</v>
       </c>
-      <c r="AL17" s="59">
+      <c r="AL17" s="47">
         <v>18333</v>
       </c>
-      <c r="AM17" s="61">
+      <c r="AM17" s="49">
         <f t="shared" si="4"/>
         <v>0.10441389843451698</v>
       </c>
       <c r="AQ17" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR17" s="71">
+        <v>260</v>
+      </c>
+      <c r="AR17" s="59">
         <v>1</v>
       </c>
-      <c r="AS17" s="71">
+      <c r="AS17" s="59">
         <v>40000</v>
       </c>
-      <c r="AT17" s="71">
+      <c r="AT17" s="59">
         <v>2.8129999999999999E-2</v>
       </c>
-      <c r="AU17" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV17" s="78">
+      <c r="AU17" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV17" s="66">
         <f t="shared" si="5"/>
         <v>3.1786899999999993E-2</v>
       </c>
     </row>
     <row r="18" spans="21:48">
       <c r="U18" t="s">
-        <v>322</v>
-      </c>
-      <c r="V18" s="62">
+        <v>260</v>
+      </c>
+      <c r="V18" s="50">
         <v>1</v>
       </c>
-      <c r="W18" s="62">
+      <c r="W18" s="50">
         <v>7500</v>
       </c>
-      <c r="X18" s="62">
+      <c r="X18" s="50">
         <v>2142</v>
       </c>
-      <c r="Y18" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z18" s="63">
+      <c r="Y18" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z18" s="51">
         <f t="shared" si="1"/>
         <v>2420.4599999999996</v>
       </c>
-      <c r="AA18" s="62">
+      <c r="AA18" s="50">
         <v>54167</v>
       </c>
-      <c r="AB18" s="64">
+      <c r="AB18" s="52">
         <f t="shared" si="2"/>
         <v>4.4685140399136E-2</v>
       </c>
       <c r="AF18" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG18" s="62">
+        <v>260</v>
+      </c>
+      <c r="AG18" s="50">
         <v>1</v>
       </c>
-      <c r="AH18" s="62">
+      <c r="AH18" s="50">
         <v>7500</v>
       </c>
-      <c r="AI18" s="62">
+      <c r="AI18" s="50">
         <v>2673</v>
       </c>
-      <c r="AJ18" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK18" s="63">
+      <c r="AJ18" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK18" s="51">
         <f t="shared" si="3"/>
         <v>3020.49</v>
       </c>
-      <c r="AL18" s="62">
+      <c r="AL18" s="50">
         <v>54167</v>
       </c>
-      <c r="AM18" s="64">
+      <c r="AM18" s="52">
         <f t="shared" si="4"/>
         <v>5.5762549153543665E-2</v>
       </c>
     </row>
     <row r="19" spans="21:48">
       <c r="U19" t="s">
-        <v>322</v>
-      </c>
-      <c r="V19" s="62">
+        <v>260</v>
+      </c>
+      <c r="V19" s="50">
         <v>5</v>
       </c>
-      <c r="W19" s="62">
+      <c r="W19" s="50">
         <v>7500</v>
       </c>
-      <c r="X19" s="62">
+      <c r="X19" s="50">
         <v>2784</v>
       </c>
-      <c r="Y19" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z19" s="63">
+      <c r="Y19" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z19" s="51">
         <f t="shared" si="1"/>
         <v>3145.9199999999996</v>
       </c>
-      <c r="AA19" s="62">
+      <c r="AA19" s="50">
         <v>54167</v>
       </c>
-      <c r="AB19" s="64">
+      <c r="AB19" s="52">
         <f t="shared" si="2"/>
         <v>5.8078165672826622E-2</v>
       </c>
       <c r="AF19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG19" s="62">
+        <v>260</v>
+      </c>
+      <c r="AG19" s="50">
         <v>5</v>
       </c>
-      <c r="AH19" s="62">
+      <c r="AH19" s="50">
         <v>7500</v>
       </c>
-      <c r="AI19" s="62">
+      <c r="AI19" s="50">
         <v>2429</v>
       </c>
-      <c r="AJ19" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK19" s="63">
+      <c r="AJ19" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK19" s="51">
         <f t="shared" si="3"/>
         <v>2744.7699999999995</v>
       </c>
-      <c r="AL19" s="62">
+      <c r="AL19" s="50">
         <v>54167</v>
       </c>
-      <c r="AM19" s="64">
+      <c r="AM19" s="52">
         <f t="shared" si="4"/>
         <v>5.0672365093137876E-2</v>
       </c>
     </row>
     <row r="20" spans="21:48">
       <c r="U20" t="s">
-        <v>322</v>
-      </c>
-      <c r="V20" s="62">
+        <v>260</v>
+      </c>
+      <c r="V20" s="50">
         <v>10</v>
       </c>
-      <c r="W20" s="62">
+      <c r="W20" s="50">
         <v>7500</v>
       </c>
-      <c r="X20" s="62">
+      <c r="X20" s="50">
         <v>3122</v>
       </c>
-      <c r="Y20" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z20" s="63">
+      <c r="Y20" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z20" s="51">
         <f t="shared" si="1"/>
         <v>3527.8599999999997</v>
       </c>
-      <c r="AA20" s="62">
+      <c r="AA20" s="50">
         <v>54167</v>
       </c>
-      <c r="AB20" s="64">
+      <c r="AB20" s="52">
         <f t="shared" si="2"/>
         <v>6.5129322281093652E-2</v>
       </c>
       <c r="AF20" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG20" s="62">
+        <v>260</v>
+      </c>
+      <c r="AG20" s="50">
         <v>10</v>
       </c>
-      <c r="AH20" s="62">
+      <c r="AH20" s="50">
         <v>7500</v>
       </c>
-      <c r="AI20" s="62">
+      <c r="AI20" s="50">
         <v>2154</v>
       </c>
-      <c r="AJ20" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK20" s="63">
+      <c r="AJ20" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK20" s="51">
         <f t="shared" si="3"/>
         <v>2434.02</v>
       </c>
-      <c r="AL20" s="62">
+      <c r="AL20" s="50">
         <v>54167</v>
       </c>
-      <c r="AM20" s="64">
+      <c r="AM20" s="52">
         <f t="shared" si="4"/>
         <v>4.4935477320139569E-2</v>
       </c>
     </row>
     <row r="21" spans="21:48">
       <c r="U21" t="s">
-        <v>322</v>
-      </c>
-      <c r="V21" s="62">
+        <v>260</v>
+      </c>
+      <c r="V21" s="50">
         <v>15</v>
       </c>
-      <c r="W21" s="62">
+      <c r="W21" s="50">
         <v>7500</v>
       </c>
-      <c r="X21" s="62">
+      <c r="X21" s="50">
         <v>3217</v>
       </c>
-      <c r="Y21" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z21" s="63">
+      <c r="Y21" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z21" s="51">
         <f t="shared" si="1"/>
         <v>3635.2099999999996</v>
       </c>
-      <c r="AA21" s="62">
+      <c r="AA21" s="50">
         <v>54167</v>
       </c>
-      <c r="AB21" s="64">
+      <c r="AB21" s="52">
         <f t="shared" si="2"/>
         <v>6.7111156239038516E-2</v>
       </c>
       <c r="AF21" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG21" s="62">
+        <v>260</v>
+      </c>
+      <c r="AG21" s="50">
         <v>15</v>
       </c>
-      <c r="AH21" s="62">
+      <c r="AH21" s="50">
         <v>7500</v>
       </c>
-      <c r="AI21" s="62">
+      <c r="AI21" s="50">
         <v>1911</v>
       </c>
-      <c r="AJ21" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK21" s="63">
+      <c r="AJ21" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK21" s="51">
         <f t="shared" si="3"/>
         <v>2159.4299999999998</v>
       </c>
-      <c r="AL21" s="62">
+      <c r="AL21" s="50">
         <v>54167</v>
       </c>
-      <c r="AM21" s="64">
+      <c r="AM21" s="52">
         <f t="shared" si="4"/>
         <v>3.9866154669817411E-2</v>
       </c>
     </row>
     <row r="22" spans="21:48">
       <c r="U22" t="s">
-        <v>322</v>
-      </c>
-      <c r="V22" s="62">
+        <v>260</v>
+      </c>
+      <c r="V22" s="50">
         <v>20</v>
       </c>
-      <c r="W22" s="62">
+      <c r="W22" s="50">
         <v>7500</v>
       </c>
-      <c r="X22" s="62">
+      <c r="X22" s="50">
         <v>3191</v>
       </c>
-      <c r="Y22" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z22" s="63">
+      <c r="Y22" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z22" s="51">
         <f t="shared" si="1"/>
         <v>3605.8299999999995</v>
       </c>
-      <c r="AA22" s="62">
+      <c r="AA22" s="50">
         <v>54167</v>
       </c>
-      <c r="AB22" s="64">
+      <c r="AB22" s="52">
         <f t="shared" si="2"/>
         <v>6.6568759576864131E-2</v>
       </c>
       <c r="AF22" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG22" s="62">
+        <v>260</v>
+      </c>
+      <c r="AG22" s="50">
         <v>20</v>
       </c>
-      <c r="AH22" s="62">
+      <c r="AH22" s="50">
         <v>7500</v>
       </c>
-      <c r="AI22" s="62">
+      <c r="AI22" s="50">
         <v>1694</v>
       </c>
-      <c r="AJ22" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK22" s="63">
+      <c r="AJ22" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK22" s="51">
         <f t="shared" si="3"/>
         <v>1914.2199999999998</v>
       </c>
-      <c r="AL22" s="62">
+      <c r="AL22" s="50">
         <v>54167</v>
       </c>
-      <c r="AM22" s="64">
+      <c r="AM22" s="52">
         <f t="shared" si="4"/>
         <v>3.5339228681669645E-2</v>
       </c>
     </row>
     <row r="23" spans="21:48">
       <c r="U23" t="s">
-        <v>322</v>
-      </c>
-      <c r="V23" s="65">
+        <v>260</v>
+      </c>
+      <c r="V23" s="53">
         <v>1</v>
       </c>
-      <c r="W23" s="65">
+      <c r="W23" s="53">
         <v>18000</v>
       </c>
-      <c r="X23" s="65">
+      <c r="X23" s="53">
         <v>2929</v>
       </c>
-      <c r="Y23" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z23" s="66">
+      <c r="Y23" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z23" s="54">
         <f t="shared" si="1"/>
         <v>3309.7699999999995</v>
       </c>
-      <c r="AA23" s="65">
+      <c r="AA23" s="53">
         <v>33333</v>
       </c>
-      <c r="AB23" s="67">
+      <c r="AB23" s="55">
         <f t="shared" si="2"/>
         <v>9.929409294092939E-2</v>
       </c>
       <c r="AF23" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG23" s="65">
+        <v>260</v>
+      </c>
+      <c r="AG23" s="53">
         <v>1</v>
       </c>
-      <c r="AH23" s="65">
+      <c r="AH23" s="53">
         <v>18000</v>
       </c>
-      <c r="AI23" s="65">
+      <c r="AI23" s="53">
         <v>3905</v>
       </c>
-      <c r="AJ23" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK23" s="66">
+      <c r="AJ23" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK23" s="54">
         <f t="shared" si="3"/>
         <v>4412.6499999999996</v>
       </c>
-      <c r="AL23" s="65">
+      <c r="AL23" s="53">
         <v>33333</v>
       </c>
-      <c r="AM23" s="67">
+      <c r="AM23" s="55">
         <f t="shared" si="4"/>
         <v>0.13238082380823807</v>
       </c>
     </row>
     <row r="24" spans="21:48">
       <c r="U24" t="s">
-        <v>322</v>
-      </c>
-      <c r="V24" s="65">
+        <v>260</v>
+      </c>
+      <c r="V24" s="53">
         <v>5</v>
       </c>
-      <c r="W24" s="65">
+      <c r="W24" s="53">
         <v>18000</v>
       </c>
-      <c r="X24" s="65">
+      <c r="X24" s="53">
         <v>3808</v>
       </c>
-      <c r="Y24" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z24" s="66">
+      <c r="Y24" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z24" s="54">
         <f t="shared" si="1"/>
         <v>4303.04</v>
       </c>
-      <c r="AA24" s="65">
+      <c r="AA24" s="53">
         <v>33333</v>
       </c>
-      <c r="AB24" s="67">
+      <c r="AB24" s="55">
         <f t="shared" si="2"/>
         <v>0.12909249092490924</v>
       </c>
       <c r="AF24" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG24" s="65">
+        <v>260</v>
+      </c>
+      <c r="AG24" s="53">
         <v>5</v>
       </c>
-      <c r="AH24" s="65">
+      <c r="AH24" s="53">
         <v>18000</v>
       </c>
-      <c r="AI24" s="65">
+      <c r="AI24" s="53">
         <v>3548</v>
       </c>
-      <c r="AJ24" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK24" s="66">
+      <c r="AJ24" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK24" s="54">
         <f t="shared" si="3"/>
         <v>4009.24</v>
       </c>
-      <c r="AL24" s="65">
+      <c r="AL24" s="53">
         <v>33333</v>
       </c>
-      <c r="AM24" s="67">
+      <c r="AM24" s="55">
         <f t="shared" si="4"/>
         <v>0.12027840278402784</v>
       </c>
     </row>
     <row r="25" spans="21:48">
       <c r="U25" t="s">
-        <v>322</v>
-      </c>
-      <c r="V25" s="65">
+        <v>260</v>
+      </c>
+      <c r="V25" s="53">
         <v>10</v>
       </c>
-      <c r="W25" s="65">
+      <c r="W25" s="53">
         <v>18000</v>
       </c>
-      <c r="X25" s="65">
+      <c r="X25" s="53">
         <v>4270</v>
       </c>
-      <c r="Y25" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z25" s="66">
+      <c r="Y25" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z25" s="54">
         <f t="shared" si="1"/>
         <v>4825.0999999999995</v>
       </c>
-      <c r="AA25" s="65">
+      <c r="AA25" s="53">
         <v>33333</v>
       </c>
-      <c r="AB25" s="67">
+      <c r="AB25" s="55">
         <f t="shared" si="2"/>
         <v>0.14475444754447542</v>
       </c>
       <c r="AF25" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG25" s="65">
+        <v>260</v>
+      </c>
+      <c r="AG25" s="53">
         <v>10</v>
       </c>
-      <c r="AH25" s="65">
+      <c r="AH25" s="53">
         <v>18000</v>
       </c>
-      <c r="AI25" s="65">
+      <c r="AI25" s="53">
         <v>3146</v>
       </c>
-      <c r="AJ25" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK25" s="66">
+      <c r="AJ25" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK25" s="54">
         <f t="shared" si="3"/>
         <v>3554.9799999999996</v>
       </c>
-      <c r="AL25" s="65">
+      <c r="AL25" s="53">
         <v>33333</v>
       </c>
-      <c r="AM25" s="67">
+      <c r="AM25" s="55">
         <f t="shared" si="4"/>
         <v>0.10665046650466503</v>
       </c>
     </row>
     <row r="26" spans="21:48">
       <c r="U26" t="s">
-        <v>322</v>
-      </c>
-      <c r="V26" s="65">
+        <v>260</v>
+      </c>
+      <c r="V26" s="53">
         <v>15</v>
       </c>
-      <c r="W26" s="65">
+      <c r="W26" s="53">
         <v>18000</v>
       </c>
-      <c r="X26" s="65">
+      <c r="X26" s="53">
         <v>4400</v>
       </c>
-      <c r="Y26" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z26" s="66">
+      <c r="Y26" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z26" s="54">
         <f t="shared" si="1"/>
         <v>4971.9999999999991</v>
       </c>
-      <c r="AA26" s="65">
+      <c r="AA26" s="53">
         <v>33333</v>
       </c>
-      <c r="AB26" s="67">
+      <c r="AB26" s="55">
         <f t="shared" si="2"/>
         <v>0.14916149161491613</v>
       </c>
       <c r="AF26" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG26" s="65">
+        <v>260</v>
+      </c>
+      <c r="AG26" s="53">
         <v>15</v>
       </c>
-      <c r="AH26" s="65">
+      <c r="AH26" s="53">
         <v>18000</v>
       </c>
-      <c r="AI26" s="65">
+      <c r="AI26" s="53">
         <v>2791</v>
       </c>
-      <c r="AJ26" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK26" s="66">
+      <c r="AJ26" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK26" s="54">
         <f t="shared" si="3"/>
         <v>3153.83</v>
       </c>
-      <c r="AL26" s="65">
+      <c r="AL26" s="53">
         <v>33333</v>
       </c>
-      <c r="AM26" s="67">
+      <c r="AM26" s="55">
         <f t="shared" si="4"/>
         <v>9.4615846158461581E-2</v>
       </c>
     </row>
     <row r="27" spans="21:48">
       <c r="U27" t="s">
-        <v>322</v>
-      </c>
-      <c r="V27" s="65">
+        <v>260</v>
+      </c>
+      <c r="V27" s="53">
         <v>20</v>
       </c>
-      <c r="W27" s="65">
+      <c r="W27" s="53">
         <v>18000</v>
       </c>
-      <c r="X27" s="65">
+      <c r="X27" s="53">
         <v>4365</v>
       </c>
-      <c r="Y27" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z27" s="66">
+      <c r="Y27" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z27" s="54">
         <f t="shared" si="1"/>
         <v>4932.45</v>
       </c>
-      <c r="AA27" s="65">
+      <c r="AA27" s="53">
         <v>33333</v>
       </c>
-      <c r="AB27" s="67">
+      <c r="AB27" s="55">
         <f t="shared" si="2"/>
         <v>0.14797497974979748</v>
       </c>
       <c r="AF27" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG27" s="65">
+        <v>260</v>
+      </c>
+      <c r="AG27" s="53">
         <v>20</v>
       </c>
-      <c r="AH27" s="65">
+      <c r="AH27" s="53">
         <v>18000</v>
       </c>
-      <c r="AI27" s="65">
+      <c r="AI27" s="53">
         <v>2475</v>
       </c>
-      <c r="AJ27" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK27" s="66">
+      <c r="AJ27" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK27" s="54">
         <f t="shared" si="3"/>
         <v>2796.7499999999995</v>
       </c>
-      <c r="AL27" s="65">
+      <c r="AL27" s="53">
         <v>33333</v>
       </c>
-      <c r="AM27" s="67">
+      <c r="AM27" s="55">
         <f t="shared" si="4"/>
         <v>8.3903339033390326E-2</v>
       </c>
     </row>
     <row r="28" spans="21:48">
       <c r="U28" t="s">
-        <v>322</v>
-      </c>
-      <c r="V28" s="68">
+        <v>260</v>
+      </c>
+      <c r="V28" s="56">
         <v>1</v>
       </c>
-      <c r="W28" s="68">
+      <c r="W28" s="56">
         <v>26000</v>
       </c>
-      <c r="X28" s="68">
+      <c r="X28" s="56">
         <v>3609</v>
       </c>
-      <c r="Y28" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z28" s="69">
+      <c r="Y28" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z28" s="57">
         <f t="shared" si="1"/>
         <v>4078.1699999999996</v>
       </c>
-      <c r="AA28" s="68">
+      <c r="AA28" s="56">
         <v>46667</v>
       </c>
-      <c r="AB28" s="70">
+      <c r="AB28" s="58">
         <f t="shared" si="2"/>
         <v>8.7388732937621866E-2</v>
       </c>
       <c r="AF28" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG28" s="68">
+        <v>260</v>
+      </c>
+      <c r="AG28" s="56">
         <v>1</v>
       </c>
-      <c r="AH28" s="68">
+      <c r="AH28" s="56">
         <v>26000</v>
       </c>
-      <c r="AI28" s="68">
+      <c r="AI28" s="56">
         <v>5137</v>
       </c>
-      <c r="AJ28" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK28" s="69">
+      <c r="AJ28" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK28" s="57">
         <f t="shared" si="3"/>
         <v>5804.8099999999995</v>
       </c>
-      <c r="AL28" s="68">
+      <c r="AL28" s="56">
         <v>46667</v>
       </c>
-      <c r="AM28" s="70">
+      <c r="AM28" s="58">
         <f t="shared" si="4"/>
         <v>0.12438789722930549</v>
       </c>
     </row>
     <row r="29" spans="21:48">
       <c r="U29" t="s">
-        <v>322</v>
-      </c>
-      <c r="V29" s="68">
+        <v>260</v>
+      </c>
+      <c r="V29" s="56">
         <v>5</v>
       </c>
-      <c r="W29" s="68">
+      <c r="W29" s="56">
         <v>26000</v>
       </c>
-      <c r="X29" s="68">
+      <c r="X29" s="56">
         <v>4227</v>
       </c>
-      <c r="Y29" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z29" s="69">
+      <c r="Y29" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z29" s="57">
         <f t="shared" si="1"/>
         <v>4776.5099999999993</v>
       </c>
-      <c r="AA29" s="68">
+      <c r="AA29" s="56">
         <v>46667</v>
       </c>
-      <c r="AB29" s="70">
+      <c r="AB29" s="58">
         <f t="shared" si="2"/>
         <v>0.1023530546210384</v>
       </c>
       <c r="AF29" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG29" s="68">
+        <v>260</v>
+      </c>
+      <c r="AG29" s="56">
         <v>5</v>
       </c>
-      <c r="AH29" s="68">
+      <c r="AH29" s="56">
         <v>26000</v>
       </c>
-      <c r="AI29" s="68">
+      <c r="AI29" s="56">
         <v>4666</v>
       </c>
-      <c r="AJ29" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK29" s="69">
+      <c r="AJ29" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK29" s="57">
         <f t="shared" si="3"/>
         <v>5272.58</v>
       </c>
-      <c r="AL29" s="68">
+      <c r="AL29" s="56">
         <v>46667</v>
       </c>
-      <c r="AM29" s="70">
+      <c r="AM29" s="58">
         <f t="shared" si="4"/>
         <v>0.11298305012107056</v>
       </c>
     </row>
     <row r="30" spans="21:48">
       <c r="U30" t="s">
-        <v>322</v>
-      </c>
-      <c r="V30" s="68">
+        <v>260</v>
+      </c>
+      <c r="V30" s="56">
         <v>10</v>
       </c>
-      <c r="W30" s="68">
+      <c r="W30" s="56">
         <v>26000</v>
       </c>
-      <c r="X30" s="68">
+      <c r="X30" s="56">
         <v>4739</v>
       </c>
-      <c r="Y30" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z30" s="69">
+      <c r="Y30" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z30" s="57">
         <f t="shared" si="1"/>
         <v>5355.07</v>
       </c>
-      <c r="AA30" s="68">
+      <c r="AA30" s="56">
         <v>46667</v>
       </c>
-      <c r="AB30" s="70">
+      <c r="AB30" s="58">
         <f t="shared" si="2"/>
         <v>0.1147506803522832</v>
       </c>
       <c r="AF30" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG30" s="68">
+        <v>260</v>
+      </c>
+      <c r="AG30" s="56">
         <v>10</v>
       </c>
-      <c r="AH30" s="68">
+      <c r="AH30" s="56">
         <v>26000</v>
       </c>
-      <c r="AI30" s="68">
+      <c r="AI30" s="56">
         <v>4139</v>
       </c>
-      <c r="AJ30" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK30" s="69">
+      <c r="AJ30" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK30" s="57">
         <f t="shared" si="3"/>
         <v>4677.07</v>
       </c>
-      <c r="AL30" s="68">
+      <c r="AL30" s="56">
         <v>46667</v>
       </c>
-      <c r="AM30" s="70">
+      <c r="AM30" s="58">
         <f t="shared" si="4"/>
         <v>0.10022221269848072</v>
       </c>
     </row>
     <row r="31" spans="21:48">
       <c r="U31" t="s">
-        <v>322</v>
-      </c>
-      <c r="V31" s="68">
+        <v>260</v>
+      </c>
+      <c r="V31" s="56">
         <v>15</v>
       </c>
-      <c r="W31" s="68">
+      <c r="W31" s="56">
         <v>26000</v>
       </c>
-      <c r="X31" s="68">
+      <c r="X31" s="56">
         <v>4884</v>
       </c>
-      <c r="Y31" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z31" s="69">
+      <c r="Y31" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z31" s="57">
         <f t="shared" si="1"/>
         <v>5518.9199999999992</v>
       </c>
-      <c r="AA31" s="68">
+      <c r="AA31" s="56">
         <v>46667</v>
       </c>
-      <c r="AB31" s="70">
+      <c r="AB31" s="58">
         <f t="shared" si="2"/>
         <v>0.11826172670195211</v>
       </c>
       <c r="AF31" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG31" s="68">
+        <v>260</v>
+      </c>
+      <c r="AG31" s="56">
         <v>15</v>
       </c>
-      <c r="AH31" s="68">
+      <c r="AH31" s="56">
         <v>26000</v>
       </c>
-      <c r="AI31" s="68">
+      <c r="AI31" s="56">
         <v>3671</v>
       </c>
-      <c r="AJ31" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK31" s="69">
+      <c r="AJ31" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK31" s="57">
         <f t="shared" si="3"/>
         <v>4148.2299999999996</v>
       </c>
-      <c r="AL31" s="68">
+      <c r="AL31" s="56">
         <v>46667</v>
       </c>
-      <c r="AM31" s="70">
+      <c r="AM31" s="58">
         <f t="shared" si="4"/>
         <v>8.8890007928514786E-2</v>
       </c>
     </row>
     <row r="32" spans="21:48">
       <c r="U32" t="s">
-        <v>322</v>
-      </c>
-      <c r="V32" s="68">
+        <v>260</v>
+      </c>
+      <c r="V32" s="56">
         <v>20</v>
       </c>
-      <c r="W32" s="68">
+      <c r="W32" s="56">
         <v>26000</v>
       </c>
-      <c r="X32" s="68">
+      <c r="X32" s="56">
         <v>5378</v>
       </c>
-      <c r="Y32" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z32" s="69">
+      <c r="Y32" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z32" s="57">
         <f t="shared" si="1"/>
         <v>6077.1399999999994</v>
       </c>
-      <c r="AA32" s="68">
+      <c r="AA32" s="56">
         <v>46667</v>
       </c>
-      <c r="AB32" s="70">
+      <c r="AB32" s="58">
         <f t="shared" si="2"/>
         <v>0.13022349840358283</v>
       </c>
       <c r="AF32" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG32" s="68">
+        <v>260</v>
+      </c>
+      <c r="AG32" s="56">
         <v>20</v>
       </c>
-      <c r="AH32" s="68">
+      <c r="AH32" s="56">
         <v>26000</v>
       </c>
-      <c r="AI32" s="68">
+      <c r="AI32" s="56">
         <v>3256</v>
       </c>
-      <c r="AJ32" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK32" s="69">
+      <c r="AJ32" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK32" s="57">
         <f t="shared" si="3"/>
         <v>3679.2799999999997</v>
       </c>
-      <c r="AL32" s="68">
+      <c r="AL32" s="56">
         <v>46667</v>
       </c>
-      <c r="AM32" s="70">
+      <c r="AM32" s="58">
         <f t="shared" si="4"/>
         <v>7.8841151134634746E-2</v>
       </c>
     </row>
     <row r="33" spans="21:39">
       <c r="U33" t="s">
-        <v>322</v>
-      </c>
-      <c r="V33" s="71">
+        <v>260</v>
+      </c>
+      <c r="V33" s="59">
         <v>1</v>
       </c>
-      <c r="W33" s="71">
+      <c r="W33" s="59">
         <v>40000</v>
       </c>
-      <c r="X33" s="71">
+      <c r="X33" s="59">
         <v>4687</v>
       </c>
-      <c r="Y33" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z33" s="72">
+      <c r="Y33" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z33" s="60">
         <f t="shared" si="1"/>
         <v>5296.3099999999995</v>
       </c>
-      <c r="AA33" s="71">
+      <c r="AA33" s="59">
         <v>83333</v>
       </c>
-      <c r="AB33" s="73">
+      <c r="AB33" s="61">
         <f t="shared" si="2"/>
         <v>6.3555974223896888E-2</v>
       </c>
       <c r="AF33" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG33" s="71">
+        <v>260</v>
+      </c>
+      <c r="AG33" s="59">
         <v>1</v>
       </c>
-      <c r="AH33" s="71">
+      <c r="AH33" s="59">
         <v>40000</v>
       </c>
-      <c r="AI33" s="71">
+      <c r="AI33" s="59">
         <v>6368</v>
       </c>
-      <c r="AJ33" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK33" s="72">
+      <c r="AJ33" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK33" s="60">
         <f t="shared" si="3"/>
         <v>7195.8399999999992</v>
       </c>
-      <c r="AL33" s="71">
+      <c r="AL33" s="59">
         <v>83333</v>
       </c>
-      <c r="AM33" s="73">
+      <c r="AM33" s="61">
         <f t="shared" si="4"/>
         <v>8.6350425401701597E-2</v>
       </c>
     </row>
     <row r="34" spans="21:39">
       <c r="U34" t="s">
-        <v>322</v>
-      </c>
-      <c r="V34" s="71">
+        <v>260</v>
+      </c>
+      <c r="V34" s="59">
         <v>5</v>
       </c>
-      <c r="W34" s="71">
+      <c r="W34" s="59">
         <v>40000</v>
       </c>
-      <c r="X34" s="71">
+      <c r="X34" s="59">
         <v>6094</v>
       </c>
-      <c r="Y34" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z34" s="72">
+      <c r="Y34" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z34" s="60">
         <f t="shared" si="1"/>
         <v>6886.2199999999993</v>
       </c>
-      <c r="AA34" s="71">
+      <c r="AA34" s="59">
         <v>83333</v>
       </c>
-      <c r="AB34" s="73">
+      <c r="AB34" s="61">
         <f t="shared" si="2"/>
         <v>8.2634970539882155E-2</v>
       </c>
       <c r="AF34" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG34" s="71">
+        <v>260</v>
+      </c>
+      <c r="AG34" s="59">
         <v>5</v>
       </c>
-      <c r="AH34" s="71">
+      <c r="AH34" s="59">
         <v>40000</v>
       </c>
-      <c r="AI34" s="71">
+      <c r="AI34" s="59">
         <v>5785</v>
       </c>
-      <c r="AJ34" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK34" s="72">
+      <c r="AJ34" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK34" s="60">
         <f t="shared" si="3"/>
         <v>6537.0499999999993</v>
       </c>
-      <c r="AL34" s="71">
+      <c r="AL34" s="59">
         <v>83333</v>
       </c>
-      <c r="AM34" s="73">
+      <c r="AM34" s="61">
         <f t="shared" si="4"/>
         <v>7.8444913779655109E-2</v>
       </c>
     </row>
     <row r="35" spans="21:39">
       <c r="U35" t="s">
-        <v>322</v>
-      </c>
-      <c r="V35" s="71">
+        <v>260</v>
+      </c>
+      <c r="V35" s="59">
         <v>10</v>
       </c>
-      <c r="W35" s="71">
+      <c r="W35" s="59">
         <v>40000</v>
       </c>
-      <c r="X35" s="71">
+      <c r="X35" s="59">
         <v>6832</v>
       </c>
-      <c r="Y35" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z35" s="72">
+      <c r="Y35" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z35" s="60">
         <f t="shared" si="1"/>
         <v>7720.1599999999989</v>
       </c>
-      <c r="AA35" s="71">
+      <c r="AA35" s="59">
         <v>83333</v>
       </c>
-      <c r="AB35" s="73">
+      <c r="AB35" s="61">
         <f t="shared" si="2"/>
         <v>9.2642290569162261E-2</v>
       </c>
       <c r="AF35" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG35" s="71">
+        <v>260</v>
+      </c>
+      <c r="AG35" s="59">
         <v>10</v>
       </c>
-      <c r="AH35" s="71">
+      <c r="AH35" s="59">
         <v>40000</v>
       </c>
-      <c r="AI35" s="71">
+      <c r="AI35" s="59">
         <v>5131</v>
       </c>
-      <c r="AJ35" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK35" s="72">
+      <c r="AJ35" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK35" s="60">
         <f t="shared" si="3"/>
         <v>5798.03</v>
       </c>
-      <c r="AL35" s="71">
+      <c r="AL35" s="59">
         <v>83333</v>
       </c>
-      <c r="AM35" s="73">
+      <c r="AM35" s="61">
         <f t="shared" si="4"/>
         <v>6.9576638306553223E-2</v>
       </c>
     </row>
     <row r="36" spans="21:39">
       <c r="U36" t="s">
-        <v>322</v>
-      </c>
-      <c r="V36" s="71">
+        <v>260</v>
+      </c>
+      <c r="V36" s="59">
         <v>15</v>
       </c>
-      <c r="W36" s="71">
+      <c r="W36" s="59">
         <v>40000</v>
       </c>
-      <c r="X36" s="71">
+      <c r="X36" s="59">
         <v>7041</v>
       </c>
-      <c r="Y36" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z36" s="72">
+      <c r="Y36" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z36" s="60">
         <f t="shared" si="1"/>
         <v>7956.329999999999</v>
       </c>
-      <c r="AA36" s="71">
+      <c r="AA36" s="59">
         <v>83333</v>
       </c>
-      <c r="AB36" s="73">
+      <c r="AB36" s="61">
         <f t="shared" si="2"/>
         <v>9.5476341905367607E-2</v>
       </c>
       <c r="AF36" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG36" s="71">
+        <v>260</v>
+      </c>
+      <c r="AG36" s="59">
         <v>15</v>
       </c>
-      <c r="AH36" s="71">
+      <c r="AH36" s="59">
         <v>40000</v>
       </c>
-      <c r="AI36" s="71">
+      <c r="AI36" s="59">
         <v>4551</v>
       </c>
-      <c r="AJ36" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK36" s="72">
+      <c r="AJ36" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK36" s="60">
         <f t="shared" si="3"/>
         <v>5142.6299999999992</v>
       </c>
-      <c r="AL36" s="71">
+      <c r="AL36" s="59">
         <v>83333</v>
       </c>
-      <c r="AM36" s="73">
+      <c r="AM36" s="61">
         <f t="shared" si="4"/>
         <v>6.171180684722738E-2</v>
       </c>
     </row>
     <row r="37" spans="21:39">
       <c r="U37" t="s">
-        <v>322</v>
-      </c>
-      <c r="V37" s="71">
+        <v>260</v>
+      </c>
+      <c r="V37" s="59">
         <v>20</v>
       </c>
-      <c r="W37" s="71">
+      <c r="W37" s="59">
         <v>40000</v>
       </c>
-      <c r="X37" s="71">
+      <c r="X37" s="59">
         <v>6984</v>
       </c>
-      <c r="Y37" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z37" s="72">
+      <c r="Y37" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z37" s="60">
         <f t="shared" si="1"/>
         <v>7891.9199999999992</v>
       </c>
-      <c r="AA37" s="71">
+      <c r="AA37" s="59">
         <v>83333</v>
       </c>
-      <c r="AB37" s="73">
+      <c r="AB37" s="61">
         <f t="shared" si="2"/>
         <v>9.470341881367525E-2</v>
       </c>
       <c r="AF37" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG37" s="71">
+        <v>260</v>
+      </c>
+      <c r="AG37" s="59">
         <v>20</v>
       </c>
-      <c r="AH37" s="71">
+      <c r="AH37" s="59">
         <v>40000</v>
       </c>
-      <c r="AI37" s="71">
+      <c r="AI37" s="59">
         <v>4036</v>
       </c>
-      <c r="AJ37" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK37" s="72">
+      <c r="AJ37" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK37" s="60">
         <f t="shared" si="3"/>
         <v>4560.6799999999994</v>
       </c>
-      <c r="AL37" s="71">
+      <c r="AL37" s="59">
         <v>83333</v>
       </c>
-      <c r="AM37" s="73">
+      <c r="AM37" s="61">
         <f t="shared" si="4"/>
         <v>5.4728378913515646E-2</v>
       </c>
@@ -27268,62 +25727,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>169</v>
+      <c r="I1" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C8" si="0">A2&amp;" - "&amp;B2</f>
         <v>Scania - PHEV-d</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E2">
         <v>29</v>
@@ -27338,7 +25797,7 @@
         <f>SUM(G2:H2)</f>
         <v>410</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="24">
         <f>H2/I2</f>
         <v>0.68292682926829273</v>
       </c>
@@ -27348,24 +25807,24 @@
       <c r="L2">
         <v>60</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="33" t="s">
-        <v>227</v>
+      <c r="M2" s="44"/>
+      <c r="N2" s="21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>Class 2 Van - Light</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E3">
         <v>3.5</v>
@@ -27380,26 +25839,26 @@
         <f t="shared" ref="I3:I8" si="1">SUM(G3:H3)</f>
         <v>180</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="24">
         <f t="shared" ref="J3:J12" si="2">H3/I3</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="33"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Class 2 Van - Light</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -27414,26 +25873,26 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="24">
         <f t="shared" si="2"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="33"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Class 3 Van - Light</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -27448,26 +25907,26 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="24">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="33"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Class 3 Van - Light</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -27482,26 +25941,26 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="24">
         <f t="shared" si="2"/>
         <v>0.40298507462686567</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="33"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Class 5 Utility - Medium</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -27516,26 +25975,26 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="24">
         <f t="shared" si="2"/>
         <v>0.68656716417910446</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="33"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Class 5 Utility - Medium</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -27550,26 +26009,26 @@
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="24">
         <f t="shared" si="2"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="33"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ref="C9:C12" si="3">A9&amp;" - "&amp;B9</f>
         <v>Class 7 Tractor - DayCab</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E9">
         <v>26</v>
@@ -27584,31 +26043,31 @@
         <f>SUM(G9:H9)</f>
         <v>300</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="24">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="33" t="s">
-        <v>233</v>
+      <c r="M9" s="44"/>
+      <c r="N9" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="3"/>
         <v>Class 7 Aero - DayCab</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>26</v>
@@ -27622,31 +26081,31 @@
       <c r="I10">
         <v>480</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="24">
         <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="K10">
         <v>400</v>
       </c>
-      <c r="M10" s="56"/>
-      <c r="N10" s="33" t="s">
-        <v>233</v>
+      <c r="M10" s="44"/>
+      <c r="N10" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
         <v>Class 8 Tractor - DayCab</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -27661,31 +26120,31 @@
         <f>SUM(G11:H11)</f>
         <v>400</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="24">
         <f t="shared" si="2"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="33" t="s">
-        <v>233</v>
+      <c r="M11" s="44"/>
+      <c r="N11" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
         <v>Class 8 Aero - DayCab</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -27699,49 +26158,49 @@
       <c r="I12">
         <v>510</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="24">
         <f t="shared" si="2"/>
         <v>0.5490196078431373</v>
       </c>
       <c r="K12">
         <v>440</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="33" t="s">
-        <v>233</v>
+      <c r="M12" s="44"/>
+      <c r="N12" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="M13" s="56"/>
-      <c r="N13" s="33"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="M14" s="56"/>
-      <c r="N14" s="33"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="M15" s="56"/>
-      <c r="N15" s="33"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="M16" s="56"/>
-      <c r="N16" s="33"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="13:14">
-      <c r="M17" s="56"/>
-      <c r="N17" s="33"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="13:14">
-      <c r="M18" s="56"/>
-      <c r="N18" s="33"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="13:14">
-      <c r="M19" s="56"/>
-      <c r="N19" s="33"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="13:14">
-      <c r="M20" s="56"/>
-      <c r="N20" s="33"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27777,49 +26236,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>169</v>
+      <c r="A1" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C8" si="0">A2&amp;" - "&amp;B2</f>
@@ -27843,20 +26302,20 @@
       <c r="J2">
         <v>375</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="44">
         <f t="shared" ref="K2:K8" si="1">(G2/J2)*120/3.6</f>
         <v>2.7555555555555555</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>205</v>
+      <c r="L2" s="21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -27880,20 +26339,20 @@
       <c r="J3">
         <v>400</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="44">
         <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>210</v>
+      <c r="L3" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -27917,20 +26376,20 @@
       <c r="J4">
         <v>200</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="44">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>211</v>
+      <c r="L4" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -27954,17 +26413,17 @@
       <c r="J5">
         <v>400</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="44">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>214</v>
+      <c r="L5" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -27988,20 +26447,20 @@
       <c r="J6">
         <v>400</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="44">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="L6" s="33" t="s">
-        <v>216</v>
+      <c r="L6" s="21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -28025,20 +26484,20 @@
       <c r="J7">
         <v>320</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="44">
         <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
-      <c r="L7" s="33" t="s">
-        <v>219</v>
+      <c r="L7" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -28059,12 +26518,12 @@
       <c r="J8">
         <v>200</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="44">
         <f t="shared" si="1"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>222</v>
+      <c r="L8" s="21" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -28083,10 +26542,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28094,72 +26553,72 @@
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" t="s">
-        <v>285</v>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B2">
         <v>93</v>
       </c>
-      <c r="C7">
+      <c r="C2">
         <v>70</v>
       </c>
-      <c r="D7">
+      <c r="D2">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E2">
         <v>145</v>
       </c>
-      <c r="F7">
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="G2">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B3">
         <v>51</v>
       </c>
-      <c r="C8">
+      <c r="C3">
         <v>51</v>
       </c>
-      <c r="D8">
+      <c r="D3">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="E3">
         <v>76</v>
       </c>
-      <c r="F8">
+      <c r="F3">
         <v>36.299999999999997</v>
       </c>
-      <c r="G8">
+      <c r="G3">
         <v>550</v>
       </c>
     </row>
@@ -28174,7 +26633,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28229,7 +26688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -28240,30 +26699,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="180" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="A1" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="180" t="s">
-        <v>363</v>
-      </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
+      <c r="M2" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6"/>
@@ -28339,30 +26798,30 @@
         <v>18752</v>
       </c>
       <c r="L4" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4" s="107">
+        <v>294</v>
+      </c>
+      <c r="M4" s="95">
         <v>54.361859345101777</v>
       </c>
-      <c r="N4" s="108">
+      <c r="N4" s="96">
         <v>58.339086382379364</v>
       </c>
-      <c r="O4" s="108">
+      <c r="O4" s="96">
         <v>52.440124431958992</v>
       </c>
-      <c r="P4" s="108">
+      <c r="P4" s="96">
         <v>55.816343804554791</v>
       </c>
-      <c r="Q4" s="108">
+      <c r="Q4" s="96">
         <v>49.054567883744511</v>
       </c>
-      <c r="R4" s="109">
+      <c r="R4" s="97">
         <v>46.289594246342091</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:I5" si="0">3.5*B4</f>
@@ -28397,30 +26856,30 @@
         <v>65632</v>
       </c>
       <c r="L5" t="s">
-        <v>357</v>
-      </c>
-      <c r="M5" s="110">
+        <v>295</v>
+      </c>
+      <c r="M5" s="98">
         <v>23.345819984617155</v>
       </c>
-      <c r="N5" s="111">
+      <c r="N5" s="99">
         <v>22.381276690324771</v>
       </c>
-      <c r="O5" s="111">
+      <c r="O5" s="99">
         <v>21.363926659992543</v>
       </c>
-      <c r="P5" s="111">
+      <c r="P5" s="99">
         <v>18.74224122379988</v>
       </c>
-      <c r="Q5" s="111">
+      <c r="Q5" s="99">
         <v>18.483520014620819</v>
       </c>
-      <c r="R5" s="112">
+      <c r="R5" s="100">
         <v>17.359586919929566</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:I6" si="1">4.25*B4</f>
@@ -28455,30 +26914,30 @@
         <v>79696</v>
       </c>
       <c r="L6" t="s">
-        <v>334</v>
-      </c>
-      <c r="M6" s="80">
+        <v>272</v>
+      </c>
+      <c r="M6" s="68">
         <v>63.559231889036688</v>
       </c>
-      <c r="N6" s="81">
+      <c r="N6" s="69">
         <v>47.111219437843083</v>
       </c>
-      <c r="O6" s="81">
+      <c r="O6" s="69">
         <v>51.030707981389341</v>
       </c>
-      <c r="P6" s="81">
+      <c r="P6" s="69">
         <v>47.683810044446808</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="69">
         <v>62.891937025091032</v>
       </c>
-      <c r="R6" s="82">
+      <c r="R6" s="70">
         <v>69.091122537736311</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ref="B7:I7" si="2">9.5*B4</f>
@@ -28513,24 +26972,24 @@
         <v>178144</v>
       </c>
       <c r="L7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M7" s="83">
+        <v>273</v>
+      </c>
+      <c r="M7" s="71">
         <v>94.705983748266533</v>
       </c>
-      <c r="N7" s="84">
+      <c r="N7" s="72">
         <v>83.53901655791519</v>
       </c>
-      <c r="O7" s="84">
+      <c r="O7" s="72">
         <v>84.682270155055036</v>
       </c>
-      <c r="P7" s="84">
+      <c r="P7" s="72">
         <v>86.554170255633835</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="72">
         <v>79.049016525090622</v>
       </c>
-      <c r="R7" s="85">
+      <c r="R7" s="73">
         <v>79.621629371501484</v>
       </c>
     </row>
@@ -28563,24 +27022,24 @@
         <v>66239</v>
       </c>
       <c r="L8" t="s">
-        <v>336</v>
-      </c>
-      <c r="M8" s="86">
+        <v>274</v>
+      </c>
+      <c r="M8" s="74">
         <v>43.611676784881958</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="75">
         <v>35.990902623894442</v>
       </c>
-      <c r="O8" s="87">
+      <c r="O8" s="75">
         <v>34.07340015020246</v>
       </c>
-      <c r="P8" s="87">
+      <c r="P8" s="75">
         <v>35.203878313634597</v>
       </c>
-      <c r="Q8" s="87">
+      <c r="Q8" s="75">
         <v>25.715598461168252</v>
       </c>
-      <c r="R8" s="88">
+      <c r="R8" s="76">
         <v>27.959456255769883</v>
       </c>
     </row>
@@ -28621,24 +27080,24 @@
         <v>1.0092485372988786</v>
       </c>
       <c r="L9" t="s">
-        <v>337</v>
-      </c>
-      <c r="M9" s="89">
+        <v>275</v>
+      </c>
+      <c r="M9" s="77">
         <v>37.338130495946935</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="78">
         <v>42.135467581322217</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="78">
         <v>40.152459222464024</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="78">
         <v>40.825658842998564</v>
       </c>
-      <c r="Q9" s="90">
+      <c r="Q9" s="78">
         <v>38.873147027266214</v>
       </c>
-      <c r="R9" s="91">
+      <c r="R9" s="79">
         <v>48.016980525454471</v>
       </c>
     </row>
@@ -28679,24 +27138,24 @@
         <v>0.8311458542461353</v>
       </c>
       <c r="L10" t="s">
-        <v>338</v>
-      </c>
-      <c r="M10" s="92">
+        <v>276</v>
+      </c>
+      <c r="M10" s="80">
         <v>30.236078682953718</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="81">
         <v>26.034496706975052</v>
       </c>
-      <c r="O10" s="93">
+      <c r="O10" s="81">
         <v>24.434626422362012</v>
       </c>
-      <c r="P10" s="93">
+      <c r="P10" s="81">
         <v>23.552713843981579</v>
       </c>
-      <c r="Q10" s="93">
+      <c r="Q10" s="81">
         <v>23.867160094725868</v>
       </c>
-      <c r="R10" s="94">
+      <c r="R10" s="82">
         <v>20.401064868016576</v>
       </c>
     </row>
@@ -28737,24 +27196,24 @@
         <v>0.37182840847853421</v>
       </c>
       <c r="L11" t="s">
-        <v>339</v>
-      </c>
-      <c r="M11" s="95">
+        <v>277</v>
+      </c>
+      <c r="M11" s="83">
         <v>65.562015798622454</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="84">
         <v>56.734372380849237</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="84">
         <v>64.231854337192118</v>
       </c>
-      <c r="P11" s="96">
+      <c r="P11" s="84">
         <v>82.936325741577548</v>
       </c>
-      <c r="Q11" s="96">
+      <c r="Q11" s="84">
         <v>68.185739967667885</v>
       </c>
-      <c r="R11" s="97">
+      <c r="R11" s="85">
         <v>57.300667055227834</v>
       </c>
     </row>
@@ -28787,24 +27246,24 @@
         <v>231049</v>
       </c>
       <c r="L12" t="s">
-        <v>340</v>
-      </c>
-      <c r="M12" s="98">
+        <v>278</v>
+      </c>
+      <c r="M12" s="86">
         <v>57.187030837114278</v>
       </c>
-      <c r="N12" s="99">
+      <c r="N12" s="87">
         <v>51.52574734528018</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="87">
         <v>47.877489102315394</v>
       </c>
-      <c r="P12" s="99">
+      <c r="P12" s="87">
         <v>50.364948405675179</v>
       </c>
-      <c r="Q12" s="99">
+      <c r="Q12" s="87">
         <v>49.912127331213348</v>
       </c>
-      <c r="R12" s="100">
+      <c r="R12" s="88">
         <v>48.050597037556678</v>
       </c>
     </row>
@@ -28845,48 +27304,48 @@
         <v>81.160273361927551</v>
       </c>
       <c r="L13" t="s">
-        <v>310</v>
-      </c>
-      <c r="M13" s="101">
+        <v>248</v>
+      </c>
+      <c r="M13" s="89">
         <v>31.999923020517347</v>
       </c>
-      <c r="N13" s="102">
+      <c r="N13" s="90">
         <v>32.276340205216208</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="90">
         <v>32.775568934693638</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="90">
         <v>33.27249877747176</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="90">
         <v>30.867008770745795</v>
       </c>
-      <c r="R13" s="103">
+      <c r="R13" s="91">
         <v>30.860341778599896</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="L14" t="s">
-        <v>309</v>
-      </c>
-      <c r="M14" s="104">
+        <v>247</v>
+      </c>
+      <c r="M14" s="92">
         <v>41.570300005979398</v>
       </c>
-      <c r="N14" s="105">
+      <c r="N14" s="93">
         <v>41.269660779559956</v>
       </c>
-      <c r="O14" s="105">
+      <c r="O14" s="93">
         <v>41.77576738769605</v>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="93">
         <v>41.208541345531721</v>
       </c>
-      <c r="Q14" s="105">
+      <c r="Q14" s="93">
         <v>39.634964116409598</v>
       </c>
-      <c r="R14" s="106">
+      <c r="R14" s="94">
         <v>37.884811669362726</v>
       </c>
     </row>
@@ -28895,24 +27354,24 @@
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>341</v>
-      </c>
-      <c r="M15" s="113">
+        <v>279</v>
+      </c>
+      <c r="M15" s="101">
         <v>53.001672655780972</v>
       </c>
-      <c r="N15" s="114">
+      <c r="N15" s="102">
         <v>52.175933131601376</v>
       </c>
-      <c r="O15" s="114">
+      <c r="O15" s="102">
         <v>40.152819289812498</v>
       </c>
-      <c r="P15" s="114">
+      <c r="P15" s="102">
         <v>45.233344720328773</v>
       </c>
-      <c r="Q15" s="114">
+      <c r="Q15" s="102">
         <v>36.420055959471526</v>
       </c>
-      <c r="R15" s="115">
+      <c r="R15" s="103">
         <v>43.636435168042027</v>
       </c>
     </row>
@@ -28941,24 +27400,24 @@
       </c>
       <c r="I16" s="6"/>
       <c r="L16" t="s">
-        <v>342</v>
-      </c>
-      <c r="M16" s="116">
+        <v>280</v>
+      </c>
+      <c r="M16" s="104">
         <v>38.975047076025319</v>
       </c>
-      <c r="N16" s="117">
+      <c r="N16" s="105">
         <v>44.610488654713507</v>
       </c>
-      <c r="O16" s="117">
+      <c r="O16" s="105">
         <v>53.184695937383815</v>
       </c>
-      <c r="P16" s="117">
+      <c r="P16" s="105">
         <v>46.32784389046013</v>
       </c>
-      <c r="Q16" s="117">
+      <c r="Q16" s="105">
         <v>47.340643641450882</v>
       </c>
-      <c r="R16" s="118">
+      <c r="R16" s="106">
         <v>49.018323233040576</v>
       </c>
     </row>
@@ -28989,24 +27448,24 @@
       </c>
       <c r="I17" s="4"/>
       <c r="L17" t="s">
-        <v>343</v>
-      </c>
-      <c r="M17" s="119">
+        <v>281</v>
+      </c>
+      <c r="M17" s="107">
         <v>45.123310038399289</v>
       </c>
-      <c r="N17" s="120">
+      <c r="N17" s="108">
         <v>34.866723488743062</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="108">
         <v>33.579190297921841</v>
       </c>
-      <c r="P17" s="120">
+      <c r="P17" s="108">
         <v>36.091346433160808</v>
       </c>
-      <c r="Q17" s="120">
+      <c r="Q17" s="108">
         <v>34.350837249415804</v>
       </c>
-      <c r="R17" s="121">
+      <c r="R17" s="109">
         <v>38.538132139879998</v>
       </c>
     </row>
@@ -29044,24 +27503,24 @@
       </c>
       <c r="I18" s="5"/>
       <c r="L18" t="s">
-        <v>344</v>
-      </c>
-      <c r="M18" s="122">
+        <v>282</v>
+      </c>
+      <c r="M18" s="110">
         <v>45.290107592600954</v>
       </c>
-      <c r="N18" s="123">
+      <c r="N18" s="111">
         <v>39.986189913577896</v>
       </c>
-      <c r="O18" s="123">
+      <c r="O18" s="111">
         <v>35.751899088501411</v>
       </c>
-      <c r="P18" s="123">
+      <c r="P18" s="111">
         <v>35.463295811193625</v>
       </c>
-      <c r="Q18" s="123">
+      <c r="Q18" s="111">
         <v>32.973600286078401</v>
       </c>
-      <c r="R18" s="124">
+      <c r="R18" s="112">
         <v>38.784332730577113</v>
       </c>
     </row>
@@ -29099,24 +27558,24 @@
       </c>
       <c r="I19" s="5"/>
       <c r="L19" t="s">
-        <v>345</v>
-      </c>
-      <c r="M19" s="125">
+        <v>283</v>
+      </c>
+      <c r="M19" s="113">
         <v>54.018846477198153</v>
       </c>
-      <c r="N19" s="126">
+      <c r="N19" s="114">
         <v>63.742528780997887</v>
       </c>
-      <c r="O19" s="126">
+      <c r="O19" s="114">
         <v>67.934702270847183</v>
       </c>
-      <c r="P19" s="126">
+      <c r="P19" s="114">
         <v>79.148958189272861</v>
       </c>
-      <c r="Q19" s="126">
+      <c r="Q19" s="114">
         <v>47.582403621130155</v>
       </c>
-      <c r="R19" s="127">
+      <c r="R19" s="115">
         <v>57.024527405409081</v>
       </c>
     </row>
@@ -29154,24 +27613,24 @@
       </c>
       <c r="I20" s="5"/>
       <c r="L20" t="s">
-        <v>346</v>
-      </c>
-      <c r="M20" s="128">
+        <v>284</v>
+      </c>
+      <c r="M20" s="116">
         <v>17.581719314729956</v>
       </c>
-      <c r="N20" s="129">
+      <c r="N20" s="117">
         <v>18.792324465400156</v>
       </c>
-      <c r="O20" s="129">
+      <c r="O20" s="117">
         <v>20.522755584787507</v>
       </c>
-      <c r="P20" s="129">
+      <c r="P20" s="117">
         <v>20.897365828922325</v>
       </c>
-      <c r="Q20" s="129">
+      <c r="Q20" s="117">
         <v>25.222090520559838</v>
       </c>
-      <c r="R20" s="130">
+      <c r="R20" s="118">
         <v>24.52444658830807</v>
       </c>
     </row>
@@ -29202,24 +27661,24 @@
       </c>
       <c r="I21" s="4"/>
       <c r="L21" t="s">
-        <v>347</v>
-      </c>
-      <c r="M21" s="131">
+        <v>285</v>
+      </c>
+      <c r="M21" s="119">
         <v>11.072412788518482</v>
       </c>
-      <c r="N21" s="132">
+      <c r="N21" s="120">
         <v>10.681265916997562</v>
       </c>
-      <c r="O21" s="132">
+      <c r="O21" s="120">
         <v>10.190995021845222</v>
       </c>
-      <c r="P21" s="132">
+      <c r="P21" s="120">
         <v>10.658066258593209</v>
       </c>
-      <c r="Q21" s="132">
+      <c r="Q21" s="120">
         <v>10.153938290867337</v>
       </c>
-      <c r="R21" s="133">
+      <c r="R21" s="121">
         <v>9.0071849992234352</v>
       </c>
     </row>
@@ -29257,24 +27716,24 @@
       </c>
       <c r="I22" s="2"/>
       <c r="L22" t="s">
-        <v>348</v>
-      </c>
-      <c r="M22" s="134">
+        <v>286</v>
+      </c>
+      <c r="M22" s="122">
         <v>58.281808176355909</v>
       </c>
-      <c r="N22" s="135">
+      <c r="N22" s="123">
         <v>53.666158426282536</v>
       </c>
-      <c r="O22" s="135">
+      <c r="O22" s="123">
         <v>51.449310637005965</v>
       </c>
-      <c r="P22" s="135">
+      <c r="P22" s="123">
         <v>50.987258904956903</v>
       </c>
-      <c r="Q22" s="135">
+      <c r="Q22" s="123">
         <v>50.746540562102169</v>
       </c>
-      <c r="R22" s="136">
+      <c r="R22" s="124">
         <v>52.11466486831592</v>
       </c>
     </row>
@@ -29312,24 +27771,24 @@
       </c>
       <c r="I23" s="2"/>
       <c r="L23" t="s">
-        <v>349</v>
-      </c>
-      <c r="M23" s="137">
+        <v>287</v>
+      </c>
+      <c r="M23" s="125">
         <v>79.686847492084013</v>
       </c>
-      <c r="N23" s="138">
+      <c r="N23" s="126">
         <v>82.739814658968839</v>
       </c>
-      <c r="O23" s="138">
+      <c r="O23" s="126">
         <v>81.943306803817634</v>
       </c>
-      <c r="P23" s="138">
+      <c r="P23" s="126">
         <v>87.681326584940109</v>
       </c>
-      <c r="Q23" s="138">
+      <c r="Q23" s="126">
         <v>79.864436890857903</v>
       </c>
-      <c r="R23" s="139">
+      <c r="R23" s="127">
         <v>82.150956412735667</v>
       </c>
     </row>
@@ -29367,24 +27826,24 @@
       </c>
       <c r="I24" s="2"/>
       <c r="L24" t="s">
-        <v>350</v>
-      </c>
-      <c r="M24" s="140">
+        <v>288</v>
+      </c>
+      <c r="M24" s="128">
         <v>57.526093555397637</v>
       </c>
-      <c r="N24" s="141">
+      <c r="N24" s="129">
         <v>57.348984370447901</v>
       </c>
-      <c r="O24" s="141">
+      <c r="O24" s="129">
         <v>57.567723950717252</v>
       </c>
-      <c r="P24" s="141">
+      <c r="P24" s="129">
         <v>57.634555992309885</v>
       </c>
-      <c r="Q24" s="141">
+      <c r="Q24" s="129">
         <v>61.499945996043621</v>
       </c>
-      <c r="R24" s="142">
+      <c r="R24" s="130">
         <v>65.232177686667839</v>
       </c>
     </row>
@@ -29415,24 +27874,24 @@
       </c>
       <c r="I25" s="4"/>
       <c r="L25" t="s">
-        <v>351</v>
-      </c>
-      <c r="M25" s="143">
+        <v>289</v>
+      </c>
+      <c r="M25" s="131">
         <v>57.545651736683837</v>
       </c>
-      <c r="N25" s="144">
+      <c r="N25" s="132">
         <v>56.450832359842259</v>
       </c>
-      <c r="O25" s="144">
+      <c r="O25" s="132">
         <v>57.504803732075857</v>
       </c>
-      <c r="P25" s="144">
+      <c r="P25" s="132">
         <v>61.880068382901555</v>
       </c>
-      <c r="Q25" s="144">
+      <c r="Q25" s="132">
         <v>65.976601232627644</v>
       </c>
-      <c r="R25" s="145">
+      <c r="R25" s="133">
         <v>57.746270015896954</v>
       </c>
     </row>
@@ -29470,47 +27929,47 @@
       </c>
       <c r="I26" s="8"/>
       <c r="L26" t="s">
-        <v>352</v>
-      </c>
-      <c r="M26" s="146">
+        <v>290</v>
+      </c>
+      <c r="M26" s="134">
         <v>62.887109078927949</v>
       </c>
-      <c r="N26" s="147">
+      <c r="N26" s="135">
         <v>63.091595121857566</v>
       </c>
-      <c r="O26" s="147">
+      <c r="O26" s="135">
         <v>53.444924181412162</v>
       </c>
-      <c r="P26" s="147">
+      <c r="P26" s="135">
         <v>49.622674605350284</v>
       </c>
-      <c r="Q26" s="147">
+      <c r="Q26" s="135">
         <v>51.283986965294524</v>
       </c>
-      <c r="R26" s="148">
+      <c r="R26" s="136">
         <v>55.138204304914304</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="L27" t="s">
-        <v>307</v>
-      </c>
-      <c r="M27" s="149">
+        <v>245</v>
+      </c>
+      <c r="M27" s="137">
         <v>29.098218207770955</v>
       </c>
-      <c r="N27" s="150">
+      <c r="N27" s="138">
         <v>28.900838775001251</v>
       </c>
-      <c r="O27" s="150">
+      <c r="O27" s="138">
         <v>27.764531502259562</v>
       </c>
-      <c r="P27" s="150">
+      <c r="P27" s="138">
         <v>26.069865020415516</v>
       </c>
-      <c r="Q27" s="150">
+      <c r="Q27" s="138">
         <v>23.298874685920875</v>
       </c>
-      <c r="R27" s="151">
+      <c r="R27" s="139">
         <v>25.593991824258421</v>
       </c>
     </row>
@@ -29519,24 +27978,24 @@
         <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>353</v>
-      </c>
-      <c r="M28" s="152">
+        <v>291</v>
+      </c>
+      <c r="M28" s="140">
         <v>53.773326745661571</v>
       </c>
-      <c r="N28" s="153">
+      <c r="N28" s="141">
         <v>54.730820053258078</v>
       </c>
-      <c r="O28" s="153">
+      <c r="O28" s="141">
         <v>56.56329284494619</v>
       </c>
-      <c r="P28" s="153">
+      <c r="P28" s="141">
         <v>60.611986255302718</v>
       </c>
-      <c r="Q28" s="153">
+      <c r="Q28" s="141">
         <v>56.456056087211643</v>
       </c>
-      <c r="R28" s="154">
+      <c r="R28" s="142">
         <v>56.482706987552447</v>
       </c>
     </row>
@@ -29567,24 +28026,24 @@
         <v>2018</v>
       </c>
       <c r="L29" t="s">
-        <v>322</v>
-      </c>
-      <c r="M29" s="152">
+        <v>260</v>
+      </c>
+      <c r="M29" s="140">
         <v>24.945724141449759</v>
       </c>
-      <c r="N29" s="153">
+      <c r="N29" s="141">
         <v>23.528973248676671</v>
       </c>
-      <c r="O29" s="153">
+      <c r="O29" s="141">
         <v>24.784224713806495</v>
       </c>
-      <c r="P29" s="153">
+      <c r="P29" s="141">
         <v>26.909550391090036</v>
       </c>
-      <c r="Q29" s="153">
+      <c r="Q29" s="141">
         <v>28.840759977723749</v>
       </c>
-      <c r="R29" s="154">
+      <c r="R29" s="142">
         <v>26.350827257964447</v>
       </c>
     </row>
@@ -29617,24 +28076,24 @@
         <v>9498</v>
       </c>
       <c r="L30" t="s">
-        <v>354</v>
-      </c>
-      <c r="M30" s="156">
+        <v>292</v>
+      </c>
+      <c r="M30" s="144">
         <v>26.387698014486968</v>
       </c>
-      <c r="N30" s="157">
+      <c r="N30" s="145">
         <v>25.694948460400973</v>
       </c>
-      <c r="O30" s="157">
+      <c r="O30" s="145">
         <v>26.875695418435633</v>
       </c>
-      <c r="P30" s="157">
+      <c r="P30" s="145">
         <v>25.427809391630202</v>
       </c>
-      <c r="Q30" s="157">
+      <c r="Q30" s="145">
         <v>22.72306813677918</v>
       </c>
-      <c r="R30" s="158">
+      <c r="R30" s="146">
         <v>25.832172296906762</v>
       </c>
     </row>
@@ -29888,14 +28347,14 @@
         <f t="shared" si="19"/>
         <v>0.56014873477856697</v>
       </c>
-      <c r="M37" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
+      <c r="M37" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="7" t="s">
@@ -29925,22 +28384,22 @@
       <c r="I38" s="13">
         <v>116617</v>
       </c>
-      <c r="N38" s="155">
+      <c r="N38" s="143">
         <v>2005</v>
       </c>
-      <c r="O38" s="155">
+      <c r="O38" s="143">
         <v>2006</v>
       </c>
-      <c r="P38" s="155">
+      <c r="P38" s="143">
         <v>2007</v>
       </c>
-      <c r="Q38" s="155">
+      <c r="Q38" s="143">
         <v>2008</v>
       </c>
-      <c r="R38" s="155">
+      <c r="R38" s="143">
         <v>2009</v>
       </c>
-      <c r="S38" s="155">
+      <c r="S38" s="143">
         <v>2010</v>
       </c>
     </row>
@@ -29981,50 +28440,50 @@
         <v>81.446101340284869</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
-      </c>
-      <c r="M39" s="159" t="s">
-        <v>358</v>
-      </c>
-      <c r="N39" s="164">
+        <v>293</v>
+      </c>
+      <c r="M39" s="147" t="s">
+        <v>296</v>
+      </c>
+      <c r="N39" s="152">
         <v>54.619664282700491</v>
       </c>
-      <c r="O39" s="165">
+      <c r="O39" s="153">
         <v>55.330971927394046</v>
       </c>
-      <c r="P39" s="165">
+      <c r="P39" s="153">
         <v>54.501235583878191</v>
       </c>
-      <c r="Q39" s="165">
+      <c r="Q39" s="153">
         <v>55.08024306549833</v>
       </c>
-      <c r="R39" s="165">
+      <c r="R39" s="153">
         <v>56.358046853900667</v>
       </c>
-      <c r="S39" s="166">
+      <c r="S39" s="154">
         <v>60.184145743803249</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="M40" s="160" t="s">
-        <v>359</v>
-      </c>
-      <c r="N40" s="167">
+      <c r="M40" s="148" t="s">
+        <v>297</v>
+      </c>
+      <c r="N40" s="155">
         <v>43.731263951503095</v>
       </c>
-      <c r="O40" s="168">
+      <c r="O40" s="156">
         <v>43.750782861386078</v>
       </c>
-      <c r="P40" s="168">
+      <c r="P40" s="156">
         <v>43.372456973643487</v>
       </c>
-      <c r="Q40" s="168">
+      <c r="Q40" s="156">
         <v>42.334101055822316</v>
       </c>
-      <c r="R40" s="168">
+      <c r="R40" s="156">
         <v>39.927569685344871</v>
       </c>
-      <c r="S40" s="169">
+      <c r="S40" s="157">
         <v>40.828797432551468</v>
       </c>
     </row>
@@ -30032,25 +28491,25 @@
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="161" t="s">
-        <v>360</v>
-      </c>
-      <c r="N41" s="170">
+      <c r="M41" s="149" t="s">
+        <v>298</v>
+      </c>
+      <c r="N41" s="158">
         <v>43.944619288242457</v>
       </c>
-      <c r="O41" s="171">
+      <c r="O41" s="159">
         <v>43.896460093077017</v>
       </c>
-      <c r="P41" s="171">
+      <c r="P41" s="159">
         <v>44.19755542249731</v>
       </c>
-      <c r="Q41" s="171">
+      <c r="Q41" s="159">
         <v>43.944254254949527</v>
       </c>
-      <c r="R41" s="171">
+      <c r="R41" s="159">
         <v>40.740815460558473</v>
       </c>
-      <c r="S41" s="172">
+      <c r="S41" s="160">
         <v>42.367339153617671</v>
       </c>
     </row>
@@ -30080,25 +28539,25 @@
       <c r="I42" s="6">
         <v>2018</v>
       </c>
-      <c r="M42" s="162" t="s">
-        <v>361</v>
-      </c>
-      <c r="N42" s="173">
+      <c r="M42" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="N42" s="161">
         <v>37.30528934687181</v>
       </c>
-      <c r="O42" s="174">
+      <c r="O42" s="162">
         <v>36.438883369750471</v>
       </c>
-      <c r="P42" s="174">
+      <c r="P42" s="162">
         <v>36.567336311283718</v>
       </c>
-      <c r="Q42" s="174">
+      <c r="Q42" s="162">
         <v>36.659668267257821</v>
       </c>
-      <c r="R42" s="174">
+      <c r="R42" s="162">
         <v>35.697687286681401</v>
       </c>
-      <c r="S42" s="175">
+      <c r="S42" s="163">
         <v>38.146989757862862</v>
       </c>
     </row>
@@ -30122,25 +28581,25 @@
       <c r="I43" s="17">
         <v>37290</v>
       </c>
-      <c r="M43" s="163" t="s">
-        <v>362</v>
-      </c>
-      <c r="N43" s="177">
+      <c r="M43" s="151" t="s">
+        <v>300</v>
+      </c>
+      <c r="N43" s="165">
         <v>36.845825943007043</v>
       </c>
-      <c r="O43" s="178">
+      <c r="O43" s="166">
         <v>37.177641750751349</v>
       </c>
-      <c r="P43" s="178">
+      <c r="P43" s="166">
         <v>36.787636105996626</v>
       </c>
-      <c r="Q43" s="178">
+      <c r="Q43" s="166">
         <v>36.538204811064745</v>
       </c>
-      <c r="R43" s="178">
+      <c r="R43" s="166">
         <v>35.501636953482972</v>
       </c>
-      <c r="S43" s="179">
+      <c r="S43" s="167">
         <v>35.84722172330838</v>
       </c>
     </row>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="H2 tank mass" sheetId="14" r:id="rId12"/>
     <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1498,7 +1498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1584,7 +1583,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1806,7 +1804,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1924,7 +1921,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2099,7 +2095,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2387,7 +2382,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5031,7 +5025,6 @@
         <c:idx val="21"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6222,6 +6215,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6308,6 +6302,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6493,6 +6488,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6615,6 +6611,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6790,6 +6787,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7005,6 +7003,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7127,6 +7126,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7282,7 +7282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7368,7 +7367,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7506,7 +7504,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7624,7 +7621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8367,7 +8363,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8485,7 +8480,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8566,7 +8560,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8658,7 +8651,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9062,7 +9054,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9283,7 +9274,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9401,7 +9391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9562,7 +9551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9765,7 +9753,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9883,7 +9870,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10523,7 +10509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10697,7 +10682,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10815,7 +10799,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10971,7 +10954,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11046,7 +11028,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -11196,7 +11177,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11314,7 +11294,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20317,16 +20296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20914,7 +20893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -22078,14 +22057,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -22123,8 +22103,8 @@
         <v>87.75</v>
       </c>
       <c r="D2" s="8">
-        <f>C2*55.5/3.6</f>
-        <v>1352.8125</v>
+        <f>C2*50/3.6</f>
+        <v>1218.75</v>
       </c>
       <c r="E2" s="8">
         <f>520*0.45</f>
@@ -22146,8 +22126,8 @@
         <v>99.45</v>
       </c>
       <c r="D3" s="8">
-        <f>C3*55.5/3.6</f>
-        <v>1533.1875</v>
+        <f t="shared" ref="D3:D13" si="0">C3*50/3.6</f>
+        <v>1381.25</v>
       </c>
       <c r="E3" s="8">
         <f>572*0.45</f>
@@ -22169,8 +22149,8 @@
         <v>217.2</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D13" si="0">C4*55.5/3.6</f>
-        <v>3348.4999999999995</v>
+        <f t="shared" si="0"/>
+        <v>3016.6666666666665</v>
       </c>
       <c r="E4" s="8">
         <f>(2150*0.45)-C4</f>
@@ -22193,7 +22173,7 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>2678.8</v>
+        <v>2413.3333333333335</v>
       </c>
       <c r="E5" s="8">
         <f>(1650*0.45)-C5</f>
@@ -22216,7 +22196,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>700.68750000000011</v>
+        <v>631.25</v>
       </c>
       <c r="E6" s="8">
         <f>135*0.45</f>
@@ -22239,7 +22219,7 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>888</v>
+        <v>800</v>
       </c>
       <c r="E7" s="8">
         <f>163*0.45</f>
@@ -22262,7 +22242,7 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>957.375</v>
+        <v>862.5</v>
       </c>
       <c r="E8" s="8">
         <f>174*0.45</f>
@@ -22285,7 +22265,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>589.6875</v>
+        <v>531.25</v>
       </c>
       <c r="E9" s="8">
         <f>122*0.45</f>
@@ -22308,7 +22288,7 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>998.99999999999989</v>
+        <v>900</v>
       </c>
       <c r="E10" s="8">
         <f>167*0.45</f>
@@ -22331,7 +22311,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>1352.8125</v>
+        <v>1218.75</v>
       </c>
       <c r="E11" s="8">
         <f>220*0.45</f>
@@ -22354,7 +22334,7 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>1540.1250000000002</v>
+        <v>1387.5</v>
       </c>
       <c r="E12" s="8">
         <f>253*0.45</f>
@@ -22377,7 +22357,7 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>2011.875</v>
+        <v>1812.5</v>
       </c>
       <c r="E13" s="8">
         <f>363*0.45</f>
@@ -22385,6 +22365,24 @@
       </c>
       <c r="F13" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18">
+        <f>(0.018*POWER(57.6,2))-(0.6011*57.6)+52.235</f>
+        <v>77.331320000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20">
+        <f>57.6^2</f>
+        <v>3317.76</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21">
+        <f>0.018*K20</f>
+        <v>59.719679999999997</v>
       </c>
     </row>
   </sheetData>
@@ -22400,7 +22398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="315">
   <si>
     <t>kW</t>
   </si>
@@ -977,6 +977,33 @@
   </si>
   <si>
     <t>semi-trailer, 2+3 axles, curtain-sider</t>
+  </si>
+  <si>
+    <t>Futuricum</t>
+  </si>
+  <si>
+    <t>https://www.futuricum.com/wp-content/uploads/Futuricum_Factsheet_FM_Logistics_18E_4x2R_de_web-1.pdf</t>
+  </si>
+  <si>
+    <t>Logistics 18E - 340</t>
+  </si>
+  <si>
+    <t>Logistics 18E - 450</t>
+  </si>
+  <si>
+    <t>Logistics 18E - 510</t>
+  </si>
+  <si>
+    <t>Logistics 18E - 680</t>
+  </si>
+  <si>
+    <t>Logistics 18E - 900</t>
+  </si>
+  <si>
+    <t>FH Semi 40E - 680</t>
+  </si>
+  <si>
+    <t>https://www.futuricum.com/wp-content/uploads/Factsheet_Futuricum_FH_SEMI_40E_6x2T_de_web-1.pdf</t>
   </si>
 </sst>
 </file>
@@ -6215,7 +6242,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6302,7 +6328,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6488,7 +6513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6611,7 +6635,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6787,7 +6810,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7003,7 +7025,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7126,7 +7147,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9054,6 +9074,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9274,6 +9295,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9391,6 +9413,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9551,6 +9574,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9676,14 +9700,8 @@
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9753,6 +9771,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9870,6 +9889,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10030,6 +10050,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10155,14 +10176,8 @@
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10232,6 +10247,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10349,6 +10365,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22398,7 +22415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -23351,17 +23368,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
@@ -23441,7 +23458,7 @@
         <v>111</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C14" si="1">A3&amp;" - "&amp;B3</f>
+        <f t="shared" ref="C3:C15" si="1">A3&amp;" - "&amp;B3</f>
         <v>Freightliner - eM2</v>
       </c>
       <c r="D3">
@@ -23800,7 +23817,7 @@
         <v>200</v>
       </c>
       <c r="I14" s="44">
-        <f>G14/H14</f>
+        <f t="shared" ref="I14:I21" si="2">G14/H14</f>
         <v>1.2</v>
       </c>
       <c r="J14" s="21" t="s">
@@ -23808,16 +23825,245 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="I15" s="46"/>
+      <c r="A15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Futuricum - Logistics 18E - 340</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15">
+        <v>289</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15" s="46">
+        <f t="shared" si="2"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="I16" s="46"/>
+      <c r="A16" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="164" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="164" t="str">
+        <f t="shared" ref="C16" si="3">A16&amp;" - "&amp;B16</f>
+        <v>Futuricum - Logistics 18E - 450</v>
+      </c>
+      <c r="D16" s="164">
+        <v>19</v>
+      </c>
+      <c r="E16" s="164">
+        <v>10.6</v>
+      </c>
+      <c r="F16" s="164">
+        <v>500</v>
+      </c>
+      <c r="G16" s="164">
+        <v>383</v>
+      </c>
+      <c r="H16" s="164">
+        <v>250</v>
+      </c>
+      <c r="I16" s="46">
+        <f t="shared" si="2"/>
+        <v>1.532</v>
+      </c>
+      <c r="J16" s="164" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="46"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="164" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="164" t="str">
+        <f t="shared" ref="C17" si="4">A17&amp;" - "&amp;B17</f>
+        <v>Futuricum - Logistics 18E - 510</v>
+      </c>
+      <c r="D17" s="164">
+        <v>19</v>
+      </c>
+      <c r="E17" s="164">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F17" s="164">
+        <v>500</v>
+      </c>
+      <c r="G17" s="164">
+        <v>434</v>
+      </c>
+      <c r="H17" s="164">
+        <v>300</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="2"/>
+        <v>1.4466666666666668</v>
+      </c>
+      <c r="J17" s="164" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="46"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="164" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="164" t="str">
+        <f t="shared" ref="C18" si="5">A18&amp;" - "&amp;B18</f>
+        <v>Futuricum - Logistics 18E - 680</v>
+      </c>
+      <c r="D18" s="164">
+        <v>19</v>
+      </c>
+      <c r="E18" s="164">
+        <v>6.4</v>
+      </c>
+      <c r="F18" s="164">
+        <v>500</v>
+      </c>
+      <c r="G18" s="164">
+        <v>578</v>
+      </c>
+      <c r="H18" s="164">
+        <v>400</v>
+      </c>
+      <c r="I18" s="46">
+        <f t="shared" si="2"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="J18" s="164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="164" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="164" t="str">
+        <f t="shared" ref="C19:C20" si="6">A19&amp;" - "&amp;B19</f>
+        <v>Futuricum - Logistics 18E - 900</v>
+      </c>
+      <c r="D19" s="164">
+        <v>19</v>
+      </c>
+      <c r="E19" s="164">
+        <v>5.6</v>
+      </c>
+      <c r="F19" s="164">
+        <v>500</v>
+      </c>
+      <c r="G19" s="164">
+        <v>765</v>
+      </c>
+      <c r="H19" s="164">
+        <v>500</v>
+      </c>
+      <c r="I19" s="46">
+        <f t="shared" si="2"/>
+        <v>1.53</v>
+      </c>
+      <c r="J19" s="164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="6"/>
+        <v>Futuricum - FH Semi 40E - 680</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>578</v>
+      </c>
+      <c r="H20">
+        <v>400</v>
+      </c>
+      <c r="I20" s="46">
+        <f t="shared" si="2"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="164" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="164" t="str">
+        <f t="shared" ref="C21" si="7">A21&amp;" - "&amp;B21</f>
+        <v>Futuricum - FH Semi 40E - 680</v>
+      </c>
+      <c r="D21" s="164">
+        <v>44</v>
+      </c>
+      <c r="E21" s="164">
+        <v>31.2</v>
+      </c>
+      <c r="F21" s="164">
+        <v>500</v>
+      </c>
+      <c r="G21" s="164">
+        <v>765</v>
+      </c>
+      <c r="H21" s="164">
+        <v>500</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" si="2"/>
+        <v>1.53</v>
+      </c>
+      <c r="J21" s="164" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="164"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25705,8 +25951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26083,9 +26329,6 @@
         <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K10">
-        <v>400</v>
-      </c>
       <c r="M10" s="44"/>
       <c r="N10" s="21" t="s">
         <v>171</v>
@@ -26159,9 +26402,6 @@
       <c r="J12" s="24">
         <f t="shared" si="2"/>
         <v>0.5490196078431373</v>
-      </c>
-      <c r="K12">
-        <v>440</v>
       </c>
       <c r="M12" s="44"/>
       <c r="N12" s="21" t="s">
@@ -26217,7 +26457,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="12540" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25830" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="309">
   <si>
     <t>kW</t>
   </si>
@@ -234,24 +234,6 @@
   </si>
   <si>
     <t>Toyota Prius</t>
-  </si>
-  <si>
-    <t>Tractor</t>
-  </si>
-  <si>
-    <t>of which, Frame</t>
-  </si>
-  <si>
-    <t>of which, Suspension</t>
-  </si>
-  <si>
-    <t>of which, Wheels and tires</t>
-  </si>
-  <si>
-    <t>of which, Brakes</t>
-  </si>
-  <si>
-    <t>of which, Others</t>
   </si>
   <si>
     <t xml:space="preserve">E.G., MAN TGX </t>
@@ -1018,7 +1000,7 @@
     <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,14 +1044,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1285,7 +1259,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1315,12 +1289,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1333,7 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1360,106 +1329,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5863,6 +5832,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5901,6 +5871,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rigid trucks</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -5937,6 +5910,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5969,10 +5943,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$6:$M$6</c:f>
+              <c:f>'weight composition'!$F$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3500</c:v>
                 </c:pt>
@@ -5987,25 +5961,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'weight composition'!$F$32:$M$32</c:f>
+              <c:f>'weight composition'!$F$26:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>82.541666666666671</c:v>
                 </c:pt>
@@ -6020,15 +5985,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>613.16666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>446.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6037,6 +5993,122 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E8A2-464F-A745-80475C1D54F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Articulated trucks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'weight composition'!$K$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'weight composition'!$K$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>446.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E42-4224-AF88-8E84CF42DD7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6183,6 +6255,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10526,6 +10630,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10699,6 +10804,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10816,6 +10922,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20273,14 +20380,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>454024</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>122237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20647,7 +20754,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -20908,19 +21015,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="164" customWidth="1"/>
-    <col min="12" max="13" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="161" customWidth="1"/>
+    <col min="12" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -20938,62 +21045,62 @@
     </row>
     <row r="4" spans="1:13">
       <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="161" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="38.25">
+      <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="164" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="41.4">
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="D6" s="43" t="s">
-        <v>91</v>
+      <c r="D6" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
@@ -21013,7 +21120,7 @@
       <c r="J6">
         <v>26000</v>
       </c>
-      <c r="K6" s="164">
+      <c r="K6" s="161">
         <v>32000</v>
       </c>
       <c r="L6" s="22">
@@ -21386,33 +21493,33 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="H17" s="23">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>922.4</v>
       </c>
       <c r="L17" s="23">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1729.5</v>
       </c>
     </row>
     <row r="18" spans="4:13">
@@ -21421,32 +21528,33 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>583.33333333333337</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>1250</v>
       </c>
       <c r="H18" s="23">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="J18" s="8">
-        <v>1000</v>
+        <f>H18*$J$6/$H$6</f>
+        <v>4333.333333333333</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="4"/>
-        <v>922.4</v>
+        <v>1680</v>
       </c>
       <c r="L18" s="23">
-        <v>1153</v>
+        <v>2100</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="5"/>
-        <v>1729.5</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="19" spans="4:13">
@@ -21455,68 +21563,70 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>659.16666666666663</v>
+        <v>119.29166666666667</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="1"/>
-        <v>1412.5</v>
+        <v>255.625</v>
       </c>
       <c r="H19" s="23">
-        <v>2260</v>
+        <v>409</v>
       </c>
       <c r="I19" s="8">
-        <v>2300</v>
+        <f>H19*$I$6/$H$6</f>
+        <v>613.5</v>
       </c>
       <c r="J19" s="8">
-        <v>2500</v>
+        <f>H19*$J$6/$H$6</f>
+        <v>886.16666666666663</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" si="4"/>
-        <v>2160</v>
+        <v>847.2</v>
       </c>
       <c r="L19" s="23">
-        <v>2700</v>
+        <v>1059</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="5"/>
-        <v>4050</v>
+        <v>1588.5</v>
       </c>
     </row>
     <row r="20" spans="4:13">
       <c r="D20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:M20" si="6">SUM(F7:F19)</f>
-        <v>1808.3333333333335</v>
+        <v>1851.7916666666667</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>3875</v>
+        <v>3968.125</v>
       </c>
       <c r="H20" s="23">
         <f t="shared" si="6"/>
-        <v>6200</v>
+        <v>6349</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="6"/>
-        <v>8210</v>
+        <v>9523.5</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="6"/>
-        <v>10090.5</v>
+        <v>13109.999999999998</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ref="K20" si="7">SUM(K7:K19)</f>
-        <v>11632.8</v>
+        <v>12000</v>
       </c>
       <c r="L20" s="23">
         <f t="shared" si="6"/>
-        <v>14541</v>
+        <v>15000</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="6"/>
-        <v>21811.5</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="21" spans="4:13">
@@ -21525,542 +21635,323 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:M21" si="8">F6-F20</f>
-        <v>1691.6666666666665</v>
+        <v>1648.2083333333333</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="8"/>
-        <v>3625</v>
+        <v>3531.875</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="8"/>
-        <v>5800</v>
+        <v>5651</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="8"/>
-        <v>9790</v>
+        <v>8476.5</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" si="8"/>
-        <v>15909.5</v>
+        <v>12890.000000000002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ref="K21" si="9">K6-K20</f>
-        <v>20367.2</v>
+        <v>20000</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" si="8"/>
-        <v>25459</v>
+        <v>25000</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="8"/>
-        <v>38188.5</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="22" spans="4:13">
       <c r="D22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F22" s="8">
-        <f>F20-F29</f>
-        <v>495.83333333333348</v>
+        <f>F18</f>
+        <v>583.33333333333337</v>
       </c>
       <c r="G22" s="8">
-        <f>G20-G29</f>
-        <v>1062.5</v>
+        <f>G18</f>
+        <v>1250</v>
       </c>
       <c r="H22" s="8">
-        <f>H20-H29</f>
-        <v>1700</v>
+        <f>H18</f>
+        <v>2000</v>
       </c>
       <c r="I22" s="8">
-        <f>I20-I29</f>
-        <v>3210</v>
+        <f>I18</f>
+        <v>3000</v>
       </c>
       <c r="J22" s="8">
-        <f>J20-J29</f>
-        <v>4090.5</v>
-      </c>
-      <c r="K22" s="27">
-        <f>K20-7050</f>
-        <v>4582.7999999999993</v>
-      </c>
-      <c r="L22" s="23">
-        <f>L20-7050</f>
-        <v>7491</v>
-      </c>
-      <c r="M22" s="27">
-        <f>M20-7050</f>
-        <v>14761.5</v>
+        <f>J18</f>
+        <v>4333.333333333333</v>
+      </c>
+      <c r="K22" s="8">
+        <f>K18</f>
+        <v>1680</v>
+      </c>
+      <c r="L22" s="8">
+        <f>L18</f>
+        <v>2100</v>
+      </c>
+      <c r="M22" s="8">
+        <f>M18</f>
+        <v>3150</v>
       </c>
     </row>
     <row r="23" spans="4:13">
       <c r="D23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" ref="F23:L23" si="10">F22/F20</f>
-        <v>0.27419354838709681</v>
+        <v>0.31501023783272958</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="10"/>
-        <v>0.27419354838709675</v>
+        <v>0.31501023783272958</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" si="10"/>
-        <v>0.27419354838709675</v>
+        <v>0.31501023783272958</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="10"/>
-        <v>0.39098660170523752</v>
+        <v>0.31501023783272958</v>
       </c>
       <c r="J23" s="26">
         <f t="shared" si="10"/>
-        <v>0.40538129924186117</v>
+        <v>0.33053648614289349</v>
       </c>
       <c r="K23" s="26">
         <f>K22/K20</f>
-        <v>0.39395502372601604</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="10"/>
-        <v>0.51516401898081288</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M23" s="26">
         <f>M22/M20</f>
-        <v>0.67677601265387521</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13">
-      <c r="D24" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="29">
-        <f t="shared" ref="F24:H28" si="11">$L24*F$22/$L$22</f>
-        <v>171.10254527655414</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="11"/>
-        <v>366.64831130690163</v>
-      </c>
-      <c r="H24" s="29">
-        <f t="shared" si="11"/>
-        <v>586.63729809104257</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" ref="I24:J28" si="12">$L24*I$22/$L$22</f>
-        <v>1107.7092511013216</v>
-      </c>
-      <c r="J24" s="29">
-        <f t="shared" si="12"/>
-        <v>1411.5528634361233</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" ref="K24:K28" si="13">L24*$K$6/$L$6</f>
-        <v>2068</v>
-      </c>
-      <c r="L24" s="29">
-        <f>L13-854</f>
-        <v>2585</v>
-      </c>
-      <c r="M24" s="29">
-        <f>L24*$M$22/$L$22</f>
-        <v>5093.9096916299559</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="25" spans="4:13">
-      <c r="D25" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="29">
-        <f t="shared" si="11"/>
-        <v>69.89720998531574</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="11"/>
-        <v>149.77973568281939</v>
-      </c>
-      <c r="H25" s="29">
-        <f t="shared" si="11"/>
-        <v>239.647577092511</v>
-      </c>
-      <c r="I25" s="29">
-        <f t="shared" si="12"/>
-        <v>452.51101321585901</v>
-      </c>
-      <c r="J25" s="29">
-        <f t="shared" si="12"/>
-        <v>576.63436123348015</v>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="8">
+        <f>SUM(F12:F19)</f>
+        <v>1549.9166666666667</v>
+      </c>
+      <c r="G25" s="8">
+        <f>SUM(G12:G19)</f>
+        <v>3321.25</v>
+      </c>
+      <c r="H25" s="8">
+        <f>SUM(H12:H18)</f>
+        <v>4905</v>
+      </c>
+      <c r="I25" s="8">
+        <f>SUM(I12:I19)</f>
+        <v>7971</v>
+      </c>
+      <c r="J25" s="8">
+        <f>SUM(J12:J19)</f>
+        <v>10867.499999999998</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="13"/>
-        <v>844.8</v>
-      </c>
-      <c r="L25" s="29">
-        <f>L14-1600</f>
-        <v>1056</v>
-      </c>
-      <c r="M25" s="29">
-        <f>L25*$M$22/$L$22</f>
-        <v>2080.9162995594716</v>
+        <f>SUM(K12:K19)</f>
+        <v>10302.4</v>
+      </c>
+      <c r="L25" s="8">
+        <f>SUM(L12:L19)</f>
+        <v>12878</v>
+      </c>
+      <c r="M25" s="8">
+        <f>SUM(M12:M19)</f>
+        <v>19317</v>
       </c>
     </row>
     <row r="26" spans="4:13">
-      <c r="D26" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F11)</f>
+        <v>82.541666666666671</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26:M26" si="11">SUM(G11)</f>
+        <v>176.875</v>
+      </c>
+      <c r="H26" s="8">
         <f t="shared" si="11"/>
-        <v>50.503381835980967</v>
-      </c>
-      <c r="G26" s="29">
+        <v>283</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" si="11"/>
-        <v>108.22153250567348</v>
-      </c>
-      <c r="H26" s="29">
+        <v>424.5</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="11"/>
-        <v>173.15445200907757</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="12"/>
-        <v>326.95634761714058</v>
-      </c>
-      <c r="J26" s="29">
-        <f t="shared" si="12"/>
-        <v>416.64016820184219</v>
+        <v>613.16666666666663</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="13"/>
-        <v>610.4</v>
-      </c>
-      <c r="L26" s="29">
-        <f>L16-659</f>
-        <v>763</v>
-      </c>
-      <c r="M26" s="29">
-        <f>L26*$M$22/$L$22</f>
-        <v>1503.5408490188227</v>
+        <f t="shared" ref="K26" si="12">SUM(K11)</f>
+        <v>446.4</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="11"/>
+        <v>558</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="11"/>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="4:13">
-      <c r="D27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="29">
-        <f t="shared" si="11"/>
-        <v>26.733603832840483</v>
-      </c>
-      <c r="G27" s="29">
-        <f t="shared" si="11"/>
-        <v>57.286293927515295</v>
-      </c>
-      <c r="H27" s="29">
-        <f t="shared" si="11"/>
-        <v>91.658070284024475</v>
-      </c>
-      <c r="I27" s="29">
-        <f t="shared" si="12"/>
-        <v>173.07200330101091</v>
-      </c>
-      <c r="J27" s="29">
-        <f t="shared" si="12"/>
-        <v>220.54549205694244</v>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="8">
+        <f>F7</f>
+        <v>151.08333333333334</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" ref="G27:M27" si="13">G7</f>
+        <v>323.75</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="13"/>
+        <v>518</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="13"/>
+        <v>777</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="13"/>
+        <v>1122.3333333333333</v>
       </c>
       <c r="K27" s="8">
+        <f t="shared" ref="K27" si="14">K7</f>
+        <v>899.2</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="13"/>
-        <v>323.11087270476582</v>
-      </c>
-      <c r="L27" s="29">
-        <f>L15*L23</f>
-        <v>403.88859088095728</v>
-      </c>
-      <c r="M27" s="29">
-        <f>L27*$M$22/$L$22</f>
-        <v>795.88859088095717</v>
+        <v>1124</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="13"/>
+        <v>1686</v>
       </c>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="29">
-        <f t="shared" si="11"/>
-        <v>178.71445734881866</v>
-      </c>
-      <c r="G28" s="29">
-        <f t="shared" si="11"/>
-        <v>382.95955146175413</v>
-      </c>
-      <c r="H28" s="29">
-        <f t="shared" si="11"/>
-        <v>612.73528233880654</v>
-      </c>
-      <c r="I28" s="29">
-        <f t="shared" si="12"/>
-        <v>1156.988386063276</v>
-      </c>
-      <c r="J28" s="29">
-        <f t="shared" si="12"/>
-        <v>1474.3492190628754</v>
-      </c>
-      <c r="K28" s="8">
-        <f t="shared" si="13"/>
-        <v>2160</v>
-      </c>
-      <c r="L28" s="29">
-        <f>L19</f>
-        <v>2700</v>
-      </c>
-      <c r="M28" s="29">
-        <f>L28*$M$22/$L$22</f>
-        <v>5320.5246295554662</v>
-      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="4:13">
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="8">
-        <f>H29*$F$6/$H$6</f>
-        <v>1312.5</v>
-      </c>
-      <c r="G29" s="8">
-        <f>H29*$G$6/$H$6</f>
-        <v>2812.5</v>
-      </c>
-      <c r="H29" s="22">
-        <v>4500</v>
-      </c>
-      <c r="I29" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J29" s="8">
-        <v>6000</v>
-      </c>
-      <c r="K29" s="27">
-        <f>K20-K22</f>
-        <v>7050</v>
-      </c>
-      <c r="L29" s="23">
-        <f>L20-L22</f>
-        <v>7050</v>
-      </c>
-      <c r="M29" s="27">
-        <f>M20-M22</f>
-        <v>7050</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="M29" s="24"/>
     </row>
-    <row r="31" spans="4:13">
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="8">
-        <f>SUM(F12:F19)</f>
-        <v>1506.4583333333333</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" ref="G31:M31" si="14">SUM(G12:G19)</f>
-        <v>3228.125</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="14"/>
-        <v>5165</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="14"/>
-        <v>6657.5</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="14"/>
-        <v>7848</v>
-      </c>
-      <c r="K31" s="8">
-        <f t="shared" si="14"/>
-        <v>9935.1999999999989</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="14"/>
-        <v>12419</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="14"/>
-        <v>18628.5</v>
-      </c>
+    <row r="30" spans="4:13">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="M30" s="24"/>
     </row>
     <row r="32" spans="4:13">
       <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="8">
-        <f>SUM(F11)</f>
-        <v>82.541666666666671</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" ref="G32:M32" si="15">SUM(G11)</f>
-        <v>176.875</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="15"/>
-        <v>283</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="15"/>
-        <v>424.5</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="15"/>
-        <v>613.16666666666663</v>
-      </c>
-      <c r="K32" s="8">
-        <f t="shared" ref="K32" si="16">SUM(K11)</f>
-        <v>446.4</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="15"/>
-        <v>558</v>
-      </c>
-      <c r="M32" s="8">
-        <f t="shared" si="15"/>
-        <v>837</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="4:13">
       <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="8">
-        <f>F7</f>
-        <v>151.08333333333334</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" ref="G33:M33" si="17">G7</f>
-        <v>323.75</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="17"/>
-        <v>518</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="17"/>
-        <v>777</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="17"/>
-        <v>1122.3333333333333</v>
-      </c>
-      <c r="K33" s="8">
-        <f t="shared" ref="K33" si="18">K7</f>
-        <v>899.2</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="17"/>
-        <v>1124</v>
-      </c>
-      <c r="M33" s="8">
-        <f t="shared" si="17"/>
-        <v>1686</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="4:13">
       <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="4:13">
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24">
-        <v>0.16</v>
-      </c>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="4:13">
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="38" spans="4:13">
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25">
-        <v>1.9</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="M38" s="25"/>
-    </row>
-    <row r="39" spans="4:13">
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="4:13">
-      <c r="D40" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25">
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25">
         <v>34.5</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25">
         <v>39.9</v>
       </c>
-      <c r="M40" s="25"/>
+      <c r="M34" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -22080,40 +21971,40 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>189</v>
-      </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="8">
         <f>195*0.45</f>
@@ -22128,15 +22019,15 @@
         <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8">
         <f>221*0.45</f>
@@ -22151,15 +22042,15 @@
         <v>257.40000000000003</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C4" s="8">
         <f>75*2.896</f>
@@ -22174,15 +22065,15 @@
         <v>750.3</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C5" s="8">
         <f>60*2.896</f>
@@ -22197,15 +22088,15 @@
         <v>568.74</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C6">
         <f>101*0.45</f>
@@ -22220,15 +22111,15 @@
         <v>60.75</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <f>128*0.45</f>
@@ -22243,15 +22134,15 @@
         <v>73.350000000000009</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C8">
         <f>138*0.45</f>
@@ -22266,15 +22157,15 @@
         <v>78.3</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <f>85*0.45</f>
@@ -22289,15 +22180,15 @@
         <v>54.9</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <f>144*0.45</f>
@@ -22312,15 +22203,15 @@
         <v>75.150000000000006</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <f>195*0.45</f>
@@ -22335,15 +22226,15 @@
         <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C12">
         <f>222*0.45</f>
@@ -22358,15 +22249,15 @@
         <v>113.85000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C13">
         <f>290*0.45</f>
@@ -22381,7 +22272,7 @@
         <v>163.35</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="11:11">
@@ -22419,42 +22310,42 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2">
         <v>5.6</v>
@@ -22467,12 +22358,12 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -22485,12 +22376,12 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -22503,12 +22394,12 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -22521,12 +22412,12 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C6">
         <v>0.9</v>
@@ -22539,12 +22430,12 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -22557,12 +22448,12 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>2.2000000000000002</v>
@@ -22575,12 +22466,12 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C9">
         <v>2.9</v>
@@ -22593,12 +22484,12 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C10">
         <v>4.5999999999999996</v>
@@ -22611,12 +22502,12 @@
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C11">
         <v>4.5999999999999996</v>
@@ -22629,12 +22520,12 @@
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -22647,12 +22538,12 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C13">
         <v>3.7</v>
@@ -22665,12 +22556,12 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -22683,12 +22574,12 @@
         <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C15">
         <v>14.4</v>
@@ -22701,12 +22592,12 @@
         <v>178</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C16">
         <v>13.3</v>
@@ -22719,12 +22610,12 @@
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17">
         <v>18.100000000000001</v>
@@ -22737,12 +22628,12 @@
         <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C18">
         <v>20.9</v>
@@ -22755,7 +22646,7 @@
         <v>239</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -22772,166 +22663,166 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
-      <c r="A5" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>75</v>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="32">
+      <c r="A6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="29">
         <v>0.875</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <v>0.16119654977038472</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>1200.6405999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="33">
         <v>0.21481405812248527</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="34">
         <v>1600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="A8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="33">
         <v>0.18617397382330492</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>1386.68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="32">
+      <c r="A9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="29">
         <v>1</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="33">
         <v>8.8449688431933307E-2</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="34">
         <v>658.8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="32">
+      <c r="A10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <v>7.4064726837246908E-2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>551.65646036082637</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="32">
+      <c r="A11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="29">
         <v>1</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <v>3.3957408700606762E-2</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="31">
         <v>252.9250385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="32">
+      <c r="A12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="29">
         <v>1</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <v>1.100922047877737E-2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="31">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="35">
         <v>0.11465700352287651</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="34">
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="29">
         <v>1</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="35">
         <v>0.11567737031238422</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="34">
         <v>861.60000010000022</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38">
         <f>SUM(C6:C14)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="39">
         <f>SUM(D6:D14)</f>
         <v>7448.3020989608267</v>
       </c>
@@ -22949,7 +22840,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="5:24">
       <c r="F7" t="s">
@@ -23071,7 +22962,7 @@
     </row>
     <row r="9" spans="5:24">
       <c r="E9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -23150,7 +23041,7 @@
     </row>
     <row r="11" spans="5:24">
       <c r="E11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -23266,7 +23157,7 @@
     </row>
     <row r="23" spans="4:31">
       <c r="D23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I23">
         <v>1343</v>
@@ -23325,7 +23216,7 @@
     </row>
     <row r="24" spans="4:31">
       <c r="D24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24">
         <v>520</v>
@@ -23342,7 +23233,7 @@
     </row>
     <row r="25" spans="4:31">
       <c r="D25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA25">
         <v>51</v>
@@ -23371,60 +23262,60 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I21"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="45" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>107</v>
+      <c r="D1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
@@ -23442,20 +23333,20 @@
       <c r="H2">
         <v>400</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="41">
         <f t="shared" ref="I2:I12" si="0">G2/H2</f>
         <v>1.1875</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C15" si="1">A3&amp;" - "&amp;B3</f>
@@ -23473,20 +23364,20 @@
       <c r="H3">
         <v>370</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="41">
         <f t="shared" si="0"/>
         <v>0.85135135135135132</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
@@ -23507,17 +23398,17 @@
       <c r="H4">
         <v>120</v>
       </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
@@ -23538,20 +23429,20 @@
       <c r="H5">
         <v>281</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="41">
         <f t="shared" si="0"/>
         <v>1.0676156583629892</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
@@ -23566,20 +23457,20 @@
       <c r="H6">
         <v>160</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="41">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
@@ -23600,20 +23491,20 @@
       <c r="H7">
         <v>480</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="41">
         <f t="shared" si="0"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -23634,20 +23525,20 @@
       <c r="H8">
         <v>800</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="41">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
@@ -23665,20 +23556,20 @@
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="41">
         <f t="shared" si="0"/>
         <v>0.17199999999999999</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
@@ -23696,20 +23587,20 @@
       <c r="H10">
         <v>250</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="41">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
@@ -23727,20 +23618,20 @@
       <c r="H11">
         <v>200</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -23755,20 +23646,20 @@
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="41">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
         <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -23783,19 +23674,19 @@
       <c r="H13">
         <v>200</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="41">
         <v>1.6</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
@@ -23816,20 +23707,20 @@
       <c r="H14">
         <v>200</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="41">
         <f t="shared" ref="I14:I21" si="2">G14/H14</f>
         <v>1.2</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
@@ -23850,156 +23741,156 @@
       <c r="H15">
         <v>200</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="43">
         <f t="shared" si="2"/>
         <v>1.4450000000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="164" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="164" t="str">
+      <c r="A16" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="161" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="161" t="str">
         <f t="shared" ref="C16" si="3">A16&amp;" - "&amp;B16</f>
         <v>Futuricum - Logistics 18E - 450</v>
       </c>
-      <c r="D16" s="164">
+      <c r="D16" s="161">
         <v>19</v>
       </c>
-      <c r="E16" s="164">
+      <c r="E16" s="161">
         <v>10.6</v>
       </c>
-      <c r="F16" s="164">
+      <c r="F16" s="161">
         <v>500</v>
       </c>
-      <c r="G16" s="164">
+      <c r="G16" s="161">
         <v>383</v>
       </c>
-      <c r="H16" s="164">
+      <c r="H16" s="161">
         <v>250</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="43">
         <f t="shared" si="2"/>
         <v>1.532</v>
       </c>
-      <c r="J16" s="164" t="s">
-        <v>307</v>
+      <c r="J16" s="161" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="164" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="164" t="str">
+      <c r="A17" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="161" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="161" t="str">
         <f t="shared" ref="C17" si="4">A17&amp;" - "&amp;B17</f>
         <v>Futuricum - Logistics 18E - 510</v>
       </c>
-      <c r="D17" s="164">
+      <c r="D17" s="161">
         <v>19</v>
       </c>
-      <c r="E17" s="164">
+      <c r="E17" s="161">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F17" s="164">
+      <c r="F17" s="161">
         <v>500</v>
       </c>
-      <c r="G17" s="164">
+      <c r="G17" s="161">
         <v>434</v>
       </c>
-      <c r="H17" s="164">
+      <c r="H17" s="161">
         <v>300</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="43">
         <f t="shared" si="2"/>
         <v>1.4466666666666668</v>
       </c>
-      <c r="J17" s="164" t="s">
-        <v>307</v>
+      <c r="J17" s="161" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="164" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="164" t="str">
+      <c r="A18" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="161" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="161" t="str">
         <f t="shared" ref="C18" si="5">A18&amp;" - "&amp;B18</f>
         <v>Futuricum - Logistics 18E - 680</v>
       </c>
-      <c r="D18" s="164">
+      <c r="D18" s="161">
         <v>19</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="161">
         <v>6.4</v>
       </c>
-      <c r="F18" s="164">
+      <c r="F18" s="161">
         <v>500</v>
       </c>
-      <c r="G18" s="164">
+      <c r="G18" s="161">
         <v>578</v>
       </c>
-      <c r="H18" s="164">
+      <c r="H18" s="161">
         <v>400</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="43">
         <f t="shared" si="2"/>
         <v>1.4450000000000001</v>
       </c>
-      <c r="J18" s="164" t="s">
-        <v>307</v>
+      <c r="J18" s="161" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="161" t="s">
         <v>306</v>
       </c>
-      <c r="B19" s="164" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="164" t="str">
+      <c r="C19" s="161" t="str">
         <f t="shared" ref="C19:C20" si="6">A19&amp;" - "&amp;B19</f>
         <v>Futuricum - Logistics 18E - 900</v>
       </c>
-      <c r="D19" s="164">
+      <c r="D19" s="161">
         <v>19</v>
       </c>
-      <c r="E19" s="164">
+      <c r="E19" s="161">
         <v>5.6</v>
       </c>
-      <c r="F19" s="164">
+      <c r="F19" s="161">
         <v>500</v>
       </c>
-      <c r="G19" s="164">
+      <c r="G19" s="161">
         <v>765</v>
       </c>
-      <c r="H19" s="164">
+      <c r="H19" s="161">
         <v>500</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="43">
         <f t="shared" si="2"/>
         <v>1.53</v>
       </c>
-      <c r="J19" s="164" t="s">
-        <v>307</v>
+      <c r="J19" s="161" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="164" t="s">
-        <v>306</v>
+      <c r="A20" s="161" t="s">
+        <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="6"/>
@@ -24020,50 +23911,50 @@
       <c r="H20">
         <v>400</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="43">
         <f t="shared" si="2"/>
         <v>1.4450000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="164" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" s="164" t="str">
+      <c r="A21" s="161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="161" t="str">
         <f t="shared" ref="C21" si="7">A21&amp;" - "&amp;B21</f>
         <v>Futuricum - FH Semi 40E - 680</v>
       </c>
-      <c r="D21" s="164">
+      <c r="D21" s="161">
         <v>44</v>
       </c>
-      <c r="E21" s="164">
+      <c r="E21" s="161">
         <v>31.2</v>
       </c>
-      <c r="F21" s="164">
+      <c r="F21" s="161">
         <v>500</v>
       </c>
-      <c r="G21" s="164">
+      <c r="G21" s="161">
         <v>765</v>
       </c>
-      <c r="H21" s="164">
+      <c r="H21" s="161">
         <v>500</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="43">
         <f t="shared" si="2"/>
         <v>1.53</v>
       </c>
-      <c r="J21" s="164" t="s">
-        <v>314</v>
+      <c r="J21" s="161" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="164"/>
+      <c r="A22" s="161"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24094,75 +23985,75 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="164" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="161" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P3" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q3" s="164" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="Q3" s="161" t="s">
+        <v>297</v>
       </c>
       <c r="R3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="U3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="V3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>1600</v>
@@ -24172,16 +24063,16 @@
         <v>33480</v>
       </c>
       <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" t="s">
         <v>233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N4" t="s">
-        <v>239</v>
       </c>
       <c r="O4">
         <v>36000</v>
@@ -24190,24 +24081,24 @@
         <v>101000</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="U4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="V4">
         <v>0.05</v>
       </c>
       <c r="W4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5">
         <v>4250</v>
@@ -24216,36 +24107,36 @@
         <v>70000</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P5">
         <v>27500</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="U5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="V5">
         <v>0.04</v>
       </c>
       <c r="W5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>6400</v>
@@ -24254,13 +24145,13 @@
         <v>90000</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O6">
         <v>3500</v>
@@ -24273,24 +24164,24 @@
         <v>48698.479999999996</v>
       </c>
       <c r="R6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="U6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V6">
         <v>0.08</v>
       </c>
       <c r="W6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>9900</v>
@@ -24299,13 +24190,13 @@
         <v>105000</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O7">
         <v>7500</v>
@@ -24318,24 +24209,24 @@
         <v>62795.229999999996</v>
       </c>
       <c r="R7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="U7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="V7">
         <v>0.08</v>
       </c>
       <c r="W7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>13600</v>
@@ -24344,13 +24235,13 @@
         <v>115000</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O8">
         <v>18000</v>
@@ -24363,24 +24254,24 @@
         <v>89225.93</v>
       </c>
       <c r="R8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="U8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V8">
         <v>0.15</v>
       </c>
       <c r="W8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:48">
       <c r="N9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O9">
         <v>26000</v>
@@ -24393,24 +24284,24 @@
         <v>124467.23999999999</v>
       </c>
       <c r="R9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="V9">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="W9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="N10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O10">
         <v>40000</v>
@@ -24423,286 +24314,286 @@
         <v>117157.26999999999</v>
       </c>
       <c r="R10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="S10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:48">
       <c r="V12" t="s">
+        <v>255</v>
+      </c>
+      <c r="W12" t="s">
+        <v>246</v>
+      </c>
+      <c r="X12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK12" t="s">
         <v>261</v>
       </c>
-      <c r="W12" t="s">
-        <v>252</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="AL12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM12" t="s">
         <v>262</v>
       </c>
-      <c r="Y12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AR12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV12" t="s">
         <v>263</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:48">
       <c r="U13" t="s">
-        <v>260</v>
-      </c>
-      <c r="V13" s="47">
+        <v>254</v>
+      </c>
+      <c r="V13" s="44">
         <v>1</v>
       </c>
-      <c r="W13" s="47">
+      <c r="W13" s="44">
         <v>3500</v>
       </c>
-      <c r="X13" s="47">
+      <c r="X13" s="44">
         <v>2142</v>
       </c>
-      <c r="Y13" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z13" s="48">
+      <c r="Y13" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z13" s="45">
         <f>X13*1.13</f>
         <v>2420.4599999999996</v>
       </c>
-      <c r="AA13" s="47">
+      <c r="AA13" s="44">
         <v>18333</v>
       </c>
-      <c r="AB13" s="49">
+      <c r="AB13" s="46">
         <f>Z13/AA13</f>
         <v>0.13202749140893469</v>
       </c>
       <c r="AF13" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG13" s="47">
+        <v>254</v>
+      </c>
+      <c r="AG13" s="44">
         <v>1</v>
       </c>
-      <c r="AH13" s="47">
+      <c r="AH13" s="44">
         <v>3500</v>
       </c>
-      <c r="AI13" s="47">
+      <c r="AI13" s="44">
         <v>2673</v>
       </c>
-      <c r="AJ13" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK13" s="48">
+      <c r="AJ13" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK13" s="45">
         <f>AI13*1.13</f>
         <v>3020.49</v>
       </c>
-      <c r="AL13" s="47">
+      <c r="AL13" s="44">
         <v>18333</v>
       </c>
-      <c r="AM13" s="49">
+      <c r="AM13" s="46">
         <f>AK13/AL13</f>
         <v>0.16475699558173784</v>
       </c>
       <c r="AQ13" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR13" s="47">
+        <v>254</v>
+      </c>
+      <c r="AR13" s="44">
         <v>1</v>
       </c>
-      <c r="AS13" s="47">
+      <c r="AS13" s="44">
         <v>3500</v>
       </c>
-      <c r="AT13" s="47">
+      <c r="AT13" s="44">
         <v>4.8500000000000001E-3</v>
       </c>
-      <c r="AU13" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV13" s="62">
+      <c r="AU13" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV13" s="59">
         <f>AT13*1.13</f>
         <v>5.4804999999999993E-3</v>
       </c>
     </row>
     <row r="14" spans="1:48">
       <c r="U14" t="s">
-        <v>260</v>
-      </c>
-      <c r="V14" s="47">
+        <v>254</v>
+      </c>
+      <c r="V14" s="44">
         <v>5</v>
       </c>
-      <c r="W14" s="47">
+      <c r="W14" s="44">
         <v>3500</v>
       </c>
-      <c r="X14" s="47">
+      <c r="X14" s="44">
         <v>2784</v>
       </c>
-      <c r="Y14" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z14" s="48">
+      <c r="Y14" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z14" s="45">
         <f t="shared" ref="Z14:Z37" si="1">X14*1.13</f>
         <v>3145.9199999999996</v>
       </c>
-      <c r="AA14" s="47">
+      <c r="AA14" s="44">
         <v>18333</v>
       </c>
-      <c r="AB14" s="49">
+      <c r="AB14" s="46">
         <f t="shared" ref="AB14:AB37" si="2">Z14/AA14</f>
         <v>0.17159875634102437</v>
       </c>
       <c r="AF14" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG14" s="47">
+        <v>254</v>
+      </c>
+      <c r="AG14" s="44">
         <v>5</v>
       </c>
-      <c r="AH14" s="47">
+      <c r="AH14" s="44">
         <v>3500</v>
       </c>
-      <c r="AI14" s="47">
+      <c r="AI14" s="44">
         <v>2429</v>
       </c>
-      <c r="AJ14" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK14" s="48">
+      <c r="AJ14" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK14" s="45">
         <f t="shared" ref="AK14:AK37" si="3">AI14*1.13</f>
         <v>2744.7699999999995</v>
       </c>
-      <c r="AL14" s="47">
+      <c r="AL14" s="44">
         <v>18333</v>
       </c>
-      <c r="AM14" s="49">
+      <c r="AM14" s="46">
         <f t="shared" ref="AM14:AM37" si="4">AK14/AL14</f>
         <v>0.14971744940817103</v>
       </c>
       <c r="AQ14" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR14" s="50">
+        <v>254</v>
+      </c>
+      <c r="AR14" s="47">
         <v>1</v>
       </c>
-      <c r="AS14" s="50">
+      <c r="AS14" s="47">
         <v>7500</v>
       </c>
-      <c r="AT14" s="50">
+      <c r="AT14" s="47">
         <v>5.5599999999999998E-3</v>
       </c>
-      <c r="AU14" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV14" s="63">
+      <c r="AU14" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV14" s="60">
         <f t="shared" ref="AV14:AV17" si="5">AT14*1.13</f>
         <v>6.282799999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:48">
       <c r="U15" t="s">
-        <v>260</v>
-      </c>
-      <c r="V15" s="47">
+        <v>254</v>
+      </c>
+      <c r="V15" s="44">
         <v>10</v>
       </c>
-      <c r="W15" s="47">
+      <c r="W15" s="44">
         <v>3500</v>
       </c>
-      <c r="X15" s="47">
+      <c r="X15" s="44">
         <v>3122</v>
       </c>
-      <c r="Y15" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z15" s="48">
+      <c r="Y15" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z15" s="45">
         <f t="shared" si="1"/>
         <v>3527.8599999999997</v>
       </c>
-      <c r="AA15" s="47">
+      <c r="AA15" s="44">
         <v>18333</v>
       </c>
-      <c r="AB15" s="49">
+      <c r="AB15" s="46">
         <f t="shared" si="2"/>
         <v>0.19243222604047344</v>
       </c>
       <c r="AF15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG15" s="47">
+        <v>254</v>
+      </c>
+      <c r="AG15" s="44">
         <v>10</v>
       </c>
-      <c r="AH15" s="47">
+      <c r="AH15" s="44">
         <v>3500</v>
       </c>
-      <c r="AI15" s="47">
+      <c r="AI15" s="44">
         <v>2154</v>
       </c>
-      <c r="AJ15" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK15" s="48">
+      <c r="AJ15" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK15" s="45">
         <f t="shared" si="3"/>
         <v>2434.02</v>
       </c>
-      <c r="AL15" s="47">
+      <c r="AL15" s="44">
         <v>18333</v>
       </c>
-      <c r="AM15" s="49">
+      <c r="AM15" s="46">
         <f t="shared" si="4"/>
         <v>0.13276714122074948</v>
       </c>
       <c r="AQ15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR15" s="53">
+        <v>254</v>
+      </c>
+      <c r="AR15" s="50">
         <v>1</v>
       </c>
-      <c r="AS15" s="53">
+      <c r="AS15" s="50">
         <v>18000</v>
       </c>
-      <c r="AT15" s="53">
+      <c r="AT15" s="50">
         <v>1.5779999999999999E-2</v>
       </c>
-      <c r="AU15" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV15" s="64">
+      <c r="AU15" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV15" s="61">
         <f t="shared" si="5"/>
         <v>1.7831399999999997E-2</v>
       </c>
@@ -24713,1226 +24604,1226 @@
         <v>128.1779650512899</v>
       </c>
       <c r="U16" t="s">
-        <v>260</v>
-      </c>
-      <c r="V16" s="47">
+        <v>254</v>
+      </c>
+      <c r="V16" s="44">
         <v>15</v>
       </c>
-      <c r="W16" s="47">
+      <c r="W16" s="44">
         <v>3500</v>
       </c>
-      <c r="X16" s="47">
+      <c r="X16" s="44">
         <v>3217</v>
       </c>
-      <c r="Y16" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z16" s="48">
+      <c r="Y16" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z16" s="45">
         <f t="shared" si="1"/>
         <v>3635.2099999999996</v>
       </c>
-      <c r="AA16" s="47">
+      <c r="AA16" s="44">
         <v>18333</v>
       </c>
-      <c r="AB16" s="49">
+      <c r="AB16" s="46">
         <f t="shared" si="2"/>
         <v>0.19828778705067363</v>
       </c>
       <c r="AF16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG16" s="47">
+        <v>254</v>
+      </c>
+      <c r="AG16" s="44">
         <v>15</v>
       </c>
-      <c r="AH16" s="47">
+      <c r="AH16" s="44">
         <v>3500</v>
       </c>
-      <c r="AI16" s="47">
+      <c r="AI16" s="44">
         <v>1911</v>
       </c>
-      <c r="AJ16" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK16" s="48">
+      <c r="AJ16" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK16" s="45">
         <f t="shared" si="3"/>
         <v>2159.4299999999998</v>
       </c>
-      <c r="AL16" s="47">
+      <c r="AL16" s="44">
         <v>18333</v>
       </c>
-      <c r="AM16" s="49">
+      <c r="AM16" s="46">
         <f t="shared" si="4"/>
         <v>0.11778923253150056</v>
       </c>
       <c r="AQ16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR16" s="56">
+        <v>254</v>
+      </c>
+      <c r="AR16" s="53">
         <v>1</v>
       </c>
-      <c r="AS16" s="56">
+      <c r="AS16" s="53">
         <v>26000</v>
       </c>
-      <c r="AT16" s="56">
+      <c r="AT16" s="53">
         <v>4.5530000000000001E-2</v>
       </c>
-      <c r="AU16" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV16" s="65">
+      <c r="AU16" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV16" s="62">
         <f t="shared" si="5"/>
         <v>5.1448899999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="21:48">
       <c r="U17" t="s">
-        <v>260</v>
-      </c>
-      <c r="V17" s="47">
+        <v>254</v>
+      </c>
+      <c r="V17" s="44">
         <v>20</v>
       </c>
-      <c r="W17" s="47">
+      <c r="W17" s="44">
         <v>3500</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="44">
         <v>3191</v>
       </c>
-      <c r="Y17" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z17" s="48">
+      <c r="Y17" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z17" s="45">
         <f t="shared" si="1"/>
         <v>3605.8299999999995</v>
       </c>
-      <c r="AA17" s="47">
+      <c r="AA17" s="44">
         <v>18333</v>
       </c>
-      <c r="AB17" s="49">
+      <c r="AB17" s="46">
         <f t="shared" si="2"/>
         <v>0.19668521245840831</v>
       </c>
       <c r="AF17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG17" s="47">
+        <v>254</v>
+      </c>
+      <c r="AG17" s="44">
         <v>20</v>
       </c>
-      <c r="AH17" s="47">
+      <c r="AH17" s="44">
         <v>3500</v>
       </c>
-      <c r="AI17" s="47">
+      <c r="AI17" s="44">
         <v>1694</v>
       </c>
-      <c r="AJ17" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK17" s="48">
+      <c r="AJ17" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK17" s="45">
         <f t="shared" si="3"/>
         <v>1914.2199999999998</v>
       </c>
-      <c r="AL17" s="47">
+      <c r="AL17" s="44">
         <v>18333</v>
       </c>
-      <c r="AM17" s="49">
+      <c r="AM17" s="46">
         <f t="shared" si="4"/>
         <v>0.10441389843451698</v>
       </c>
       <c r="AQ17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR17" s="59">
+        <v>254</v>
+      </c>
+      <c r="AR17" s="56">
         <v>1</v>
       </c>
-      <c r="AS17" s="59">
+      <c r="AS17" s="56">
         <v>40000</v>
       </c>
-      <c r="AT17" s="59">
+      <c r="AT17" s="56">
         <v>2.8129999999999999E-2</v>
       </c>
-      <c r="AU17" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV17" s="66">
+      <c r="AU17" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV17" s="63">
         <f t="shared" si="5"/>
         <v>3.1786899999999993E-2</v>
       </c>
     </row>
     <row r="18" spans="21:48">
       <c r="U18" t="s">
-        <v>260</v>
-      </c>
-      <c r="V18" s="50">
+        <v>254</v>
+      </c>
+      <c r="V18" s="47">
         <v>1</v>
       </c>
-      <c r="W18" s="50">
+      <c r="W18" s="47">
         <v>7500</v>
       </c>
-      <c r="X18" s="50">
+      <c r="X18" s="47">
         <v>2142</v>
       </c>
-      <c r="Y18" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z18" s="51">
+      <c r="Y18" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z18" s="48">
         <f t="shared" si="1"/>
         <v>2420.4599999999996</v>
       </c>
-      <c r="AA18" s="50">
+      <c r="AA18" s="47">
         <v>54167</v>
       </c>
-      <c r="AB18" s="52">
+      <c r="AB18" s="49">
         <f t="shared" si="2"/>
         <v>4.4685140399136E-2</v>
       </c>
       <c r="AF18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG18" s="50">
+        <v>254</v>
+      </c>
+      <c r="AG18" s="47">
         <v>1</v>
       </c>
-      <c r="AH18" s="50">
+      <c r="AH18" s="47">
         <v>7500</v>
       </c>
-      <c r="AI18" s="50">
+      <c r="AI18" s="47">
         <v>2673</v>
       </c>
-      <c r="AJ18" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK18" s="51">
+      <c r="AJ18" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK18" s="48">
         <f t="shared" si="3"/>
         <v>3020.49</v>
       </c>
-      <c r="AL18" s="50">
+      <c r="AL18" s="47">
         <v>54167</v>
       </c>
-      <c r="AM18" s="52">
+      <c r="AM18" s="49">
         <f t="shared" si="4"/>
         <v>5.5762549153543665E-2</v>
       </c>
     </row>
     <row r="19" spans="21:48">
       <c r="U19" t="s">
-        <v>260</v>
-      </c>
-      <c r="V19" s="50">
+        <v>254</v>
+      </c>
+      <c r="V19" s="47">
         <v>5</v>
       </c>
-      <c r="W19" s="50">
+      <c r="W19" s="47">
         <v>7500</v>
       </c>
-      <c r="X19" s="50">
+      <c r="X19" s="47">
         <v>2784</v>
       </c>
-      <c r="Y19" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z19" s="51">
+      <c r="Y19" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z19" s="48">
         <f t="shared" si="1"/>
         <v>3145.9199999999996</v>
       </c>
-      <c r="AA19" s="50">
+      <c r="AA19" s="47">
         <v>54167</v>
       </c>
-      <c r="AB19" s="52">
+      <c r="AB19" s="49">
         <f t="shared" si="2"/>
         <v>5.8078165672826622E-2</v>
       </c>
       <c r="AF19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG19" s="50">
+        <v>254</v>
+      </c>
+      <c r="AG19" s="47">
         <v>5</v>
       </c>
-      <c r="AH19" s="50">
+      <c r="AH19" s="47">
         <v>7500</v>
       </c>
-      <c r="AI19" s="50">
+      <c r="AI19" s="47">
         <v>2429</v>
       </c>
-      <c r="AJ19" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK19" s="51">
+      <c r="AJ19" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK19" s="48">
         <f t="shared" si="3"/>
         <v>2744.7699999999995</v>
       </c>
-      <c r="AL19" s="50">
+      <c r="AL19" s="47">
         <v>54167</v>
       </c>
-      <c r="AM19" s="52">
+      <c r="AM19" s="49">
         <f t="shared" si="4"/>
         <v>5.0672365093137876E-2</v>
       </c>
     </row>
     <row r="20" spans="21:48">
       <c r="U20" t="s">
-        <v>260</v>
-      </c>
-      <c r="V20" s="50">
+        <v>254</v>
+      </c>
+      <c r="V20" s="47">
         <v>10</v>
       </c>
-      <c r="W20" s="50">
+      <c r="W20" s="47">
         <v>7500</v>
       </c>
-      <c r="X20" s="50">
+      <c r="X20" s="47">
         <v>3122</v>
       </c>
-      <c r="Y20" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z20" s="51">
+      <c r="Y20" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z20" s="48">
         <f t="shared" si="1"/>
         <v>3527.8599999999997</v>
       </c>
-      <c r="AA20" s="50">
+      <c r="AA20" s="47">
         <v>54167</v>
       </c>
-      <c r="AB20" s="52">
+      <c r="AB20" s="49">
         <f t="shared" si="2"/>
         <v>6.5129322281093652E-2</v>
       </c>
       <c r="AF20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG20" s="50">
+        <v>254</v>
+      </c>
+      <c r="AG20" s="47">
         <v>10</v>
       </c>
-      <c r="AH20" s="50">
+      <c r="AH20" s="47">
         <v>7500</v>
       </c>
-      <c r="AI20" s="50">
+      <c r="AI20" s="47">
         <v>2154</v>
       </c>
-      <c r="AJ20" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK20" s="51">
+      <c r="AJ20" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK20" s="48">
         <f t="shared" si="3"/>
         <v>2434.02</v>
       </c>
-      <c r="AL20" s="50">
+      <c r="AL20" s="47">
         <v>54167</v>
       </c>
-      <c r="AM20" s="52">
+      <c r="AM20" s="49">
         <f t="shared" si="4"/>
         <v>4.4935477320139569E-2</v>
       </c>
     </row>
     <row r="21" spans="21:48">
       <c r="U21" t="s">
-        <v>260</v>
-      </c>
-      <c r="V21" s="50">
+        <v>254</v>
+      </c>
+      <c r="V21" s="47">
         <v>15</v>
       </c>
-      <c r="W21" s="50">
+      <c r="W21" s="47">
         <v>7500</v>
       </c>
-      <c r="X21" s="50">
+      <c r="X21" s="47">
         <v>3217</v>
       </c>
-      <c r="Y21" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z21" s="51">
+      <c r="Y21" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z21" s="48">
         <f t="shared" si="1"/>
         <v>3635.2099999999996</v>
       </c>
-      <c r="AA21" s="50">
+      <c r="AA21" s="47">
         <v>54167</v>
       </c>
-      <c r="AB21" s="52">
+      <c r="AB21" s="49">
         <f t="shared" si="2"/>
         <v>6.7111156239038516E-2</v>
       </c>
       <c r="AF21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG21" s="50">
+        <v>254</v>
+      </c>
+      <c r="AG21" s="47">
         <v>15</v>
       </c>
-      <c r="AH21" s="50">
+      <c r="AH21" s="47">
         <v>7500</v>
       </c>
-      <c r="AI21" s="50">
+      <c r="AI21" s="47">
         <v>1911</v>
       </c>
-      <c r="AJ21" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK21" s="51">
+      <c r="AJ21" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK21" s="48">
         <f t="shared" si="3"/>
         <v>2159.4299999999998</v>
       </c>
-      <c r="AL21" s="50">
+      <c r="AL21" s="47">
         <v>54167</v>
       </c>
-      <c r="AM21" s="52">
+      <c r="AM21" s="49">
         <f t="shared" si="4"/>
         <v>3.9866154669817411E-2</v>
       </c>
     </row>
     <row r="22" spans="21:48">
       <c r="U22" t="s">
-        <v>260</v>
-      </c>
-      <c r="V22" s="50">
+        <v>254</v>
+      </c>
+      <c r="V22" s="47">
         <v>20</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="47">
         <v>7500</v>
       </c>
-      <c r="X22" s="50">
+      <c r="X22" s="47">
         <v>3191</v>
       </c>
-      <c r="Y22" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z22" s="51">
+      <c r="Y22" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z22" s="48">
         <f t="shared" si="1"/>
         <v>3605.8299999999995</v>
       </c>
-      <c r="AA22" s="50">
+      <c r="AA22" s="47">
         <v>54167</v>
       </c>
-      <c r="AB22" s="52">
+      <c r="AB22" s="49">
         <f t="shared" si="2"/>
         <v>6.6568759576864131E-2</v>
       </c>
       <c r="AF22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG22" s="50">
+        <v>254</v>
+      </c>
+      <c r="AG22" s="47">
         <v>20</v>
       </c>
-      <c r="AH22" s="50">
+      <c r="AH22" s="47">
         <v>7500</v>
       </c>
-      <c r="AI22" s="50">
+      <c r="AI22" s="47">
         <v>1694</v>
       </c>
-      <c r="AJ22" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK22" s="51">
+      <c r="AJ22" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK22" s="48">
         <f t="shared" si="3"/>
         <v>1914.2199999999998</v>
       </c>
-      <c r="AL22" s="50">
+      <c r="AL22" s="47">
         <v>54167</v>
       </c>
-      <c r="AM22" s="52">
+      <c r="AM22" s="49">
         <f t="shared" si="4"/>
         <v>3.5339228681669645E-2</v>
       </c>
     </row>
     <row r="23" spans="21:48">
       <c r="U23" t="s">
-        <v>260</v>
-      </c>
-      <c r="V23" s="53">
+        <v>254</v>
+      </c>
+      <c r="V23" s="50">
         <v>1</v>
       </c>
-      <c r="W23" s="53">
+      <c r="W23" s="50">
         <v>18000</v>
       </c>
-      <c r="X23" s="53">
+      <c r="X23" s="50">
         <v>2929</v>
       </c>
-      <c r="Y23" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z23" s="54">
+      <c r="Y23" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z23" s="51">
         <f t="shared" si="1"/>
         <v>3309.7699999999995</v>
       </c>
-      <c r="AA23" s="53">
+      <c r="AA23" s="50">
         <v>33333</v>
       </c>
-      <c r="AB23" s="55">
+      <c r="AB23" s="52">
         <f t="shared" si="2"/>
         <v>9.929409294092939E-2</v>
       </c>
       <c r="AF23" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG23" s="53">
+        <v>254</v>
+      </c>
+      <c r="AG23" s="50">
         <v>1</v>
       </c>
-      <c r="AH23" s="53">
+      <c r="AH23" s="50">
         <v>18000</v>
       </c>
-      <c r="AI23" s="53">
+      <c r="AI23" s="50">
         <v>3905</v>
       </c>
-      <c r="AJ23" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK23" s="54">
+      <c r="AJ23" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK23" s="51">
         <f t="shared" si="3"/>
         <v>4412.6499999999996</v>
       </c>
-      <c r="AL23" s="53">
+      <c r="AL23" s="50">
         <v>33333</v>
       </c>
-      <c r="AM23" s="55">
+      <c r="AM23" s="52">
         <f t="shared" si="4"/>
         <v>0.13238082380823807</v>
       </c>
     </row>
     <row r="24" spans="21:48">
       <c r="U24" t="s">
-        <v>260</v>
-      </c>
-      <c r="V24" s="53">
+        <v>254</v>
+      </c>
+      <c r="V24" s="50">
         <v>5</v>
       </c>
-      <c r="W24" s="53">
+      <c r="W24" s="50">
         <v>18000</v>
       </c>
-      <c r="X24" s="53">
+      <c r="X24" s="50">
         <v>3808</v>
       </c>
-      <c r="Y24" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z24" s="54">
+      <c r="Y24" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z24" s="51">
         <f t="shared" si="1"/>
         <v>4303.04</v>
       </c>
-      <c r="AA24" s="53">
+      <c r="AA24" s="50">
         <v>33333</v>
       </c>
-      <c r="AB24" s="55">
+      <c r="AB24" s="52">
         <f t="shared" si="2"/>
         <v>0.12909249092490924</v>
       </c>
       <c r="AF24" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG24" s="53">
+        <v>254</v>
+      </c>
+      <c r="AG24" s="50">
         <v>5</v>
       </c>
-      <c r="AH24" s="53">
+      <c r="AH24" s="50">
         <v>18000</v>
       </c>
-      <c r="AI24" s="53">
+      <c r="AI24" s="50">
         <v>3548</v>
       </c>
-      <c r="AJ24" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK24" s="54">
+      <c r="AJ24" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK24" s="51">
         <f t="shared" si="3"/>
         <v>4009.24</v>
       </c>
-      <c r="AL24" s="53">
+      <c r="AL24" s="50">
         <v>33333</v>
       </c>
-      <c r="AM24" s="55">
+      <c r="AM24" s="52">
         <f t="shared" si="4"/>
         <v>0.12027840278402784</v>
       </c>
     </row>
     <row r="25" spans="21:48">
       <c r="U25" t="s">
-        <v>260</v>
-      </c>
-      <c r="V25" s="53">
+        <v>254</v>
+      </c>
+      <c r="V25" s="50">
         <v>10</v>
       </c>
-      <c r="W25" s="53">
+      <c r="W25" s="50">
         <v>18000</v>
       </c>
-      <c r="X25" s="53">
+      <c r="X25" s="50">
         <v>4270</v>
       </c>
-      <c r="Y25" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z25" s="54">
+      <c r="Y25" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z25" s="51">
         <f t="shared" si="1"/>
         <v>4825.0999999999995</v>
       </c>
-      <c r="AA25" s="53">
+      <c r="AA25" s="50">
         <v>33333</v>
       </c>
-      <c r="AB25" s="55">
+      <c r="AB25" s="52">
         <f t="shared" si="2"/>
         <v>0.14475444754447542</v>
       </c>
       <c r="AF25" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG25" s="53">
+        <v>254</v>
+      </c>
+      <c r="AG25" s="50">
         <v>10</v>
       </c>
-      <c r="AH25" s="53">
+      <c r="AH25" s="50">
         <v>18000</v>
       </c>
-      <c r="AI25" s="53">
+      <c r="AI25" s="50">
         <v>3146</v>
       </c>
-      <c r="AJ25" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK25" s="54">
+      <c r="AJ25" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK25" s="51">
         <f t="shared" si="3"/>
         <v>3554.9799999999996</v>
       </c>
-      <c r="AL25" s="53">
+      <c r="AL25" s="50">
         <v>33333</v>
       </c>
-      <c r="AM25" s="55">
+      <c r="AM25" s="52">
         <f t="shared" si="4"/>
         <v>0.10665046650466503</v>
       </c>
     </row>
     <row r="26" spans="21:48">
       <c r="U26" t="s">
-        <v>260</v>
-      </c>
-      <c r="V26" s="53">
+        <v>254</v>
+      </c>
+      <c r="V26" s="50">
         <v>15</v>
       </c>
-      <c r="W26" s="53">
+      <c r="W26" s="50">
         <v>18000</v>
       </c>
-      <c r="X26" s="53">
+      <c r="X26" s="50">
         <v>4400</v>
       </c>
-      <c r="Y26" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z26" s="54">
+      <c r="Y26" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z26" s="51">
         <f t="shared" si="1"/>
         <v>4971.9999999999991</v>
       </c>
-      <c r="AA26" s="53">
+      <c r="AA26" s="50">
         <v>33333</v>
       </c>
-      <c r="AB26" s="55">
+      <c r="AB26" s="52">
         <f t="shared" si="2"/>
         <v>0.14916149161491613</v>
       </c>
       <c r="AF26" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG26" s="53">
+        <v>254</v>
+      </c>
+      <c r="AG26" s="50">
         <v>15</v>
       </c>
-      <c r="AH26" s="53">
+      <c r="AH26" s="50">
         <v>18000</v>
       </c>
-      <c r="AI26" s="53">
+      <c r="AI26" s="50">
         <v>2791</v>
       </c>
-      <c r="AJ26" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK26" s="54">
+      <c r="AJ26" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK26" s="51">
         <f t="shared" si="3"/>
         <v>3153.83</v>
       </c>
-      <c r="AL26" s="53">
+      <c r="AL26" s="50">
         <v>33333</v>
       </c>
-      <c r="AM26" s="55">
+      <c r="AM26" s="52">
         <f t="shared" si="4"/>
         <v>9.4615846158461581E-2</v>
       </c>
     </row>
     <row r="27" spans="21:48">
       <c r="U27" t="s">
-        <v>260</v>
-      </c>
-      <c r="V27" s="53">
+        <v>254</v>
+      </c>
+      <c r="V27" s="50">
         <v>20</v>
       </c>
-      <c r="W27" s="53">
+      <c r="W27" s="50">
         <v>18000</v>
       </c>
-      <c r="X27" s="53">
+      <c r="X27" s="50">
         <v>4365</v>
       </c>
-      <c r="Y27" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z27" s="54">
+      <c r="Y27" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z27" s="51">
         <f t="shared" si="1"/>
         <v>4932.45</v>
       </c>
-      <c r="AA27" s="53">
+      <c r="AA27" s="50">
         <v>33333</v>
       </c>
-      <c r="AB27" s="55">
+      <c r="AB27" s="52">
         <f t="shared" si="2"/>
         <v>0.14797497974979748</v>
       </c>
       <c r="AF27" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG27" s="53">
+        <v>254</v>
+      </c>
+      <c r="AG27" s="50">
         <v>20</v>
       </c>
-      <c r="AH27" s="53">
+      <c r="AH27" s="50">
         <v>18000</v>
       </c>
-      <c r="AI27" s="53">
+      <c r="AI27" s="50">
         <v>2475</v>
       </c>
-      <c r="AJ27" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK27" s="54">
+      <c r="AJ27" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK27" s="51">
         <f t="shared" si="3"/>
         <v>2796.7499999999995</v>
       </c>
-      <c r="AL27" s="53">
+      <c r="AL27" s="50">
         <v>33333</v>
       </c>
-      <c r="AM27" s="55">
+      <c r="AM27" s="52">
         <f t="shared" si="4"/>
         <v>8.3903339033390326E-2</v>
       </c>
     </row>
     <row r="28" spans="21:48">
       <c r="U28" t="s">
-        <v>260</v>
-      </c>
-      <c r="V28" s="56">
+        <v>254</v>
+      </c>
+      <c r="V28" s="53">
         <v>1</v>
       </c>
-      <c r="W28" s="56">
+      <c r="W28" s="53">
         <v>26000</v>
       </c>
-      <c r="X28" s="56">
+      <c r="X28" s="53">
         <v>3609</v>
       </c>
-      <c r="Y28" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z28" s="57">
+      <c r="Y28" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z28" s="54">
         <f t="shared" si="1"/>
         <v>4078.1699999999996</v>
       </c>
-      <c r="AA28" s="56">
+      <c r="AA28" s="53">
         <v>46667</v>
       </c>
-      <c r="AB28" s="58">
+      <c r="AB28" s="55">
         <f t="shared" si="2"/>
         <v>8.7388732937621866E-2</v>
       </c>
       <c r="AF28" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG28" s="56">
+        <v>254</v>
+      </c>
+      <c r="AG28" s="53">
         <v>1</v>
       </c>
-      <c r="AH28" s="56">
+      <c r="AH28" s="53">
         <v>26000</v>
       </c>
-      <c r="AI28" s="56">
+      <c r="AI28" s="53">
         <v>5137</v>
       </c>
-      <c r="AJ28" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK28" s="57">
+      <c r="AJ28" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK28" s="54">
         <f t="shared" si="3"/>
         <v>5804.8099999999995</v>
       </c>
-      <c r="AL28" s="56">
+      <c r="AL28" s="53">
         <v>46667</v>
       </c>
-      <c r="AM28" s="58">
+      <c r="AM28" s="55">
         <f t="shared" si="4"/>
         <v>0.12438789722930549</v>
       </c>
     </row>
     <row r="29" spans="21:48">
       <c r="U29" t="s">
-        <v>260</v>
-      </c>
-      <c r="V29" s="56">
+        <v>254</v>
+      </c>
+      <c r="V29" s="53">
         <v>5</v>
       </c>
-      <c r="W29" s="56">
+      <c r="W29" s="53">
         <v>26000</v>
       </c>
-      <c r="X29" s="56">
+      <c r="X29" s="53">
         <v>4227</v>
       </c>
-      <c r="Y29" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z29" s="57">
+      <c r="Y29" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z29" s="54">
         <f t="shared" si="1"/>
         <v>4776.5099999999993</v>
       </c>
-      <c r="AA29" s="56">
+      <c r="AA29" s="53">
         <v>46667</v>
       </c>
-      <c r="AB29" s="58">
+      <c r="AB29" s="55">
         <f t="shared" si="2"/>
         <v>0.1023530546210384</v>
       </c>
       <c r="AF29" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG29" s="56">
+        <v>254</v>
+      </c>
+      <c r="AG29" s="53">
         <v>5</v>
       </c>
-      <c r="AH29" s="56">
+      <c r="AH29" s="53">
         <v>26000</v>
       </c>
-      <c r="AI29" s="56">
+      <c r="AI29" s="53">
         <v>4666</v>
       </c>
-      <c r="AJ29" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK29" s="57">
+      <c r="AJ29" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK29" s="54">
         <f t="shared" si="3"/>
         <v>5272.58</v>
       </c>
-      <c r="AL29" s="56">
+      <c r="AL29" s="53">
         <v>46667</v>
       </c>
-      <c r="AM29" s="58">
+      <c r="AM29" s="55">
         <f t="shared" si="4"/>
         <v>0.11298305012107056</v>
       </c>
     </row>
     <row r="30" spans="21:48">
       <c r="U30" t="s">
-        <v>260</v>
-      </c>
-      <c r="V30" s="56">
+        <v>254</v>
+      </c>
+      <c r="V30" s="53">
         <v>10</v>
       </c>
-      <c r="W30" s="56">
+      <c r="W30" s="53">
         <v>26000</v>
       </c>
-      <c r="X30" s="56">
+      <c r="X30" s="53">
         <v>4739</v>
       </c>
-      <c r="Y30" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z30" s="57">
+      <c r="Y30" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z30" s="54">
         <f t="shared" si="1"/>
         <v>5355.07</v>
       </c>
-      <c r="AA30" s="56">
+      <c r="AA30" s="53">
         <v>46667</v>
       </c>
-      <c r="AB30" s="58">
+      <c r="AB30" s="55">
         <f t="shared" si="2"/>
         <v>0.1147506803522832</v>
       </c>
       <c r="AF30" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG30" s="56">
+        <v>254</v>
+      </c>
+      <c r="AG30" s="53">
         <v>10</v>
       </c>
-      <c r="AH30" s="56">
+      <c r="AH30" s="53">
         <v>26000</v>
       </c>
-      <c r="AI30" s="56">
+      <c r="AI30" s="53">
         <v>4139</v>
       </c>
-      <c r="AJ30" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK30" s="57">
+      <c r="AJ30" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK30" s="54">
         <f t="shared" si="3"/>
         <v>4677.07</v>
       </c>
-      <c r="AL30" s="56">
+      <c r="AL30" s="53">
         <v>46667</v>
       </c>
-      <c r="AM30" s="58">
+      <c r="AM30" s="55">
         <f t="shared" si="4"/>
         <v>0.10022221269848072</v>
       </c>
     </row>
     <row r="31" spans="21:48">
       <c r="U31" t="s">
-        <v>260</v>
-      </c>
-      <c r="V31" s="56">
+        <v>254</v>
+      </c>
+      <c r="V31" s="53">
         <v>15</v>
       </c>
-      <c r="W31" s="56">
+      <c r="W31" s="53">
         <v>26000</v>
       </c>
-      <c r="X31" s="56">
+      <c r="X31" s="53">
         <v>4884</v>
       </c>
-      <c r="Y31" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z31" s="57">
+      <c r="Y31" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z31" s="54">
         <f t="shared" si="1"/>
         <v>5518.9199999999992</v>
       </c>
-      <c r="AA31" s="56">
+      <c r="AA31" s="53">
         <v>46667</v>
       </c>
-      <c r="AB31" s="58">
+      <c r="AB31" s="55">
         <f t="shared" si="2"/>
         <v>0.11826172670195211</v>
       </c>
       <c r="AF31" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG31" s="56">
+        <v>254</v>
+      </c>
+      <c r="AG31" s="53">
         <v>15</v>
       </c>
-      <c r="AH31" s="56">
+      <c r="AH31" s="53">
         <v>26000</v>
       </c>
-      <c r="AI31" s="56">
+      <c r="AI31" s="53">
         <v>3671</v>
       </c>
-      <c r="AJ31" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK31" s="57">
+      <c r="AJ31" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK31" s="54">
         <f t="shared" si="3"/>
         <v>4148.2299999999996</v>
       </c>
-      <c r="AL31" s="56">
+      <c r="AL31" s="53">
         <v>46667</v>
       </c>
-      <c r="AM31" s="58">
+      <c r="AM31" s="55">
         <f t="shared" si="4"/>
         <v>8.8890007928514786E-2</v>
       </c>
     </row>
     <row r="32" spans="21:48">
       <c r="U32" t="s">
-        <v>260</v>
-      </c>
-      <c r="V32" s="56">
+        <v>254</v>
+      </c>
+      <c r="V32" s="53">
         <v>20</v>
       </c>
-      <c r="W32" s="56">
+      <c r="W32" s="53">
         <v>26000</v>
       </c>
-      <c r="X32" s="56">
+      <c r="X32" s="53">
         <v>5378</v>
       </c>
-      <c r="Y32" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z32" s="57">
+      <c r="Y32" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z32" s="54">
         <f t="shared" si="1"/>
         <v>6077.1399999999994</v>
       </c>
-      <c r="AA32" s="56">
+      <c r="AA32" s="53">
         <v>46667</v>
       </c>
-      <c r="AB32" s="58">
+      <c r="AB32" s="55">
         <f t="shared" si="2"/>
         <v>0.13022349840358283</v>
       </c>
       <c r="AF32" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG32" s="56">
+        <v>254</v>
+      </c>
+      <c r="AG32" s="53">
         <v>20</v>
       </c>
-      <c r="AH32" s="56">
+      <c r="AH32" s="53">
         <v>26000</v>
       </c>
-      <c r="AI32" s="56">
+      <c r="AI32" s="53">
         <v>3256</v>
       </c>
-      <c r="AJ32" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK32" s="57">
+      <c r="AJ32" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK32" s="54">
         <f t="shared" si="3"/>
         <v>3679.2799999999997</v>
       </c>
-      <c r="AL32" s="56">
+      <c r="AL32" s="53">
         <v>46667</v>
       </c>
-      <c r="AM32" s="58">
+      <c r="AM32" s="55">
         <f t="shared" si="4"/>
         <v>7.8841151134634746E-2</v>
       </c>
     </row>
     <row r="33" spans="21:39">
       <c r="U33" t="s">
-        <v>260</v>
-      </c>
-      <c r="V33" s="59">
+        <v>254</v>
+      </c>
+      <c r="V33" s="56">
         <v>1</v>
       </c>
-      <c r="W33" s="59">
+      <c r="W33" s="56">
         <v>40000</v>
       </c>
-      <c r="X33" s="59">
+      <c r="X33" s="56">
         <v>4687</v>
       </c>
-      <c r="Y33" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z33" s="60">
+      <c r="Y33" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z33" s="57">
         <f t="shared" si="1"/>
         <v>5296.3099999999995</v>
       </c>
-      <c r="AA33" s="59">
+      <c r="AA33" s="56">
         <v>83333</v>
       </c>
-      <c r="AB33" s="61">
+      <c r="AB33" s="58">
         <f t="shared" si="2"/>
         <v>6.3555974223896888E-2</v>
       </c>
       <c r="AF33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG33" s="59">
+        <v>254</v>
+      </c>
+      <c r="AG33" s="56">
         <v>1</v>
       </c>
-      <c r="AH33" s="59">
+      <c r="AH33" s="56">
         <v>40000</v>
       </c>
-      <c r="AI33" s="59">
+      <c r="AI33" s="56">
         <v>6368</v>
       </c>
-      <c r="AJ33" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK33" s="60">
+      <c r="AJ33" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK33" s="57">
         <f t="shared" si="3"/>
         <v>7195.8399999999992</v>
       </c>
-      <c r="AL33" s="59">
+      <c r="AL33" s="56">
         <v>83333</v>
       </c>
-      <c r="AM33" s="61">
+      <c r="AM33" s="58">
         <f t="shared" si="4"/>
         <v>8.6350425401701597E-2</v>
       </c>
     </row>
     <row r="34" spans="21:39">
       <c r="U34" t="s">
-        <v>260</v>
-      </c>
-      <c r="V34" s="59">
+        <v>254</v>
+      </c>
+      <c r="V34" s="56">
         <v>5</v>
       </c>
-      <c r="W34" s="59">
+      <c r="W34" s="56">
         <v>40000</v>
       </c>
-      <c r="X34" s="59">
+      <c r="X34" s="56">
         <v>6094</v>
       </c>
-      <c r="Y34" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z34" s="60">
+      <c r="Y34" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z34" s="57">
         <f t="shared" si="1"/>
         <v>6886.2199999999993</v>
       </c>
-      <c r="AA34" s="59">
+      <c r="AA34" s="56">
         <v>83333</v>
       </c>
-      <c r="AB34" s="61">
+      <c r="AB34" s="58">
         <f t="shared" si="2"/>
         <v>8.2634970539882155E-2</v>
       </c>
       <c r="AF34" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG34" s="59">
+        <v>254</v>
+      </c>
+      <c r="AG34" s="56">
         <v>5</v>
       </c>
-      <c r="AH34" s="59">
+      <c r="AH34" s="56">
         <v>40000</v>
       </c>
-      <c r="AI34" s="59">
+      <c r="AI34" s="56">
         <v>5785</v>
       </c>
-      <c r="AJ34" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK34" s="60">
+      <c r="AJ34" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK34" s="57">
         <f t="shared" si="3"/>
         <v>6537.0499999999993</v>
       </c>
-      <c r="AL34" s="59">
+      <c r="AL34" s="56">
         <v>83333</v>
       </c>
-      <c r="AM34" s="61">
+      <c r="AM34" s="58">
         <f t="shared" si="4"/>
         <v>7.8444913779655109E-2</v>
       </c>
     </row>
     <row r="35" spans="21:39">
       <c r="U35" t="s">
-        <v>260</v>
-      </c>
-      <c r="V35" s="59">
+        <v>254</v>
+      </c>
+      <c r="V35" s="56">
         <v>10</v>
       </c>
-      <c r="W35" s="59">
+      <c r="W35" s="56">
         <v>40000</v>
       </c>
-      <c r="X35" s="59">
+      <c r="X35" s="56">
         <v>6832</v>
       </c>
-      <c r="Y35" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z35" s="60">
+      <c r="Y35" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z35" s="57">
         <f t="shared" si="1"/>
         <v>7720.1599999999989</v>
       </c>
-      <c r="AA35" s="59">
+      <c r="AA35" s="56">
         <v>83333</v>
       </c>
-      <c r="AB35" s="61">
+      <c r="AB35" s="58">
         <f t="shared" si="2"/>
         <v>9.2642290569162261E-2</v>
       </c>
       <c r="AF35" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG35" s="59">
+        <v>254</v>
+      </c>
+      <c r="AG35" s="56">
         <v>10</v>
       </c>
-      <c r="AH35" s="59">
+      <c r="AH35" s="56">
         <v>40000</v>
       </c>
-      <c r="AI35" s="59">
+      <c r="AI35" s="56">
         <v>5131</v>
       </c>
-      <c r="AJ35" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK35" s="60">
+      <c r="AJ35" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK35" s="57">
         <f t="shared" si="3"/>
         <v>5798.03</v>
       </c>
-      <c r="AL35" s="59">
+      <c r="AL35" s="56">
         <v>83333</v>
       </c>
-      <c r="AM35" s="61">
+      <c r="AM35" s="58">
         <f t="shared" si="4"/>
         <v>6.9576638306553223E-2</v>
       </c>
     </row>
     <row r="36" spans="21:39">
       <c r="U36" t="s">
-        <v>260</v>
-      </c>
-      <c r="V36" s="59">
+        <v>254</v>
+      </c>
+      <c r="V36" s="56">
         <v>15</v>
       </c>
-      <c r="W36" s="59">
+      <c r="W36" s="56">
         <v>40000</v>
       </c>
-      <c r="X36" s="59">
+      <c r="X36" s="56">
         <v>7041</v>
       </c>
-      <c r="Y36" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z36" s="60">
+      <c r="Y36" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z36" s="57">
         <f t="shared" si="1"/>
         <v>7956.329999999999</v>
       </c>
-      <c r="AA36" s="59">
+      <c r="AA36" s="56">
         <v>83333</v>
       </c>
-      <c r="AB36" s="61">
+      <c r="AB36" s="58">
         <f t="shared" si="2"/>
         <v>9.5476341905367607E-2</v>
       </c>
       <c r="AF36" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG36" s="59">
+        <v>254</v>
+      </c>
+      <c r="AG36" s="56">
         <v>15</v>
       </c>
-      <c r="AH36" s="59">
+      <c r="AH36" s="56">
         <v>40000</v>
       </c>
-      <c r="AI36" s="59">
+      <c r="AI36" s="56">
         <v>4551</v>
       </c>
-      <c r="AJ36" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK36" s="60">
+      <c r="AJ36" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK36" s="57">
         <f t="shared" si="3"/>
         <v>5142.6299999999992</v>
       </c>
-      <c r="AL36" s="59">
+      <c r="AL36" s="56">
         <v>83333</v>
       </c>
-      <c r="AM36" s="61">
+      <c r="AM36" s="58">
         <f t="shared" si="4"/>
         <v>6.171180684722738E-2</v>
       </c>
     </row>
     <row r="37" spans="21:39">
       <c r="U37" t="s">
-        <v>260</v>
-      </c>
-      <c r="V37" s="59">
+        <v>254</v>
+      </c>
+      <c r="V37" s="56">
         <v>20</v>
       </c>
-      <c r="W37" s="59">
+      <c r="W37" s="56">
         <v>40000</v>
       </c>
-      <c r="X37" s="59">
+      <c r="X37" s="56">
         <v>6984</v>
       </c>
-      <c r="Y37" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z37" s="60">
+      <c r="Y37" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z37" s="57">
         <f t="shared" si="1"/>
         <v>7891.9199999999992</v>
       </c>
-      <c r="AA37" s="59">
+      <c r="AA37" s="56">
         <v>83333</v>
       </c>
-      <c r="AB37" s="61">
+      <c r="AB37" s="58">
         <f t="shared" si="2"/>
         <v>9.470341881367525E-2</v>
       </c>
       <c r="AF37" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG37" s="59">
+        <v>254</v>
+      </c>
+      <c r="AG37" s="56">
         <v>20</v>
       </c>
-      <c r="AH37" s="59">
+      <c r="AH37" s="56">
         <v>40000</v>
       </c>
-      <c r="AI37" s="59">
+      <c r="AI37" s="56">
         <v>4036</v>
       </c>
-      <c r="AJ37" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK37" s="60">
+      <c r="AJ37" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK37" s="57">
         <f t="shared" si="3"/>
         <v>4560.6799999999994</v>
       </c>
-      <c r="AL37" s="59">
+      <c r="AL37" s="56">
         <v>83333</v>
       </c>
-      <c r="AM37" s="61">
+      <c r="AM37" s="58">
         <f t="shared" si="4"/>
         <v>5.4728378913515646E-2</v>
       </c>
@@ -25951,82 +25842,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="45" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="D1" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>107</v>
+      <c r="J1" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C8" si="0">A2&amp;" - "&amp;B2</f>
         <v>Scania - PHEV-d</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>29</v>
@@ -26051,24 +25942,24 @@
       <c r="L2">
         <v>60</v>
       </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>Class 2 Van - Light</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E3">
         <v>3.5</v>
@@ -26087,22 +25978,22 @@
         <f t="shared" ref="J3:J12" si="2">H3/I3</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="M3" s="44"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Class 2 Van - Light</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -26121,22 +26012,22 @@
         <f t="shared" si="2"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Class 3 Van - Light</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -26155,22 +26046,22 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Class 3 Van - Light</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -26189,22 +26080,22 @@
         <f t="shared" si="2"/>
         <v>0.40298507462686567</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Class 5 Utility - Medium</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -26223,22 +26114,22 @@
         <f t="shared" si="2"/>
         <v>0.68656716417910446</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Class 5 Utility - Medium</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -26257,22 +26148,22 @@
         <f t="shared" si="2"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ref="C9:C12" si="3">A9&amp;" - "&amp;B9</f>
         <v>Class 7 Tractor - DayCab</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>26</v>
@@ -26294,24 +26185,24 @@
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="3"/>
         <v>Class 7 Aero - DayCab</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E10">
         <v>26</v>
@@ -26329,24 +26220,24 @@
         <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
         <v>Class 8 Tractor - DayCab</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -26368,24 +26259,24 @@
       <c r="K11">
         <v>8</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
         <v>Class 8 Aero - DayCab</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -26403,41 +26294,41 @@
         <f t="shared" si="2"/>
         <v>0.5490196078431373</v>
       </c>
-      <c r="M12" s="44"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="M13" s="44"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="M14" s="44"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="M15" s="44"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="M16" s="44"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="13:14">
-      <c r="M17" s="44"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="13:14">
-      <c r="M18" s="44"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="21"/>
     </row>
     <row r="19" spans="13:14">
-      <c r="M19" s="44"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="21"/>
     </row>
     <row r="20" spans="13:14">
-      <c r="M20" s="44"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="21"/>
     </row>
   </sheetData>
@@ -26460,63 +26351,63 @@
       <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="45" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="45" t="s">
+      <c r="D1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A2" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C8" si="0">A2&amp;" - "&amp;B2</f>
@@ -26540,20 +26431,20 @@
       <c r="J2">
         <v>375</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="41">
         <f t="shared" ref="K2:K8" si="1">(G2/J2)*120/3.6</f>
         <v>2.7555555555555555</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -26577,20 +26468,20 @@
       <c r="J3">
         <v>400</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="41">
         <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -26614,20 +26505,20 @@
       <c r="J4">
         <v>200</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="41">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -26651,17 +26542,17 @@
       <c r="J5">
         <v>400</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="41">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -26685,20 +26576,20 @@
       <c r="J6">
         <v>400</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="41">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -26722,20 +26613,20 @@
       <c r="J7">
         <v>320</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="41">
         <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -26756,12 +26647,12 @@
       <c r="J8">
         <v>200</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="41">
         <f t="shared" si="1"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -26786,9 +26677,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26811,7 +26702,7 @@
         <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -26874,7 +26765,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -26930,37 +26821,37 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="168" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="A1" s="165" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="168" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
+      <c r="M2" s="165" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6"/>
@@ -27036,30 +26927,30 @@
         <v>18752</v>
       </c>
       <c r="L4" t="s">
-        <v>294</v>
-      </c>
-      <c r="M4" s="95">
+        <v>288</v>
+      </c>
+      <c r="M4" s="92">
         <v>54.361859345101777</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="93">
         <v>58.339086382379364</v>
       </c>
-      <c r="O4" s="96">
+      <c r="O4" s="93">
         <v>52.440124431958992</v>
       </c>
-      <c r="P4" s="96">
+      <c r="P4" s="93">
         <v>55.816343804554791</v>
       </c>
-      <c r="Q4" s="96">
+      <c r="Q4" s="93">
         <v>49.054567883744511</v>
       </c>
-      <c r="R4" s="97">
+      <c r="R4" s="94">
         <v>46.289594246342091</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:I5" si="0">3.5*B4</f>
@@ -27094,30 +26985,30 @@
         <v>65632</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
-      </c>
-      <c r="M5" s="98">
+        <v>289</v>
+      </c>
+      <c r="M5" s="95">
         <v>23.345819984617155</v>
       </c>
-      <c r="N5" s="99">
+      <c r="N5" s="96">
         <v>22.381276690324771</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="96">
         <v>21.363926659992543</v>
       </c>
-      <c r="P5" s="99">
+      <c r="P5" s="96">
         <v>18.74224122379988</v>
       </c>
-      <c r="Q5" s="99">
+      <c r="Q5" s="96">
         <v>18.483520014620819</v>
       </c>
-      <c r="R5" s="100">
+      <c r="R5" s="97">
         <v>17.359586919929566</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:I6" si="1">4.25*B4</f>
@@ -27152,30 +27043,30 @@
         <v>79696</v>
       </c>
       <c r="L6" t="s">
-        <v>272</v>
-      </c>
-      <c r="M6" s="68">
+        <v>266</v>
+      </c>
+      <c r="M6" s="65">
         <v>63.559231889036688</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="66">
         <v>47.111219437843083</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="66">
         <v>51.030707981389341</v>
       </c>
-      <c r="P6" s="69">
+      <c r="P6" s="66">
         <v>47.683810044446808</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="66">
         <v>62.891937025091032</v>
       </c>
-      <c r="R6" s="70">
+      <c r="R6" s="67">
         <v>69.091122537736311</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ref="B7:I7" si="2">9.5*B4</f>
@@ -27210,24 +27101,24 @@
         <v>178144</v>
       </c>
       <c r="L7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M7" s="71">
+        <v>267</v>
+      </c>
+      <c r="M7" s="68">
         <v>94.705983748266533</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="69">
         <v>83.53901655791519</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="69">
         <v>84.682270155055036</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="69">
         <v>86.554170255633835</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="69">
         <v>79.049016525090622</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="70">
         <v>79.621629371501484</v>
       </c>
     </row>
@@ -27260,24 +27151,24 @@
         <v>66239</v>
       </c>
       <c r="L8" t="s">
-        <v>274</v>
-      </c>
-      <c r="M8" s="74">
+        <v>268</v>
+      </c>
+      <c r="M8" s="71">
         <v>43.611676784881958</v>
       </c>
-      <c r="N8" s="75">
+      <c r="N8" s="72">
         <v>35.990902623894442</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="72">
         <v>34.07340015020246</v>
       </c>
-      <c r="P8" s="75">
+      <c r="P8" s="72">
         <v>35.203878313634597</v>
       </c>
-      <c r="Q8" s="75">
+      <c r="Q8" s="72">
         <v>25.715598461168252</v>
       </c>
-      <c r="R8" s="76">
+      <c r="R8" s="73">
         <v>27.959456255769883</v>
       </c>
     </row>
@@ -27318,24 +27209,24 @@
         <v>1.0092485372988786</v>
       </c>
       <c r="L9" t="s">
-        <v>275</v>
-      </c>
-      <c r="M9" s="77">
+        <v>269</v>
+      </c>
+      <c r="M9" s="74">
         <v>37.338130495946935</v>
       </c>
-      <c r="N9" s="78">
+      <c r="N9" s="75">
         <v>42.135467581322217</v>
       </c>
-      <c r="O9" s="78">
+      <c r="O9" s="75">
         <v>40.152459222464024</v>
       </c>
-      <c r="P9" s="78">
+      <c r="P9" s="75">
         <v>40.825658842998564</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="Q9" s="75">
         <v>38.873147027266214</v>
       </c>
-      <c r="R9" s="79">
+      <c r="R9" s="76">
         <v>48.016980525454471</v>
       </c>
     </row>
@@ -27376,24 +27267,24 @@
         <v>0.8311458542461353</v>
       </c>
       <c r="L10" t="s">
-        <v>276</v>
-      </c>
-      <c r="M10" s="80">
+        <v>270</v>
+      </c>
+      <c r="M10" s="77">
         <v>30.236078682953718</v>
       </c>
-      <c r="N10" s="81">
+      <c r="N10" s="78">
         <v>26.034496706975052</v>
       </c>
-      <c r="O10" s="81">
+      <c r="O10" s="78">
         <v>24.434626422362012</v>
       </c>
-      <c r="P10" s="81">
+      <c r="P10" s="78">
         <v>23.552713843981579</v>
       </c>
-      <c r="Q10" s="81">
+      <c r="Q10" s="78">
         <v>23.867160094725868</v>
       </c>
-      <c r="R10" s="82">
+      <c r="R10" s="79">
         <v>20.401064868016576</v>
       </c>
     </row>
@@ -27434,24 +27325,24 @@
         <v>0.37182840847853421</v>
       </c>
       <c r="L11" t="s">
-        <v>277</v>
-      </c>
-      <c r="M11" s="83">
+        <v>271</v>
+      </c>
+      <c r="M11" s="80">
         <v>65.562015798622454</v>
       </c>
-      <c r="N11" s="84">
+      <c r="N11" s="81">
         <v>56.734372380849237</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="81">
         <v>64.231854337192118</v>
       </c>
-      <c r="P11" s="84">
+      <c r="P11" s="81">
         <v>82.936325741577548</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="81">
         <v>68.185739967667885</v>
       </c>
-      <c r="R11" s="85">
+      <c r="R11" s="82">
         <v>57.300667055227834</v>
       </c>
     </row>
@@ -27484,24 +27375,24 @@
         <v>231049</v>
       </c>
       <c r="L12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M12" s="86">
+        <v>272</v>
+      </c>
+      <c r="M12" s="83">
         <v>57.187030837114278</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="84">
         <v>51.52574734528018</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="84">
         <v>47.877489102315394</v>
       </c>
-      <c r="P12" s="87">
+      <c r="P12" s="84">
         <v>50.364948405675179</v>
       </c>
-      <c r="Q12" s="87">
+      <c r="Q12" s="84">
         <v>49.912127331213348</v>
       </c>
-      <c r="R12" s="88">
+      <c r="R12" s="85">
         <v>48.050597037556678</v>
       </c>
     </row>
@@ -27542,48 +27433,48 @@
         <v>81.160273361927551</v>
       </c>
       <c r="L13" t="s">
-        <v>248</v>
-      </c>
-      <c r="M13" s="89">
+        <v>242</v>
+      </c>
+      <c r="M13" s="86">
         <v>31.999923020517347</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="87">
         <v>32.276340205216208</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="87">
         <v>32.775568934693638</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="87">
         <v>33.27249877747176</v>
       </c>
-      <c r="Q13" s="90">
+      <c r="Q13" s="87">
         <v>30.867008770745795</v>
       </c>
-      <c r="R13" s="91">
+      <c r="R13" s="88">
         <v>30.860341778599896</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="L14" t="s">
-        <v>247</v>
-      </c>
-      <c r="M14" s="92">
+        <v>241</v>
+      </c>
+      <c r="M14" s="89">
         <v>41.570300005979398</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="90">
         <v>41.269660779559956</v>
       </c>
-      <c r="O14" s="93">
+      <c r="O14" s="90">
         <v>41.77576738769605</v>
       </c>
-      <c r="P14" s="93">
+      <c r="P14" s="90">
         <v>41.208541345531721</v>
       </c>
-      <c r="Q14" s="93">
+      <c r="Q14" s="90">
         <v>39.634964116409598</v>
       </c>
-      <c r="R14" s="94">
+      <c r="R14" s="91">
         <v>37.884811669362726</v>
       </c>
     </row>
@@ -27592,24 +27483,24 @@
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M15" s="101">
+        <v>273</v>
+      </c>
+      <c r="M15" s="98">
         <v>53.001672655780972</v>
       </c>
-      <c r="N15" s="102">
+      <c r="N15" s="99">
         <v>52.175933131601376</v>
       </c>
-      <c r="O15" s="102">
+      <c r="O15" s="99">
         <v>40.152819289812498</v>
       </c>
-      <c r="P15" s="102">
+      <c r="P15" s="99">
         <v>45.233344720328773</v>
       </c>
-      <c r="Q15" s="102">
+      <c r="Q15" s="99">
         <v>36.420055959471526</v>
       </c>
-      <c r="R15" s="103">
+      <c r="R15" s="100">
         <v>43.636435168042027</v>
       </c>
     </row>
@@ -27638,24 +27529,24 @@
       </c>
       <c r="I16" s="6"/>
       <c r="L16" t="s">
-        <v>280</v>
-      </c>
-      <c r="M16" s="104">
+        <v>274</v>
+      </c>
+      <c r="M16" s="101">
         <v>38.975047076025319</v>
       </c>
-      <c r="N16" s="105">
+      <c r="N16" s="102">
         <v>44.610488654713507</v>
       </c>
-      <c r="O16" s="105">
+      <c r="O16" s="102">
         <v>53.184695937383815</v>
       </c>
-      <c r="P16" s="105">
+      <c r="P16" s="102">
         <v>46.32784389046013</v>
       </c>
-      <c r="Q16" s="105">
+      <c r="Q16" s="102">
         <v>47.340643641450882</v>
       </c>
-      <c r="R16" s="106">
+      <c r="R16" s="103">
         <v>49.018323233040576</v>
       </c>
     </row>
@@ -27686,24 +27577,24 @@
       </c>
       <c r="I17" s="4"/>
       <c r="L17" t="s">
-        <v>281</v>
-      </c>
-      <c r="M17" s="107">
+        <v>275</v>
+      </c>
+      <c r="M17" s="104">
         <v>45.123310038399289</v>
       </c>
-      <c r="N17" s="108">
+      <c r="N17" s="105">
         <v>34.866723488743062</v>
       </c>
-      <c r="O17" s="108">
+      <c r="O17" s="105">
         <v>33.579190297921841</v>
       </c>
-      <c r="P17" s="108">
+      <c r="P17" s="105">
         <v>36.091346433160808</v>
       </c>
-      <c r="Q17" s="108">
+      <c r="Q17" s="105">
         <v>34.350837249415804</v>
       </c>
-      <c r="R17" s="109">
+      <c r="R17" s="106">
         <v>38.538132139879998</v>
       </c>
     </row>
@@ -27741,24 +27632,24 @@
       </c>
       <c r="I18" s="5"/>
       <c r="L18" t="s">
-        <v>282</v>
-      </c>
-      <c r="M18" s="110">
+        <v>276</v>
+      </c>
+      <c r="M18" s="107">
         <v>45.290107592600954</v>
       </c>
-      <c r="N18" s="111">
+      <c r="N18" s="108">
         <v>39.986189913577896</v>
       </c>
-      <c r="O18" s="111">
+      <c r="O18" s="108">
         <v>35.751899088501411</v>
       </c>
-      <c r="P18" s="111">
+      <c r="P18" s="108">
         <v>35.463295811193625</v>
       </c>
-      <c r="Q18" s="111">
+      <c r="Q18" s="108">
         <v>32.973600286078401</v>
       </c>
-      <c r="R18" s="112">
+      <c r="R18" s="109">
         <v>38.784332730577113</v>
       </c>
     </row>
@@ -27796,24 +27687,24 @@
       </c>
       <c r="I19" s="5"/>
       <c r="L19" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="113">
+        <v>277</v>
+      </c>
+      <c r="M19" s="110">
         <v>54.018846477198153</v>
       </c>
-      <c r="N19" s="114">
+      <c r="N19" s="111">
         <v>63.742528780997887</v>
       </c>
-      <c r="O19" s="114">
+      <c r="O19" s="111">
         <v>67.934702270847183</v>
       </c>
-      <c r="P19" s="114">
+      <c r="P19" s="111">
         <v>79.148958189272861</v>
       </c>
-      <c r="Q19" s="114">
+      <c r="Q19" s="111">
         <v>47.582403621130155</v>
       </c>
-      <c r="R19" s="115">
+      <c r="R19" s="112">
         <v>57.024527405409081</v>
       </c>
     </row>
@@ -27851,24 +27742,24 @@
       </c>
       <c r="I20" s="5"/>
       <c r="L20" t="s">
-        <v>284</v>
-      </c>
-      <c r="M20" s="116">
+        <v>278</v>
+      </c>
+      <c r="M20" s="113">
         <v>17.581719314729956</v>
       </c>
-      <c r="N20" s="117">
+      <c r="N20" s="114">
         <v>18.792324465400156</v>
       </c>
-      <c r="O20" s="117">
+      <c r="O20" s="114">
         <v>20.522755584787507</v>
       </c>
-      <c r="P20" s="117">
+      <c r="P20" s="114">
         <v>20.897365828922325</v>
       </c>
-      <c r="Q20" s="117">
+      <c r="Q20" s="114">
         <v>25.222090520559838</v>
       </c>
-      <c r="R20" s="118">
+      <c r="R20" s="115">
         <v>24.52444658830807</v>
       </c>
     </row>
@@ -27899,24 +27790,24 @@
       </c>
       <c r="I21" s="4"/>
       <c r="L21" t="s">
-        <v>285</v>
-      </c>
-      <c r="M21" s="119">
+        <v>279</v>
+      </c>
+      <c r="M21" s="116">
         <v>11.072412788518482</v>
       </c>
-      <c r="N21" s="120">
+      <c r="N21" s="117">
         <v>10.681265916997562</v>
       </c>
-      <c r="O21" s="120">
+      <c r="O21" s="117">
         <v>10.190995021845222</v>
       </c>
-      <c r="P21" s="120">
+      <c r="P21" s="117">
         <v>10.658066258593209</v>
       </c>
-      <c r="Q21" s="120">
+      <c r="Q21" s="117">
         <v>10.153938290867337</v>
       </c>
-      <c r="R21" s="121">
+      <c r="R21" s="118">
         <v>9.0071849992234352</v>
       </c>
     </row>
@@ -27954,24 +27845,24 @@
       </c>
       <c r="I22" s="2"/>
       <c r="L22" t="s">
-        <v>286</v>
-      </c>
-      <c r="M22" s="122">
+        <v>280</v>
+      </c>
+      <c r="M22" s="119">
         <v>58.281808176355909</v>
       </c>
-      <c r="N22" s="123">
+      <c r="N22" s="120">
         <v>53.666158426282536</v>
       </c>
-      <c r="O22" s="123">
+      <c r="O22" s="120">
         <v>51.449310637005965</v>
       </c>
-      <c r="P22" s="123">
+      <c r="P22" s="120">
         <v>50.987258904956903</v>
       </c>
-      <c r="Q22" s="123">
+      <c r="Q22" s="120">
         <v>50.746540562102169</v>
       </c>
-      <c r="R22" s="124">
+      <c r="R22" s="121">
         <v>52.11466486831592</v>
       </c>
     </row>
@@ -28009,24 +27900,24 @@
       </c>
       <c r="I23" s="2"/>
       <c r="L23" t="s">
-        <v>287</v>
-      </c>
-      <c r="M23" s="125">
+        <v>281</v>
+      </c>
+      <c r="M23" s="122">
         <v>79.686847492084013</v>
       </c>
-      <c r="N23" s="126">
+      <c r="N23" s="123">
         <v>82.739814658968839</v>
       </c>
-      <c r="O23" s="126">
+      <c r="O23" s="123">
         <v>81.943306803817634</v>
       </c>
-      <c r="P23" s="126">
+      <c r="P23" s="123">
         <v>87.681326584940109</v>
       </c>
-      <c r="Q23" s="126">
+      <c r="Q23" s="123">
         <v>79.864436890857903</v>
       </c>
-      <c r="R23" s="127">
+      <c r="R23" s="124">
         <v>82.150956412735667</v>
       </c>
     </row>
@@ -28064,24 +27955,24 @@
       </c>
       <c r="I24" s="2"/>
       <c r="L24" t="s">
-        <v>288</v>
-      </c>
-      <c r="M24" s="128">
+        <v>282</v>
+      </c>
+      <c r="M24" s="125">
         <v>57.526093555397637</v>
       </c>
-      <c r="N24" s="129">
+      <c r="N24" s="126">
         <v>57.348984370447901</v>
       </c>
-      <c r="O24" s="129">
+      <c r="O24" s="126">
         <v>57.567723950717252</v>
       </c>
-      <c r="P24" s="129">
+      <c r="P24" s="126">
         <v>57.634555992309885</v>
       </c>
-      <c r="Q24" s="129">
+      <c r="Q24" s="126">
         <v>61.499945996043621</v>
       </c>
-      <c r="R24" s="130">
+      <c r="R24" s="127">
         <v>65.232177686667839</v>
       </c>
     </row>
@@ -28112,24 +28003,24 @@
       </c>
       <c r="I25" s="4"/>
       <c r="L25" t="s">
-        <v>289</v>
-      </c>
-      <c r="M25" s="131">
+        <v>283</v>
+      </c>
+      <c r="M25" s="128">
         <v>57.545651736683837</v>
       </c>
-      <c r="N25" s="132">
+      <c r="N25" s="129">
         <v>56.450832359842259</v>
       </c>
-      <c r="O25" s="132">
+      <c r="O25" s="129">
         <v>57.504803732075857</v>
       </c>
-      <c r="P25" s="132">
+      <c r="P25" s="129">
         <v>61.880068382901555</v>
       </c>
-      <c r="Q25" s="132">
+      <c r="Q25" s="129">
         <v>65.976601232627644</v>
       </c>
-      <c r="R25" s="133">
+      <c r="R25" s="130">
         <v>57.746270015896954</v>
       </c>
     </row>
@@ -28167,47 +28058,47 @@
       </c>
       <c r="I26" s="8"/>
       <c r="L26" t="s">
-        <v>290</v>
-      </c>
-      <c r="M26" s="134">
+        <v>284</v>
+      </c>
+      <c r="M26" s="131">
         <v>62.887109078927949</v>
       </c>
-      <c r="N26" s="135">
+      <c r="N26" s="132">
         <v>63.091595121857566</v>
       </c>
-      <c r="O26" s="135">
+      <c r="O26" s="132">
         <v>53.444924181412162</v>
       </c>
-      <c r="P26" s="135">
+      <c r="P26" s="132">
         <v>49.622674605350284</v>
       </c>
-      <c r="Q26" s="135">
+      <c r="Q26" s="132">
         <v>51.283986965294524</v>
       </c>
-      <c r="R26" s="136">
+      <c r="R26" s="133">
         <v>55.138204304914304</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="L27" t="s">
-        <v>245</v>
-      </c>
-      <c r="M27" s="137">
+        <v>239</v>
+      </c>
+      <c r="M27" s="134">
         <v>29.098218207770955</v>
       </c>
-      <c r="N27" s="138">
+      <c r="N27" s="135">
         <v>28.900838775001251</v>
       </c>
-      <c r="O27" s="138">
+      <c r="O27" s="135">
         <v>27.764531502259562</v>
       </c>
-      <c r="P27" s="138">
+      <c r="P27" s="135">
         <v>26.069865020415516</v>
       </c>
-      <c r="Q27" s="138">
+      <c r="Q27" s="135">
         <v>23.298874685920875</v>
       </c>
-      <c r="R27" s="139">
+      <c r="R27" s="136">
         <v>25.593991824258421</v>
       </c>
     </row>
@@ -28216,24 +28107,24 @@
         <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
-      </c>
-      <c r="M28" s="140">
+        <v>285</v>
+      </c>
+      <c r="M28" s="137">
         <v>53.773326745661571</v>
       </c>
-      <c r="N28" s="141">
+      <c r="N28" s="138">
         <v>54.730820053258078</v>
       </c>
-      <c r="O28" s="141">
+      <c r="O28" s="138">
         <v>56.56329284494619</v>
       </c>
-      <c r="P28" s="141">
+      <c r="P28" s="138">
         <v>60.611986255302718</v>
       </c>
-      <c r="Q28" s="141">
+      <c r="Q28" s="138">
         <v>56.456056087211643</v>
       </c>
-      <c r="R28" s="142">
+      <c r="R28" s="139">
         <v>56.482706987552447</v>
       </c>
     </row>
@@ -28264,24 +28155,24 @@
         <v>2018</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
-      </c>
-      <c r="M29" s="140">
+        <v>254</v>
+      </c>
+      <c r="M29" s="137">
         <v>24.945724141449759</v>
       </c>
-      <c r="N29" s="141">
+      <c r="N29" s="138">
         <v>23.528973248676671</v>
       </c>
-      <c r="O29" s="141">
+      <c r="O29" s="138">
         <v>24.784224713806495</v>
       </c>
-      <c r="P29" s="141">
+      <c r="P29" s="138">
         <v>26.909550391090036</v>
       </c>
-      <c r="Q29" s="141">
+      <c r="Q29" s="138">
         <v>28.840759977723749</v>
       </c>
-      <c r="R29" s="142">
+      <c r="R29" s="139">
         <v>26.350827257964447</v>
       </c>
     </row>
@@ -28314,24 +28205,24 @@
         <v>9498</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
-      </c>
-      <c r="M30" s="144">
+        <v>286</v>
+      </c>
+      <c r="M30" s="141">
         <v>26.387698014486968</v>
       </c>
-      <c r="N30" s="145">
+      <c r="N30" s="142">
         <v>25.694948460400973</v>
       </c>
-      <c r="O30" s="145">
+      <c r="O30" s="142">
         <v>26.875695418435633</v>
       </c>
-      <c r="P30" s="145">
+      <c r="P30" s="142">
         <v>25.427809391630202</v>
       </c>
-      <c r="Q30" s="145">
+      <c r="Q30" s="142">
         <v>22.72306813677918</v>
       </c>
-      <c r="R30" s="146">
+      <c r="R30" s="143">
         <v>25.832172296906762</v>
       </c>
     </row>
@@ -28585,14 +28476,14 @@
         <f t="shared" si="19"/>
         <v>0.56014873477856697</v>
       </c>
-      <c r="M37" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
+      <c r="M37" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="7" t="s">
@@ -28622,22 +28513,22 @@
       <c r="I38" s="13">
         <v>116617</v>
       </c>
-      <c r="N38" s="143">
+      <c r="N38" s="140">
         <v>2005</v>
       </c>
-      <c r="O38" s="143">
+      <c r="O38" s="140">
         <v>2006</v>
       </c>
-      <c r="P38" s="143">
+      <c r="P38" s="140">
         <v>2007</v>
       </c>
-      <c r="Q38" s="143">
+      <c r="Q38" s="140">
         <v>2008</v>
       </c>
-      <c r="R38" s="143">
+      <c r="R38" s="140">
         <v>2009</v>
       </c>
-      <c r="S38" s="143">
+      <c r="S38" s="140">
         <v>2010</v>
       </c>
     </row>
@@ -28678,50 +28569,50 @@
         <v>81.446101340284869</v>
       </c>
       <c r="L39" t="s">
-        <v>293</v>
-      </c>
-      <c r="M39" s="147" t="s">
-        <v>296</v>
-      </c>
-      <c r="N39" s="152">
+        <v>287</v>
+      </c>
+      <c r="M39" s="144" t="s">
+        <v>290</v>
+      </c>
+      <c r="N39" s="149">
         <v>54.619664282700491</v>
       </c>
-      <c r="O39" s="153">
+      <c r="O39" s="150">
         <v>55.330971927394046</v>
       </c>
-      <c r="P39" s="153">
+      <c r="P39" s="150">
         <v>54.501235583878191</v>
       </c>
-      <c r="Q39" s="153">
+      <c r="Q39" s="150">
         <v>55.08024306549833</v>
       </c>
-      <c r="R39" s="153">
+      <c r="R39" s="150">
         <v>56.358046853900667</v>
       </c>
-      <c r="S39" s="154">
+      <c r="S39" s="151">
         <v>60.184145743803249</v>
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="M40" s="148" t="s">
-        <v>297</v>
-      </c>
-      <c r="N40" s="155">
+      <c r="M40" s="145" t="s">
+        <v>291</v>
+      </c>
+      <c r="N40" s="152">
         <v>43.731263951503095</v>
       </c>
-      <c r="O40" s="156">
+      <c r="O40" s="153">
         <v>43.750782861386078</v>
       </c>
-      <c r="P40" s="156">
+      <c r="P40" s="153">
         <v>43.372456973643487</v>
       </c>
-      <c r="Q40" s="156">
+      <c r="Q40" s="153">
         <v>42.334101055822316</v>
       </c>
-      <c r="R40" s="156">
+      <c r="R40" s="153">
         <v>39.927569685344871</v>
       </c>
-      <c r="S40" s="157">
+      <c r="S40" s="154">
         <v>40.828797432551468</v>
       </c>
     </row>
@@ -28729,25 +28620,25 @@
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="N41" s="158">
+      <c r="M41" s="146" t="s">
+        <v>292</v>
+      </c>
+      <c r="N41" s="155">
         <v>43.944619288242457</v>
       </c>
-      <c r="O41" s="159">
+      <c r="O41" s="156">
         <v>43.896460093077017</v>
       </c>
-      <c r="P41" s="159">
+      <c r="P41" s="156">
         <v>44.19755542249731</v>
       </c>
-      <c r="Q41" s="159">
+      <c r="Q41" s="156">
         <v>43.944254254949527</v>
       </c>
-      <c r="R41" s="159">
+      <c r="R41" s="156">
         <v>40.740815460558473</v>
       </c>
-      <c r="S41" s="160">
+      <c r="S41" s="157">
         <v>42.367339153617671</v>
       </c>
     </row>
@@ -28777,25 +28668,25 @@
       <c r="I42" s="6">
         <v>2018</v>
       </c>
-      <c r="M42" s="150" t="s">
-        <v>299</v>
-      </c>
-      <c r="N42" s="161">
+      <c r="M42" s="147" t="s">
+        <v>293</v>
+      </c>
+      <c r="N42" s="158">
         <v>37.30528934687181</v>
       </c>
-      <c r="O42" s="162">
+      <c r="O42" s="159">
         <v>36.438883369750471</v>
       </c>
-      <c r="P42" s="162">
+      <c r="P42" s="159">
         <v>36.567336311283718</v>
       </c>
-      <c r="Q42" s="162">
+      <c r="Q42" s="159">
         <v>36.659668267257821</v>
       </c>
-      <c r="R42" s="162">
+      <c r="R42" s="159">
         <v>35.697687286681401</v>
       </c>
-      <c r="S42" s="163">
+      <c r="S42" s="160">
         <v>38.146989757862862</v>
       </c>
     </row>
@@ -28819,25 +28710,25 @@
       <c r="I43" s="17">
         <v>37290</v>
       </c>
-      <c r="M43" s="151" t="s">
-        <v>300</v>
-      </c>
-      <c r="N43" s="165">
+      <c r="M43" s="148" t="s">
+        <v>294</v>
+      </c>
+      <c r="N43" s="162">
         <v>36.845825943007043</v>
       </c>
-      <c r="O43" s="166">
+      <c r="O43" s="163">
         <v>37.177641750751349</v>
       </c>
-      <c r="P43" s="166">
+      <c r="P43" s="163">
         <v>36.787636105996626</v>
       </c>
-      <c r="Q43" s="166">
+      <c r="Q43" s="163">
         <v>36.538204811064745</v>
       </c>
-      <c r="R43" s="166">
+      <c r="R43" s="163">
         <v>35.501636953482972</v>
       </c>
-      <c r="S43" s="167">
+      <c r="S43" s="164">
         <v>35.84722172330838</v>
       </c>
     </row>

--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\carculator_truck\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B81B77-F3F3-AB46-8EE7-8EE614EDD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25830" windowHeight="12540" activeTab="9"/>
+    <workbookView xWindow="4400" yWindow="6400" windowWidth="25840" windowHeight="12540" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
@@ -26,10 +27,20 @@
     <sheet name="H2 tank mass" sheetId="14" r:id="rId12"/>
     <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -991,7 +1002,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1438,8 +1449,8 @@
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1457,7 +1468,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1519,7 +1530,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1604,7 +1615,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1825,7 +1836,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1863,7 +1874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -1942,7 +1953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1980,7 +1991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -2021,7 +2032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2035,7 +2046,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2116,7 +2127,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2224,7 +2235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -2286,7 +2297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -2327,7 +2338,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2341,7 +2352,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2403,7 +2414,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4941,7 +4952,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="727404008"/>
@@ -5000,7 +5011,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="727401384"/>
@@ -5046,7 +5057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5076,7 +5087,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5090,7 +5101,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5152,7 +5163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5650,7 +5661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="719097584"/>
@@ -5709,7 +5720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="719096928"/>
@@ -5751,7 +5762,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5781,7 +5792,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5795,7 +5806,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5832,7 +5843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5858,7 +5868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5910,7 +5920,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5936,7 +5945,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6038,7 +6047,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6064,7 +6072,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6178,7 +6186,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="741568848"/>
@@ -6240,7 +6248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="792583024"/>
@@ -6257,7 +6265,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6283,13 +6290,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6297,6 +6303,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6320,7 +6327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6334,7 +6341,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6371,7 +6378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6457,7 +6464,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6642,7 +6649,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6680,7 +6687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720453928"/>
@@ -6764,7 +6771,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6802,7 +6809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720448352"/>
@@ -6843,7 +6850,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6857,7 +6864,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6939,7 +6946,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7154,7 +7161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7192,7 +7199,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720453928"/>
@@ -7276,7 +7283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7314,7 +7321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720448352"/>
@@ -7355,7 +7362,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7369,7 +7376,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7431,7 +7438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7516,7 +7523,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7653,7 +7660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7691,7 +7698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -7770,7 +7777,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7808,7 +7815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -7849,7 +7856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7863,7 +7870,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8512,7 +8519,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8550,7 +8557,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1081512687"/>
@@ -8629,7 +8636,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8667,7 +8674,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132492911"/>
@@ -8709,13 +8716,12 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8723,6 +8729,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8749,7 +8756,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8763,7 +8770,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8800,7 +8807,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8893,7 +8900,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9019,7 +9026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="502397080"/>
@@ -9081,7 +9088,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="502399376"/>
@@ -9122,7 +9129,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9136,7 +9143,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9178,7 +9185,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9204,7 +9210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9399,7 +9405,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9425,7 +9430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9463,7 +9468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -9517,7 +9522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9543,7 +9547,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9581,7 +9585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -9622,7 +9626,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9636,7 +9640,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9678,7 +9682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9704,7 +9707,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9875,7 +9878,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9901,7 +9903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9939,7 +9941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -9993,7 +9995,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10019,7 +10020,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10057,7 +10058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -10098,7 +10099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10112,7 +10113,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10154,7 +10155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10180,7 +10180,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10351,7 +10351,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10377,7 +10376,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10415,7 +10414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -10469,7 +10468,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10495,7 +10493,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10533,7 +10531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -10574,7 +10572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10588,7 +10586,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10630,7 +10628,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10656,7 +10653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10804,7 +10801,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10830,7 +10826,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10868,7 +10864,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -10922,7 +10918,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10948,7 +10943,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10986,7 +10981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -11027,7 +11022,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11041,7 +11036,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11103,7 +11098,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11177,7 +11172,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11326,7 +11321,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11364,7 +11359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -11443,7 +11438,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11481,7 +11476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -11522,7 +11517,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19893,7 +19888,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0908A0C9-570E-4D1F-B76C-96E341C39ECA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19931,7 +19926,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8264ED7-6092-4836-88DA-CA3FF60CC6C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19964,14 +19959,20 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -20011,7 +20012,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BDBFEA-B62A-40BE-9BE4-56260E494C43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20049,7 +20050,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -20087,7 +20094,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023A76B8-635F-4C21-A2E4-6BC7A008B515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20125,7 +20132,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE0CF5F-3D00-4073-8083-195BDF7167FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20163,7 +20170,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE34F376-A476-4610-BDCB-350825D1CFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20201,7 +20208,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023A76B8-635F-4C21-A2E4-6BC7A008B515}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20244,7 +20251,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0C19C1-03B6-4BA7-BFA2-BCDC52132B74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20287,7 +20294,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653354FE-C245-430C-8E82-2CBB529D8844}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20327,7 +20334,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -20357,7 +20370,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -20395,7 +20414,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A7E4CB-2BD3-49C0-A8F4-0A3628A02352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20433,7 +20452,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -20747,14 +20772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -21014,20 +21039,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="161" customWidth="1"/>
-    <col min="12" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="161" customWidth="1"/>
+    <col min="12" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -21069,7 +21094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="38.25">
+    <row r="5" spans="1:13" ht="30">
       <c r="E5" t="s">
         <v>90</v>
       </c>
@@ -21671,35 +21696,35 @@
         <v>91</v>
       </c>
       <c r="F22" s="8">
-        <f>F18</f>
+        <f t="shared" ref="F22:M22" si="10">F18</f>
         <v>583.33333333333337</v>
       </c>
       <c r="G22" s="8">
-        <f>G18</f>
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="H22" s="8">
-        <f>H18</f>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
       <c r="I22" s="8">
-        <f>I18</f>
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
       <c r="J22" s="8">
-        <f>J18</f>
+        <f t="shared" si="10"/>
         <v>4333.333333333333</v>
       </c>
       <c r="K22" s="8">
-        <f>K18</f>
+        <f t="shared" si="10"/>
         <v>1680</v>
       </c>
       <c r="L22" s="8">
-        <f>L18</f>
+        <f t="shared" si="10"/>
         <v>2100</v>
       </c>
       <c r="M22" s="8">
-        <f>M18</f>
+        <f t="shared" si="10"/>
         <v>3150</v>
       </c>
     </row>
@@ -21708,23 +21733,23 @@
         <v>93</v>
       </c>
       <c r="F23" s="26">
-        <f t="shared" ref="F23:L23" si="10">F22/F20</f>
+        <f t="shared" ref="F23:L23" si="11">F22/F20</f>
         <v>0.31501023783272958</v>
       </c>
       <c r="G23" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31501023783272958</v>
       </c>
       <c r="H23" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31501023783272958</v>
       </c>
       <c r="I23" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31501023783272958</v>
       </c>
       <c r="J23" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.33053648614289349</v>
       </c>
       <c r="K23" s="26">
@@ -21732,7 +21757,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L23" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="M23" s="26">
@@ -21786,31 +21811,31 @@
         <v>82.541666666666671</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26:M26" si="11">SUM(G11)</f>
+        <f t="shared" ref="G26:M26" si="12">SUM(G11)</f>
         <v>176.875</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>424.5</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>613.16666666666663</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ref="K26" si="12">SUM(K11)</f>
+        <f t="shared" ref="K26" si="13">SUM(K11)</f>
         <v>446.4</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>558</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>837</v>
       </c>
     </row>
@@ -21823,31 +21848,31 @@
         <v>151.08333333333334</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" ref="G27:M27" si="13">G7</f>
+        <f t="shared" ref="G27:M27" si="14">G7</f>
         <v>323.75</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>518</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>777</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1122.3333333333333</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ref="K27" si="14">K7</f>
+        <f t="shared" ref="K27" si="15">K7</f>
         <v>899.2</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1124</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1686</v>
       </c>
     </row>
@@ -21955,7 +21980,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -21964,19 +21989,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22295,7 +22320,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -22303,21 +22328,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22656,16 +22681,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22673,7 +22698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
@@ -22799,7 +22824,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="16" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>35</v>
       </c>
@@ -22813,7 +22838,7 @@
         <v>861.60000010000022</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="16" thickBot="1">
       <c r="A15" s="36" t="s">
         <v>76</v>
       </c>
@@ -22833,14 +22858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="5:24">
       <c r="F7" t="s">
@@ -23258,27 +23283,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
@@ -23310,7 +23335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -23958,19 +23983,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
@@ -23978,22 +24003,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="161" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="161" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -25830,8 +25855,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1"/>
-    <hyperlink ref="R5" r:id="rId2"/>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -25839,29 +25864,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="16" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
@@ -25905,7 +25930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1">
+    <row r="2" spans="1:14" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -26333,9 +26358,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N9" r:id="rId2"/>
-    <hyperlink ref="N10:N12" r:id="rId3" display="https://www.mdpi.com/2032-6653/11/1/12/pdf"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="N9" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="N10:N12" r:id="rId3" display="https://www.mdpi.com/2032-6653/11/1/12/pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -26344,27 +26369,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
@@ -26402,7 +26427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1">
+    <row r="2" spans="1:12" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -26657,29 +26682,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="L5" r:id="rId4"/>
-    <hyperlink ref="L6" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26758,14 +26783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -26814,17 +26839,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
